--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -121,16 +121,16 @@
     <t>Bray Wanderers</t>
   </si>
   <si>
-    <t>Cobh Ramblers</t>
+    <t>Galway United</t>
+  </si>
+  <si>
+    <t>Waterford FC</t>
   </si>
   <si>
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Galway United</t>
-  </si>
-  <si>
-    <t>Waterford FC</t>
+    <t>Cobh Ramblers</t>
   </si>
   <si>
     <t>Cork City</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6062562</v>
+        <v>6062494</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,55 +1153,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M8">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>-1.25</v>
+      </c>
+      <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="Q8">
-        <v>0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.775</v>
-      </c>
-      <c r="S8">
-        <v>2.025</v>
-      </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>2.25</v>
+        <v>0.333</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB8">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6062561</v>
+        <v>6062495</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="P9">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6062494</v>
+        <v>6062561</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,46 +1331,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="N10">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
         <v>1.85</v>
@@ -1379,7 +1379,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6062495</v>
+        <v>6062562</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,46 +1420,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="O11">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>13</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1468,25 +1468,25 @@
         <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X11">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,10 +1506,10 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1865,7 +1865,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2396,10 +2396,10 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2663,7 +2663,7 @@
         <v>45003.5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -2844,7 +2844,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3111,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3197,7 +3197,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3286,10 +3286,10 @@
         <v>45016.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6478883</v>
+        <v>6063895</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O36">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063895</v>
+        <v>6478883</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37">
+        <v>2.05</v>
+      </c>
+      <c r="L37">
+        <v>3.2</v>
+      </c>
+      <c r="M37">
+        <v>3.25</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>3.1</v>
+      </c>
+      <c r="P37">
+        <v>3.5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.775</v>
+      </c>
+      <c r="S37">
+        <v>2.1</v>
+      </c>
+      <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
+        <v>1.9</v>
+      </c>
+      <c r="W37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37">
-        <v>3.8</v>
-      </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>1.85</v>
-      </c>
-      <c r="N37">
-        <v>4.75</v>
-      </c>
-      <c r="O37">
-        <v>3.6</v>
-      </c>
-      <c r="P37">
-        <v>1.615</v>
-      </c>
-      <c r="Q37">
-        <v>0.75</v>
-      </c>
-      <c r="R37">
-        <v>1.975</v>
-      </c>
-      <c r="S37">
-        <v>1.825</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.825</v>
-      </c>
-      <c r="V37">
-        <v>1.975</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
       <c r="X37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3998,10 +3998,10 @@
         <v>45023.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4176,7 +4176,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4265,10 +4265,10 @@
         <v>45030.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4532,10 +4532,10 @@
         <v>45037.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6062576</v>
+        <v>6062574</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,46 +4621,46 @@
         <v>45037.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
         <v>2.5</v>
@@ -4675,16 +4675,16 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y47">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6062574</v>
+        <v>6063893</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,76 +4710,76 @@
         <v>45037.65625</v>
       </c>
       <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
         <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>1.142</v>
+      </c>
+      <c r="N48">
+        <v>26</v>
+      </c>
+      <c r="O48">
+        <v>8.5</v>
+      </c>
+      <c r="P48">
+        <v>1.083</v>
+      </c>
+      <c r="Q48">
+        <v>2.5</v>
+      </c>
+      <c r="R48">
+        <v>1.8</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>3.25</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1.8</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>0.08299999999999996</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
         <v>1</v>
       </c>
-      <c r="J48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48">
-        <v>2.3</v>
-      </c>
-      <c r="L48">
-        <v>3.3</v>
-      </c>
-      <c r="M48">
-        <v>2.8</v>
-      </c>
-      <c r="N48">
-        <v>2.1</v>
-      </c>
-      <c r="O48">
-        <v>3.3</v>
-      </c>
-      <c r="P48">
-        <v>3.1</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.825</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-      <c r="U48">
-        <v>1.825</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
-      <c r="X48">
-        <v>2.3</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>-0.5</v>
-      </c>
-      <c r="AA48">
-        <v>0.4875</v>
-      </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6063893</v>
+        <v>6062576</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,55 +4799,55 @@
         <v>45037.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.142</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.083</v>
+        <v>3.6</v>
       </c>
       <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.875</v>
+      </c>
+      <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
         <v>2.5</v>
       </c>
-      <c r="R49">
-        <v>1.8</v>
-      </c>
-      <c r="S49">
-        <v>2</v>
-      </c>
-      <c r="T49">
-        <v>3.25</v>
-      </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4856,19 +4856,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.08299999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5066,10 +5066,10 @@
         <v>45044.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>45044.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
@@ -5600,7 +5600,7 @@
         <v>45047.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -5689,7 +5689,7 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5781,7 +5781,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>45051.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062518</v>
+        <v>6063890</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,73 +6134,73 @@
         <v>45051.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>1.833</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>1.5</v>
+      </c>
+      <c r="Q64">
         <v>1</v>
       </c>
-      <c r="J64" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64">
-        <v>2.2</v>
-      </c>
-      <c r="L64">
-        <v>3.2</v>
-      </c>
-      <c r="M64">
-        <v>3.1</v>
-      </c>
-      <c r="N64">
-        <v>2.1</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>3.2</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6063890</v>
+        <v>6062581</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45051.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="N65">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>2</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6062581</v>
+        <v>6062518</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,7 +6312,7 @@
         <v>45051.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
@@ -6327,43 +6327,43 @@
         <v>42</v>
       </c>
       <c r="K66">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
         <v>3.4</v>
       </c>
       <c r="P66">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
+        <v>1.775</v>
+      </c>
+      <c r="S66">
+        <v>2.025</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
+        <v>1.8</v>
+      </c>
+      <c r="V66">
         <v>2</v>
       </c>
-      <c r="S66">
-        <v>1.85</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.925</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
       <c r="W66">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6372,16 +6372,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6062520</v>
+        <v>6062582</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,13 +6401,13 @@
         <v>45058.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6416,43 +6416,43 @@
         <v>42</v>
       </c>
       <c r="K67">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="N67">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>0.6499999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6461,16 +6461,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6062521</v>
+        <v>6062520</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,10 +6490,10 @@
         <v>45058.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6505,43 +6505,43 @@
         <v>42</v>
       </c>
       <c r="K68">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="L68">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="N68">
-        <v>1.181</v>
+        <v>1.65</v>
       </c>
       <c r="O68">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q68">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.825</v>
+      </c>
+      <c r="S68">
+        <v>1.975</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
+        <v>1.875</v>
+      </c>
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="S68">
-        <v>1.875</v>
-      </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.8</v>
-      </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
-        <v>0.181</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6062582</v>
+        <v>6062521</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,13 +6579,13 @@
         <v>45058.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6597,28 +6597,28 @@
         <v>1.222</v>
       </c>
       <c r="L69">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="M69">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="N69">
-        <v>1.285</v>
+        <v>1.181</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R69">
+        <v>1.925</v>
+      </c>
+      <c r="S69">
         <v>1.875</v>
-      </c>
-      <c r="S69">
-        <v>1.925</v>
       </c>
       <c r="T69">
         <v>3</v>
@@ -6630,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="W69">
-        <v>0.2849999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,16 +6639,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>45058.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6935,10 +6935,10 @@
         <v>45065.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7205,7 +7205,7 @@
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7291,10 +7291,10 @@
         <v>45072.65625</v>
       </c>
       <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
         <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7383,7 +7383,7 @@
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7650,7 +7650,7 @@
         <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6062587</v>
+        <v>6062529</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45079.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>35</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M82">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N82">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6062586</v>
+        <v>6062587</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,58 +7825,58 @@
         <v>45079.65625</v>
       </c>
       <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>38</v>
       </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
       <c r="H83">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
       </c>
       <c r="K83">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7885,16 +7885,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45079.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q84">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>45079.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8184,7 +8184,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>45082.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8359,7 +8359,7 @@
         <v>45082.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8537,7 +8537,7 @@
         <v>45082.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8715,7 +8715,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -8807,7 +8807,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8896,7 +8896,7 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8985,7 +8985,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6062589</v>
+        <v>6062536</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>2</v>
-      </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M97">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N97">
-        <v>1.571</v>
+        <v>1.05</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>26</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,10 +9160,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6062536</v>
+        <v>6063883</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,40 +9249,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
       </c>
       <c r="K99">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="L99">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M99">
+        <v>15</v>
+      </c>
+      <c r="N99">
+        <v>1.062</v>
+      </c>
+      <c r="O99">
         <v>11</v>
       </c>
-      <c r="N99">
-        <v>1.05</v>
-      </c>
-      <c r="O99">
-        <v>15</v>
-      </c>
       <c r="P99">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q99">
-        <v>-3</v>
+        <v>-2.75</v>
       </c>
       <c r="R99">
         <v>1.95</v>
@@ -9291,16 +9291,16 @@
         <v>1.85</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>0.05000000000000004</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,13 +9309,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>1.062</v>
+        <v>1.571</v>
       </c>
       <c r="O100">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
+        <v>1.825</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.825</v>
-      </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9516,10 +9516,10 @@
         <v>45107.65625</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -9783,7 +9783,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>29</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6063881</v>
+        <v>6062539</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N107">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y107">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6062594</v>
+        <v>6063881</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,46 +10139,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>41</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N109">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>2.75</v>
@@ -10196,13 +10196,13 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
         <v>0.825</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6062539</v>
+        <v>6062594</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,7 +10228,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10237,31 +10237,31 @@
         <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="N110">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q110">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
         <v>1.875</v>
@@ -10273,31 +10273,31 @@
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,56 +10406,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
       </c>
       <c r="K112">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M112">
+        <v>1.4</v>
+      </c>
+      <c r="N112">
+        <v>8</v>
+      </c>
+      <c r="O112">
         <v>4.5</v>
       </c>
-      <c r="N112">
-        <v>1.4</v>
-      </c>
-      <c r="O112">
-        <v>4.2</v>
-      </c>
       <c r="P112">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="V112">
-        <v>1.85</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10463,19 +10463,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,56 +10495,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
         <v>41</v>
       </c>
       <c r="K113">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L113">
+        <v>3.8</v>
+      </c>
+      <c r="M113">
         <v>4.5</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>1.4</v>
       </c>
-      <c r="N113">
-        <v>8</v>
-      </c>
       <c r="O113">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q113">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.85</v>
       </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
@@ -10552,19 +10552,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10587,7 +10587,7 @@
         <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10940,10 +10940,10 @@
         <v>45135.65625</v>
       </c>
       <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
         <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>38</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11029,7 +11029,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>34</v>
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>45142.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -11385,7 +11385,7 @@
         <v>45142.65625</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11477,7 +11477,7 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11566,7 +11566,7 @@
         <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11741,7 +11741,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>31</v>
@@ -11833,7 +11833,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>45145.65625</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>32</v>
@@ -12011,7 +12011,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6062552</v>
+        <v>6062551</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,70 +12100,70 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
         <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6062551</v>
+        <v>6062552</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,73 +12186,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
         <v>35</v>
       </c>
-      <c r="G132" t="s">
-        <v>34</v>
-      </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L132">
         <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N132">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.775</v>
+      </c>
+      <c r="S132">
+        <v>2.025</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>2</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>0.3875</v>
+      </c>
+      <c r="AA132">
         <v>-0.5</v>
       </c>
-      <c r="R132">
-        <v>1.825</v>
-      </c>
-      <c r="S132">
-        <v>1.975</v>
-      </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
-      <c r="U132">
-        <v>1.85</v>
-      </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>2.4</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12456,7 +12456,7 @@
         <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6062602</v>
+        <v>6062554</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
         <v>36</v>
-      </c>
-      <c r="G137" t="s">
-        <v>30</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>41</v>
       </c>
       <c r="K137">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M137">
+        <v>1.5</v>
+      </c>
+      <c r="N137">
+        <v>6.5</v>
+      </c>
+      <c r="O137">
         <v>4.75</v>
       </c>
-      <c r="N137">
-        <v>1.8</v>
-      </c>
-      <c r="O137">
-        <v>3.75</v>
-      </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q137">
+        <v>1.25</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>3</v>
+      </c>
+      <c r="U137">
+        <v>1.775</v>
+      </c>
+      <c r="V137">
+        <v>2.025</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>0.444</v>
+      </c>
+      <c r="Z137">
+        <v>0.45</v>
+      </c>
+      <c r="AA137">
         <v>-0.5</v>
       </c>
-      <c r="R137">
-        <v>1.825</v>
-      </c>
-      <c r="S137">
-        <v>1.975</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>2.75</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
-      <c r="AA137">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,10 +12720,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6062554</v>
+        <v>6062602</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,55 +12809,55 @@
         <v>45163.65625</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>41</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N139">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="Q139">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12866,19 +12866,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.444</v>
+        <v>2.75</v>
       </c>
       <c r="Z139">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
         <v>31</v>
@@ -13165,10 +13165,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6063874</v>
+        <v>6062605</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,76 +13254,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="L144">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
+        <v>1.825</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>2.8</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
         <v>1</v>
       </c>
-      <c r="R144">
-        <v>1.875</v>
-      </c>
-      <c r="S144">
-        <v>1.925</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.825</v>
-      </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>0.55</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.925</v>
-      </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.825</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6062605</v>
+        <v>6063874</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,76 +13343,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145" t="s">
+        <v>41</v>
+      </c>
+      <c r="K145">
+        <v>6</v>
+      </c>
+      <c r="L145">
+        <v>4.333</v>
+      </c>
+      <c r="M145">
+        <v>1.444</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>1.55</v>
+      </c>
+      <c r="Q145">
         <v>1</v>
       </c>
-      <c r="J145" t="s">
-        <v>43</v>
-      </c>
-      <c r="K145">
-        <v>1.7</v>
-      </c>
-      <c r="L145">
-        <v>3.75</v>
-      </c>
-      <c r="M145">
-        <v>4.2</v>
-      </c>
-      <c r="N145">
-        <v>1.6</v>
-      </c>
-      <c r="O145">
-        <v>3.8</v>
-      </c>
-      <c r="P145">
-        <v>4.75</v>
-      </c>
-      <c r="Q145">
-        <v>-0.75</v>
-      </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
         <v>1.975</v>
       </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13435,7 +13435,7 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13613,7 +13613,7 @@
         <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13791,7 +13791,7 @@
         <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13877,10 +13877,10 @@
         <v>45178.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14055,10 +14055,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F153" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" t="s">
         <v>38</v>
-      </c>
-      <c r="G153" t="s">
-        <v>35</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14233,7 +14233,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
         <v>32</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6322552</v>
+        <v>7222986</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,76 +14411,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
         <v>36</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K157">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
+        <v>1.4</v>
+      </c>
+      <c r="N157">
+        <v>4.2</v>
+      </c>
+      <c r="O157">
+        <v>3.75</v>
+      </c>
+      <c r="P157">
+        <v>1.666</v>
+      </c>
+      <c r="Q157">
+        <v>0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>2.75</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
         <v>2</v>
       </c>
-      <c r="N157">
-        <v>2.875</v>
-      </c>
-      <c r="O157">
-        <v>3.4</v>
-      </c>
-      <c r="P157">
-        <v>2.15</v>
-      </c>
-      <c r="Q157">
-        <v>0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.825</v>
-      </c>
-      <c r="S157">
-        <v>2.025</v>
-      </c>
-      <c r="T157">
-        <v>3</v>
-      </c>
-      <c r="U157">
-        <v>2</v>
-      </c>
-      <c r="V157">
-        <v>1.85</v>
-      </c>
       <c r="W157">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7222986</v>
+        <v>6322552</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>42</v>
+      </c>
+      <c r="K158">
+        <v>3.1</v>
+      </c>
+      <c r="L158">
+        <v>3.5</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>2.875</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>2.15</v>
+      </c>
+      <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>2.025</v>
+      </c>
+      <c r="T158">
         <v>3</v>
       </c>
-      <c r="J158" t="s">
-        <v>41</v>
-      </c>
-      <c r="K158">
-        <v>5.75</v>
-      </c>
-      <c r="L158">
-        <v>4.5</v>
-      </c>
-      <c r="M158">
-        <v>1.4</v>
-      </c>
-      <c r="N158">
-        <v>4.2</v>
-      </c>
-      <c r="O158">
-        <v>3.75</v>
-      </c>
-      <c r="P158">
-        <v>1.666</v>
-      </c>
-      <c r="Q158">
-        <v>0.75</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.95</v>
-      </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
       <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
         <v>1.85</v>
       </c>
-      <c r="V158">
-        <v>2</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,13 +14678,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -14693,34 +14693,34 @@
         <v>42</v>
       </c>
       <c r="K160">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L160">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N160">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O160">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q160">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.85</v>
@@ -14729,7 +14729,7 @@
         <v>1.95</v>
       </c>
       <c r="W160">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,10 +14738,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14782,34 +14782,34 @@
         <v>42</v>
       </c>
       <c r="K161">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M161">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N161">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P161">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R161">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U161">
         <v>1.85</v>
@@ -14818,7 +14818,7 @@
         <v>1.95</v>
       </c>
       <c r="W161">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,10 +14827,10 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14856,10 +14856,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s">
         <v>37</v>
-      </c>
-      <c r="G162" t="s">
-        <v>36</v>
       </c>
       <c r="H162">
         <v>6</v>
@@ -14948,7 +14948,7 @@
         <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15034,7 +15034,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
         <v>30</v>
@@ -15301,7 +15301,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>34</v>
@@ -15390,7 +15390,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>33</v>
@@ -15657,10 +15657,10 @@
         <v>45209.65625</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15749,7 +15749,7 @@
         <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15838,7 +15838,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -16016,7 +16016,7 @@
         <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16105,7 +16105,7 @@
         <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16191,7 +16191,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
         <v>30</v>
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6471669</v>
+        <v>6471660</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,49 +16280,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U178">
         <v>1.8</v>
@@ -16331,19 +16331,19 @@
         <v>2</v>
       </c>
       <c r="W178">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
         <v>-1</v>
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6471668</v>
+        <v>6471667</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,10 +16369,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16384,46 +16384,46 @@
         <v>43</v>
       </c>
       <c r="K179">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L179">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
@@ -16432,13 +16432,13 @@
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6471667</v>
+        <v>6471668</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,10 +16458,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16473,46 +16473,46 @@
         <v>43</v>
       </c>
       <c r="K180">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M180">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P180">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y180">
         <v>-1</v>
@@ -16521,13 +16521,13 @@
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6471660</v>
+        <v>6471669</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,46 +16550,46 @@
         <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K181">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L181">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>7</v>
+      </c>
+      <c r="N181">
+        <v>1.75</v>
+      </c>
+      <c r="O181">
+        <v>3.8</v>
+      </c>
+      <c r="P181">
         <v>3.75</v>
       </c>
-      <c r="M181">
-        <v>4</v>
-      </c>
-      <c r="N181">
-        <v>1.615</v>
-      </c>
-      <c r="O181">
-        <v>4</v>
-      </c>
-      <c r="P181">
-        <v>4.5</v>
-      </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
         <v>1.8</v>
@@ -16598,19 +16598,19 @@
         <v>2</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X181">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>-1</v>
@@ -16636,10 +16636,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F182" t="s">
+        <v>36</v>
+      </c>
+      <c r="G182" t="s">
         <v>38</v>
-      </c>
-      <c r="G182" t="s">
-        <v>35</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16814,7 +16814,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>30</v>
@@ -16995,7 +16995,7 @@
         <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H186">
         <v>3</v>
@@ -17096,31 +17096,31 @@
         <v>3.75</v>
       </c>
       <c r="N187">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P187">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
         <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W187">
         <v>0</v>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062563</v>
+        <v>6063872</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N13">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
         <v>1.95</v>
       </c>
-      <c r="S13">
-        <v>1.85</v>
-      </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6063872</v>
+        <v>6062563</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
+        <v>1.6</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="L14">
-        <v>3.6</v>
-      </c>
       <c r="M14">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
+        <v>3.25</v>
+      </c>
+      <c r="Q14">
+        <v>-0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.85</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X14">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6063895</v>
+        <v>6062571</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36">
+        <v>4.75</v>
+      </c>
+      <c r="L36">
+        <v>3.75</v>
+      </c>
+      <c r="M36">
+        <v>1.6</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+      <c r="O36">
+        <v>4.2</v>
+      </c>
+      <c r="P36">
+        <v>1.363</v>
+      </c>
+      <c r="Q36">
+        <v>1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.9</v>
+      </c>
+      <c r="V36">
+        <v>1.95</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>0.363</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36">
-        <v>3.8</v>
-      </c>
-      <c r="L36">
-        <v>3.4</v>
-      </c>
-      <c r="M36">
-        <v>1.85</v>
-      </c>
-      <c r="N36">
-        <v>4.75</v>
-      </c>
-      <c r="O36">
-        <v>3.6</v>
-      </c>
-      <c r="P36">
-        <v>1.615</v>
-      </c>
-      <c r="Q36">
-        <v>0.75</v>
-      </c>
-      <c r="R36">
-        <v>1.975</v>
-      </c>
-      <c r="S36">
-        <v>1.825</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>1.975</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>2.6</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6478883</v>
+        <v>6062507</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,58 +3731,58 @@
         <v>45023.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3791,16 +3791,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062507</v>
+        <v>6478883</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,58 +3820,58 @@
         <v>45023.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
       </c>
       <c r="K38">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L38">
+        <v>3.2</v>
+      </c>
+      <c r="M38">
+        <v>3.25</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>3.1</v>
+      </c>
+      <c r="P38">
         <v>3.5</v>
-      </c>
-      <c r="M38">
-        <v>3.8</v>
-      </c>
-      <c r="N38">
-        <v>2.1</v>
-      </c>
-      <c r="O38">
-        <v>3.3</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3880,16 +3880,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6062509</v>
+        <v>6063895</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="N39">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q39">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6062571</v>
+        <v>6062509</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,37 +3998,37 @@
         <v>45023.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N40">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O40">
         <v>4.2</v>
       </c>
       <c r="P40">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="Q40">
         <v>1.25</v>
@@ -4037,16 +4037,16 @@
         <v>1.85</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4055,16 +4055,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6062574</v>
+        <v>6062576</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,46 +4621,46 @@
         <v>45037.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>2.5</v>
@@ -4675,16 +4675,16 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6063893</v>
+        <v>6062574</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,76 +4710,76 @@
         <v>45037.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>1.142</v>
+        <v>2.8</v>
       </c>
       <c r="N48">
-        <v>26</v>
+        <v>2.1</v>
       </c>
       <c r="O48">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>1.083</v>
+        <v>3.1</v>
       </c>
       <c r="Q48">
+        <v>-0.25</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>2.5</v>
       </c>
-      <c r="R48">
-        <v>1.8</v>
-      </c>
-      <c r="S48">
-        <v>2</v>
-      </c>
-      <c r="T48">
-        <v>3.25</v>
-      </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6062576</v>
+        <v>6063893</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,55 +4799,55 @@
         <v>45037.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>1.142</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P49">
-        <v>3.6</v>
+        <v>1.083</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4856,19 +4856,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.6</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6062582</v>
+        <v>6062520</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,13 +6401,13 @@
         <v>45058.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6416,43 +6416,43 @@
         <v>42</v>
       </c>
       <c r="K67">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="L67">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
         <v>4.75</v>
       </c>
-      <c r="P67">
-        <v>8</v>
-      </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
+        <v>1.825</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
         <v>1.875</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.925</v>
       </c>
-      <c r="T67">
-        <v>3</v>
-      </c>
-      <c r="U67">
-        <v>1.8</v>
-      </c>
-      <c r="V67">
-        <v>2</v>
-      </c>
       <c r="W67">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6461,16 +6461,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6062520</v>
+        <v>6062521</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,10 +6490,10 @@
         <v>45058.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6505,43 +6505,43 @@
         <v>42</v>
       </c>
       <c r="K68">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="N68">
-        <v>1.65</v>
+        <v>1.181</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P68">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>0.6499999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6550,16 +6550,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6062521</v>
+        <v>6062582</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,13 +6579,13 @@
         <v>45058.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6597,28 +6597,28 @@
         <v>1.222</v>
       </c>
       <c r="L69">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="N69">
-        <v>1.181</v>
+        <v>1.285</v>
       </c>
       <c r="O69">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q69">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R69">
+        <v>1.875</v>
+      </c>
+      <c r="S69">
         <v>1.925</v>
-      </c>
-      <c r="S69">
-        <v>1.875</v>
       </c>
       <c r="T69">
         <v>3</v>
@@ -6630,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="W69">
-        <v>0.181</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,16 +6639,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6062536</v>
+        <v>6063883</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,40 +9071,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="L97">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M97">
+        <v>15</v>
+      </c>
+      <c r="N97">
+        <v>1.062</v>
+      </c>
+      <c r="O97">
         <v>11</v>
       </c>
-      <c r="N97">
-        <v>1.05</v>
-      </c>
-      <c r="O97">
-        <v>15</v>
-      </c>
       <c r="P97">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q97">
-        <v>-3</v>
+        <v>-2.75</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9113,16 +9113,16 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.05000000000000004</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9131,13 +9131,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6062590</v>
+        <v>6062589</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L98">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="N98">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="O98">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
         <v>1.95</v>
       </c>
-      <c r="S98">
-        <v>1.9</v>
-      </c>
-      <c r="T98">
-        <v>3.25</v>
-      </c>
-      <c r="U98">
-        <v>1.875</v>
-      </c>
-      <c r="V98">
-        <v>1.925</v>
-      </c>
       <c r="W98">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.825</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.95</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6063883</v>
+        <v>6062590</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,58 +9249,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
       </c>
       <c r="K99">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="L99">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M99">
-        <v>15</v>
+        <v>1.285</v>
       </c>
       <c r="N99">
-        <v>1.062</v>
+        <v>6</v>
       </c>
       <c r="O99">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="P99">
-        <v>29</v>
+        <v>1.363</v>
       </c>
       <c r="Q99">
-        <v>-2.75</v>
+        <v>1.5</v>
       </c>
       <c r="R99">
         <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.06200000000000006</v>
+        <v>5</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,16 +9309,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6062589</v>
+        <v>6062536</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>2</v>
-      </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N100">
-        <v>1.571</v>
+        <v>1.05</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="P100">
-        <v>4.75</v>
+        <v>26</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6062539</v>
+        <v>6063881</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>1.45</v>
+      </c>
+      <c r="N107">
+        <v>5.25</v>
+      </c>
+      <c r="O107">
+        <v>4.2</v>
+      </c>
+      <c r="P107">
+        <v>1.571</v>
+      </c>
+      <c r="Q107">
         <v>1</v>
       </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107" t="s">
-        <v>43</v>
-      </c>
-      <c r="K107">
-        <v>8</v>
-      </c>
-      <c r="L107">
-        <v>5</v>
-      </c>
-      <c r="M107">
-        <v>1.3</v>
-      </c>
-      <c r="N107">
-        <v>8</v>
-      </c>
-      <c r="O107">
-        <v>5</v>
-      </c>
-      <c r="P107">
-        <v>1.3</v>
-      </c>
-      <c r="Q107">
-        <v>1.5</v>
-      </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z107">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6063881</v>
+        <v>6062594</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,46 +10139,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J109" t="s">
         <v>41</v>
       </c>
       <c r="K109">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
         <v>2.75</v>
@@ -10196,13 +10196,13 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
         <v>0.825</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6062594</v>
+        <v>6062539</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,40 +10228,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M110">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P110">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R110">
         <v>1.875</v>
@@ -10273,31 +10273,31 @@
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y110">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,56 +10406,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
       </c>
       <c r="K112">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L112">
+        <v>3.8</v>
+      </c>
+      <c r="M112">
         <v>4.5</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>1.4</v>
       </c>
-      <c r="N112">
-        <v>8</v>
-      </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P112">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.85</v>
       </c>
-      <c r="V112">
-        <v>1.95</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10463,19 +10463,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,56 +10495,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>41</v>
       </c>
       <c r="K113">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M113">
+        <v>1.4</v>
+      </c>
+      <c r="N113">
+        <v>8</v>
+      </c>
+      <c r="O113">
         <v>4.5</v>
       </c>
-      <c r="N113">
-        <v>1.4</v>
-      </c>
-      <c r="O113">
-        <v>4.2</v>
-      </c>
       <c r="P113">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="V113">
-        <v>1.85</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
@@ -10552,19 +10552,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6062547</v>
+        <v>6062598</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6062598</v>
+        <v>6063878</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>1.035</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M122">
-        <v>3.4</v>
+        <v>51</v>
       </c>
       <c r="N122">
-        <v>1.666</v>
+        <v>1.055</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P122">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U122">
         <v>1.825</v>
@@ -11347,25 +11347,25 @@
         <v>1.975</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X122">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6063878</v>
+        <v>6062547</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,40 +11385,40 @@
         <v>45142.65625</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>1.035</v>
+        <v>1.8</v>
       </c>
       <c r="L123">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>1.055</v>
+        <v>2.15</v>
       </c>
       <c r="O123">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>26</v>
+        <v>3.2</v>
       </c>
       <c r="Q123">
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
         <v>1.85</v>
@@ -11427,34 +11427,34 @@
         <v>1.95</v>
       </c>
       <c r="T123">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6062551</v>
+        <v>6062552</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,73 +12097,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
         <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N131">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
+        <v>0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
+        <v>2.025</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.85</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.3875</v>
+      </c>
+      <c r="AA131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.825</v>
-      </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.4</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6062552</v>
+        <v>6062551</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,73 +12186,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
         <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6062554</v>
+        <v>6062602</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,55 +12631,55 @@
         <v>45163.65625</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>41</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="L137">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N137">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O137">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12688,19 +12688,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.444</v>
+        <v>2.75</v>
       </c>
       <c r="Z137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6062602</v>
+        <v>6062554</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,76 +12809,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>41</v>
       </c>
       <c r="K139">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
+        <v>1.5</v>
+      </c>
+      <c r="N139">
+        <v>6.5</v>
+      </c>
+      <c r="O139">
         <v>4.75</v>
       </c>
-      <c r="N139">
-        <v>1.8</v>
-      </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
       <c r="P139">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q139">
+        <v>1.25</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>1.775</v>
+      </c>
+      <c r="V139">
+        <v>2.025</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>0.444</v>
+      </c>
+      <c r="Z139">
+        <v>0.45</v>
+      </c>
+      <c r="AA139">
         <v>-0.5</v>
       </c>
-      <c r="R139">
-        <v>1.825</v>
-      </c>
-      <c r="S139">
-        <v>1.975</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>2.75</v>
-      </c>
-      <c r="Z139">
-        <v>-1</v>
-      </c>
-      <c r="AA139">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6062603</v>
+        <v>6062605</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>1.6</v>
+      </c>
+      <c r="O142">
         <v>3.8</v>
       </c>
-      <c r="M142">
-        <v>4.5</v>
-      </c>
-      <c r="N142">
-        <v>1.95</v>
-      </c>
-      <c r="O142">
-        <v>3.5</v>
-      </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6062604</v>
+        <v>6063874</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,55 +13165,55 @@
         <v>45170.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>41</v>
       </c>
       <c r="K143">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L143">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O143">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13222,19 +13222,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6062605</v>
+        <v>6062604</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,40 +13254,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M144">
+        <v>6.5</v>
+      </c>
+      <c r="N144">
+        <v>1.5</v>
+      </c>
+      <c r="O144">
         <v>4.2</v>
       </c>
-      <c r="N144">
-        <v>1.6</v>
-      </c>
-      <c r="O144">
-        <v>3.8</v>
-      </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13296,22 +13296,22 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13320,10 +13320,10 @@
         <v>1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6063874</v>
+        <v>6062603</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,76 +13343,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q145">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7222986</v>
+        <v>6322552</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,76 +14411,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>42</v>
+      </c>
+      <c r="K157">
+        <v>3.1</v>
+      </c>
+      <c r="L157">
+        <v>3.5</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>2.875</v>
+      </c>
+      <c r="O157">
+        <v>3.4</v>
+      </c>
+      <c r="P157">
+        <v>2.15</v>
+      </c>
+      <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.825</v>
+      </c>
+      <c r="S157">
+        <v>2.025</v>
+      </c>
+      <c r="T157">
         <v>3</v>
       </c>
-      <c r="J157" t="s">
-        <v>41</v>
-      </c>
-      <c r="K157">
-        <v>5.75</v>
-      </c>
-      <c r="L157">
-        <v>4.5</v>
-      </c>
-      <c r="M157">
-        <v>1.4</v>
-      </c>
-      <c r="N157">
-        <v>4.2</v>
-      </c>
-      <c r="O157">
-        <v>3.75</v>
-      </c>
-      <c r="P157">
-        <v>1.666</v>
-      </c>
-      <c r="Q157">
-        <v>0.75</v>
-      </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>1.95</v>
-      </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
       <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.85</v>
       </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6322552</v>
+        <v>7222986</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M158">
+        <v>1.4</v>
+      </c>
+      <c r="N158">
+        <v>4.2</v>
+      </c>
+      <c r="O158">
+        <v>3.75</v>
+      </c>
+      <c r="P158">
+        <v>1.666</v>
+      </c>
+      <c r="Q158">
+        <v>0.75</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>1.85</v>
+      </c>
+      <c r="V158">
         <v>2</v>
       </c>
-      <c r="N158">
-        <v>2.875</v>
-      </c>
-      <c r="O158">
-        <v>3.4</v>
-      </c>
-      <c r="P158">
-        <v>2.15</v>
-      </c>
-      <c r="Q158">
-        <v>0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.825</v>
-      </c>
-      <c r="S158">
-        <v>2.025</v>
-      </c>
-      <c r="T158">
-        <v>3</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>1.85</v>
-      </c>
       <c r="W158">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,13 +14678,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -14693,34 +14693,34 @@
         <v>42</v>
       </c>
       <c r="K160">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M160">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N160">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
         <v>1.85</v>
@@ -14729,7 +14729,7 @@
         <v>1.95</v>
       </c>
       <c r="W160">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,10 +14738,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14782,34 +14782,34 @@
         <v>42</v>
       </c>
       <c r="K161">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L161">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q161">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>1.85</v>
@@ -14818,7 +14818,7 @@
         <v>1.95</v>
       </c>
       <c r="W161">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,10 +14827,10 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -15289,7 +15289,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6383172</v>
+        <v>6383173</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15301,76 +15301,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
       <c r="J167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K167">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
         <v>3.75</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N167">
+        <v>1.8</v>
+      </c>
+      <c r="O167">
+        <v>3.75</v>
+      </c>
+      <c r="P167">
+        <v>3.8</v>
+      </c>
+      <c r="Q167">
+        <v>-0.5</v>
+      </c>
+      <c r="R167">
+        <v>1.8</v>
+      </c>
+      <c r="S167">
         <v>2</v>
       </c>
-      <c r="O167">
-        <v>3.6</v>
-      </c>
-      <c r="P167">
-        <v>3.1</v>
-      </c>
-      <c r="Q167">
-        <v>-0.25</v>
-      </c>
-      <c r="R167">
-        <v>1.775</v>
-      </c>
-      <c r="S167">
-        <v>2.025</v>
-      </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA167">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15378,7 +15378,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6383173</v>
+        <v>6383172</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15390,76 +15390,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K168">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L168">
         <v>3.75</v>
       </c>
       <c r="M168">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168">
+        <v>3.6</v>
+      </c>
+      <c r="P168">
+        <v>3.1</v>
+      </c>
+      <c r="Q168">
+        <v>-0.25</v>
+      </c>
+      <c r="R168">
+        <v>1.775</v>
+      </c>
+      <c r="S168">
+        <v>2.025</v>
+      </c>
+      <c r="T168">
+        <v>3</v>
+      </c>
+      <c r="U168">
         <v>1.8</v>
       </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
-      <c r="P168">
-        <v>3.8</v>
-      </c>
-      <c r="Q168">
-        <v>-0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.8</v>
-      </c>
-      <c r="S168">
+      <c r="V168">
         <v>2</v>
       </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
       <c r="W168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6471660</v>
+        <v>6471669</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,49 +16280,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>7</v>
+      </c>
+      <c r="N178">
+        <v>1.75</v>
+      </c>
+      <c r="O178">
+        <v>3.8</v>
+      </c>
+      <c r="P178">
         <v>3.75</v>
       </c>
-      <c r="M178">
-        <v>4</v>
-      </c>
-      <c r="N178">
-        <v>1.615</v>
-      </c>
-      <c r="O178">
-        <v>4</v>
-      </c>
-      <c r="P178">
-        <v>4.5</v>
-      </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
         <v>1.8</v>
@@ -16331,19 +16331,19 @@
         <v>2</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
         <v>-1</v>
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6471668</v>
+        <v>6471660</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,61 +16458,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>43</v>
       </c>
       <c r="K180">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L180">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180">
         <v>4.5</v>
       </c>
-      <c r="P180">
-        <v>3.4</v>
-      </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y180">
         <v>-1</v>
@@ -16521,13 +16521,13 @@
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6471669</v>
+        <v>6471668</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,76 +16547,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K181">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="L181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M181">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N181">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P181">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q181">
         <v>-0.75</v>
       </c>
       <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
         <v>1.975</v>
-      </c>
-      <c r="S181">
-        <v>1.825</v>
       </c>
       <c r="T181">
         <v>3.25</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17062,80 +17062,6 @@
       </c>
       <c r="AC186">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>7630140</v>
-      </c>
-      <c r="C187" t="s">
-        <v>28</v>
-      </c>
-      <c r="D187" t="s">
-        <v>28</v>
-      </c>
-      <c r="E187" s="2">
-        <v>45339.6875</v>
-      </c>
-      <c r="F187" t="s">
-        <v>33</v>
-      </c>
-      <c r="G187" t="s">
-        <v>32</v>
-      </c>
-      <c r="K187">
-        <v>1.833</v>
-      </c>
-      <c r="L187">
-        <v>3.5</v>
-      </c>
-      <c r="M187">
-        <v>3.75</v>
-      </c>
-      <c r="N187">
-        <v>2</v>
-      </c>
-      <c r="O187">
-        <v>3.3</v>
-      </c>
-      <c r="P187">
-        <v>3.3</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2</v>
-      </c>
-      <c r="S187">
-        <v>1.85</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>2</v>
-      </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-      <c r="X187">
-        <v>0</v>
-      </c>
-      <c r="Y187">
-        <v>0</v>
-      </c>
-      <c r="Z187">
-        <v>0</v>
-      </c>
-      <c r="AA187">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -103,10 +103,10 @@
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
-    <t>Wexford FC</t>
+    <t>Kerry FC</t>
   </si>
   <si>
-    <t>Kerry FC</t>
+    <t>Wexford FC</t>
   </si>
   <si>
     <t>Treaty United FC</t>
@@ -127,10 +127,10 @@
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Cobh Ramblers</t>
+    <t>Bray Wanderers</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
+    <t>Cobh Ramblers</t>
   </si>
   <si>
     <t>Cork City</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062560</v>
+        <v>6063901</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,52 +619,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M2">
+        <v>1.7</v>
+      </c>
+      <c r="N2">
+        <v>3.25</v>
+      </c>
+      <c r="O2">
+        <v>3.75</v>
+      </c>
+      <c r="P2">
         <v>1.85</v>
-      </c>
-      <c r="N2">
-        <v>3.5</v>
-      </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>1.909</v>
       </c>
       <c r="Q2">
         <v>0.5</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
         <v>1.875</v>
-      </c>
-      <c r="S2">
-        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -673,19 +673,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6063901</v>
+        <v>6062560</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,52 +708,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="N3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
       </c>
       <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
         <v>1.925</v>
-      </c>
-      <c r="S3">
-        <v>1.875</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -762,19 +762,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6062562</v>
+        <v>6063900</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1343,43 +1343,43 @@
         <v>43</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P10">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>2.25</v>
+        <v>0.333</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6063900</v>
+        <v>6062562</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1432,43 +1432,43 @@
         <v>43</v>
       </c>
       <c r="K11">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>0.333</v>
+        <v>2.25</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1477,16 +1477,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062563</v>
+        <v>6062496</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
         <v>1.95</v>
       </c>
-      <c r="S13">
-        <v>1.85</v>
-      </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
         <v>0.95</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062496</v>
+        <v>6062563</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
         <v>3.25</v>
       </c>
-      <c r="P14">
-        <v>3.2</v>
-      </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
       </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -2221,7 +2221,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>9</v>
@@ -2310,7 +2310,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -2485,10 +2485,10 @@
         <v>45002.625</v>
       </c>
       <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
         <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2841,10 +2841,10 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3019,7 +3019,7 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -3111,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6063093</v>
+        <v>6062570</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45016.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N31">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P31">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X31">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6062570</v>
+        <v>6063093</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45016.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N32">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O32">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,10 +3375,10 @@
         <v>45016.65625</v>
       </c>
       <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
         <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3642,7 +3642,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -3731,7 +3731,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3820,7 +3820,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3998,7 +3998,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4090,7 +4090,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>6</v>
@@ -4179,7 +4179,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4446,7 +4446,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>45037.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4710,7 +4710,7 @@
         <v>45037.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -4799,7 +4799,7 @@
         <v>45037.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4891,7 +4891,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5155,7 +5155,7 @@
         <v>45044.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5247,7 +5247,7 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5336,7 +5336,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5511,7 +5511,7 @@
         <v>45047.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5603,7 +5603,7 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5689,10 +5689,10 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062581</v>
+        <v>6062580</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,13 +5956,13 @@
         <v>45051.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -5971,43 +5971,43 @@
         <v>43</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
         <v>2</v>
       </c>
       <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
         <v>1.85</v>
       </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.925</v>
-      </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6022,10 +6022,10 @@
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6062580</v>
+        <v>6062581</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,13 +6045,13 @@
         <v>45051.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6060,43 +6060,43 @@
         <v>43</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>2</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062519</v>
+        <v>6063890</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,61 +6137,61 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>1.833</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>1.5</v>
+      </c>
+      <c r="Q64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64">
-        <v>2.3</v>
-      </c>
-      <c r="L64">
-        <v>3.3</v>
-      </c>
-      <c r="M64">
-        <v>2.8</v>
-      </c>
-      <c r="N64">
-        <v>2.625</v>
-      </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
-      <c r="P64">
-        <v>2.5</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
       <c r="R64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6200,10 +6200,10 @@
         <v>-0</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6063890</v>
+        <v>6062519</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,61 +6315,61 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="N66">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P66">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T66">
         <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -6582,7 +6582,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6668,7 +6668,7 @@
         <v>45058.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6062523</v>
+        <v>6062524</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,10 +6846,10 @@
         <v>45065.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6861,40 +6861,40 @@
         <v>41</v>
       </c>
       <c r="K72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q72">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6903,19 +6903,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.45</v>
+        <v>3.2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB72">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6062524</v>
+        <v>6063888</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="N73">
-        <v>1.833</v>
+        <v>8</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q73">
+        <v>1.75</v>
+      </c>
+      <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>1.975</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>1.975</v>
+      </c>
+      <c r="V73">
+        <v>1.825</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>0.25</v>
+      </c>
+      <c r="Z73">
         <v>-0.5</v>
       </c>
-      <c r="R73">
-        <v>1.875</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.9</v>
-      </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>3.2</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6063888</v>
+        <v>6062583</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45065.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="L74">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="N74">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q74">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6062583</v>
+        <v>6062523</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45065.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N75">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB75">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45072.65625</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7558,10 +7558,10 @@
         <v>45072.65625</v>
       </c>
       <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s">
         <v>38</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7736,10 +7736,10 @@
         <v>45079.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45079.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>45082.5</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>34</v>
@@ -8270,7 +8270,7 @@
         <v>45082.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6062530</v>
+        <v>6063094</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,40 +8448,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O90">
         <v>3.4</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
         <v>1.825</v>
@@ -8493,31 +8493,31 @@
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6063094</v>
+        <v>6062530</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,40 +8537,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L91">
         <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N91">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O91">
         <v>3.4</v>
       </c>
       <c r="P91">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
         <v>1.825</v>
@@ -8582,31 +8582,31 @@
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X91">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8718,7 +8718,7 @@
         <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8893,7 +8893,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
         <v>35</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6062536</v>
+        <v>6062590</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,13 +9071,13 @@
         <v>45100.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9086,34 +9086,34 @@
         <v>43</v>
       </c>
       <c r="K97">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="L97">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M97">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="N97">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="O97">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="P97">
-        <v>26</v>
+        <v>1.363</v>
       </c>
       <c r="Q97">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R97">
         <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
         <v>1.875</v>
@@ -9122,7 +9122,7 @@
         <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.05000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9137,10 +9137,10 @@
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6062589</v>
+        <v>6062536</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M98">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N98">
-        <v>1.571</v>
+        <v>1.05</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>26</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6062590</v>
+        <v>6063883</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,55 +9252,55 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>43</v>
       </c>
       <c r="K99">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="L99">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M99">
-        <v>1.285</v>
+        <v>15</v>
       </c>
       <c r="N99">
-        <v>6</v>
+        <v>1.062</v>
       </c>
       <c r="O99">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="P99">
-        <v>1.363</v>
+        <v>29</v>
       </c>
       <c r="Q99">
-        <v>1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R99">
         <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>5</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,16 +9309,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>1.062</v>
+        <v>1.571</v>
       </c>
       <c r="O100">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
+        <v>1.825</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.825</v>
-      </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6063882</v>
+        <v>6062593</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M102">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N102">
-        <v>1.02</v>
+        <v>1.062</v>
       </c>
       <c r="O102">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P102">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q102">
-        <v>-4.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>0.02000000000000002</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6062593</v>
+        <v>6062592</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,73 +9605,73 @@
         <v>45107.65625</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.083</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>1.062</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>26</v>
+        <v>2.875</v>
       </c>
       <c r="Q103">
-        <v>-2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.8</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
+        <v>1.975</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
         <v>1.875</v>
       </c>
-      <c r="W103">
-        <v>0.06200000000000006</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>0.8</v>
       </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9697,7 +9697,7 @@
         <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6062592</v>
+        <v>6063882</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105">
+        <v>1.035</v>
+      </c>
+      <c r="L105">
+        <v>15</v>
+      </c>
+      <c r="M105">
         <v>41</v>
       </c>
-      <c r="K105">
-        <v>2.1</v>
-      </c>
-      <c r="L105">
-        <v>3.6</v>
-      </c>
-      <c r="M105">
-        <v>3</v>
-      </c>
       <c r="N105">
-        <v>2.25</v>
+        <v>1.02</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="P105">
-        <v>2.875</v>
+        <v>41</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10050,7 +10050,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10139,7 +10139,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10228,7 +10228,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10320,7 +10320,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,56 +10406,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
       </c>
       <c r="K112">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M112">
+        <v>1.4</v>
+      </c>
+      <c r="N112">
+        <v>8</v>
+      </c>
+      <c r="O112">
         <v>4.5</v>
       </c>
-      <c r="N112">
-        <v>1.4</v>
-      </c>
-      <c r="O112">
-        <v>4.2</v>
-      </c>
       <c r="P112">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="V112">
-        <v>1.85</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10463,19 +10463,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,56 +10495,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
         <v>41</v>
       </c>
       <c r="K113">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L113">
+        <v>3.8</v>
+      </c>
+      <c r="M113">
         <v>4.5</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>1.4</v>
       </c>
-      <c r="N113">
-        <v>8</v>
-      </c>
       <c r="O113">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q113">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.85</v>
       </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
@@ -10552,19 +10552,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10587,7 +10587,7 @@
         <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10676,7 +10676,7 @@
         <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6062597</v>
+        <v>6062544</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
+        <v>1.2</v>
+      </c>
+      <c r="L116">
         <v>7</v>
       </c>
-      <c r="L116">
-        <v>5</v>
-      </c>
       <c r="M116">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N116">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P116">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="Q116">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6063879</v>
+        <v>6063095</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,73 +10854,73 @@
         <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117">
+        <v>2.15</v>
+      </c>
+      <c r="L117">
+        <v>3.4</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>2.5</v>
+      </c>
+      <c r="O117">
+        <v>3.3</v>
+      </c>
+      <c r="P117">
+        <v>2.55</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>2</v>
       </c>
-      <c r="J117" t="s">
-        <v>41</v>
-      </c>
-      <c r="K117">
-        <v>4.2</v>
-      </c>
-      <c r="L117">
-        <v>4</v>
-      </c>
-      <c r="M117">
-        <v>1.666</v>
-      </c>
-      <c r="N117">
-        <v>3.5</v>
-      </c>
-      <c r="O117">
-        <v>3.75</v>
-      </c>
-      <c r="P117">
-        <v>1.85</v>
-      </c>
-      <c r="Q117">
-        <v>0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.925</v>
-      </c>
-      <c r="S117">
-        <v>1.875</v>
-      </c>
-      <c r="T117">
-        <v>2.5</v>
-      </c>
-      <c r="U117">
-        <v>1.85</v>
-      </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6063095</v>
+        <v>6062597</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,67 +10940,67 @@
         <v>45135.65625</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="N118">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P118">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
         <v>1.925</v>
       </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -11009,7 +11009,7 @@
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6062544</v>
+        <v>6063879</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="L119">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N119">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="O119">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P119">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="Q119">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
         <v>1.95</v>
       </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>45142.65625</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6062547</v>
+        <v>6062598</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,73 +11296,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N122">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y122">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6062598</v>
+        <v>6062547</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,73 +11385,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11652,7 +11652,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
         <v>33</v>
@@ -11830,7 +11830,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>34</v>
@@ -12008,10 +12008,10 @@
         <v>45145.65625</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12097,10 +12097,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F131" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" t="s">
         <v>29</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12275,10 +12275,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s">
         <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>38</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12545,7 +12545,7 @@
         <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -12631,7 +12631,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>34</v>
@@ -12723,7 +12723,7 @@
         <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12812,7 +12812,7 @@
         <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6063874</v>
+        <v>6062605</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13079,73 +13079,73 @@
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="L142">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
+        <v>1.825</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>2.8</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
         <v>1</v>
       </c>
-      <c r="R142">
-        <v>1.875</v>
-      </c>
-      <c r="S142">
-        <v>1.925</v>
-      </c>
-      <c r="T142">
-        <v>3</v>
-      </c>
-      <c r="U142">
-        <v>1.825</v>
-      </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>0.55</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
-      <c r="AA142">
-        <v>0.925</v>
-      </c>
       <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.825</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6062605</v>
+        <v>6063874</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,73 +13168,73 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>41</v>
+      </c>
+      <c r="K143">
+        <v>6</v>
+      </c>
+      <c r="L143">
+        <v>4.333</v>
+      </c>
+      <c r="M143">
+        <v>1.444</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>1.55</v>
+      </c>
+      <c r="Q143">
         <v>1</v>
       </c>
-      <c r="J143" t="s">
-        <v>42</v>
-      </c>
-      <c r="K143">
-        <v>1.7</v>
-      </c>
-      <c r="L143">
-        <v>3.75</v>
-      </c>
-      <c r="M143">
-        <v>4.2</v>
-      </c>
-      <c r="N143">
-        <v>1.6</v>
-      </c>
-      <c r="O143">
-        <v>3.8</v>
-      </c>
-      <c r="P143">
-        <v>4.75</v>
-      </c>
-      <c r="Q143">
-        <v>-0.75</v>
-      </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
         <v>31</v>
@@ -13521,7 +13521,7 @@
         <v>45177.65625</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
         <v>33</v>
@@ -13613,7 +13613,7 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13699,7 +13699,7 @@
         <v>45177.65625</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>35</v>
@@ -13877,7 +13877,7 @@
         <v>45178.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13969,7 +13969,7 @@
         <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14144,7 +14144,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>31</v>
@@ -14322,10 +14322,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14500,7 +14500,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>35</v>
@@ -14589,7 +14589,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
         <v>32</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,13 +14678,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -14693,34 +14693,34 @@
         <v>43</v>
       </c>
       <c r="K160">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M160">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N160">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
         <v>1.85</v>
@@ -14729,7 +14729,7 @@
         <v>1.95</v>
       </c>
       <c r="W160">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,10 +14738,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14782,34 +14782,34 @@
         <v>43</v>
       </c>
       <c r="K161">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L161">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q161">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>1.85</v>
@@ -14818,7 +14818,7 @@
         <v>1.95</v>
       </c>
       <c r="W161">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,10 +14827,10 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6351327</v>
+        <v>6351329</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,76 +14856,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K162">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P162">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
+        <v>1.925</v>
+      </c>
+      <c r="S162">
         <v>1.875</v>
-      </c>
-      <c r="S162">
-        <v>1.925</v>
       </c>
       <c r="T162">
         <v>3</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
         <v>0.875</v>
       </c>
-      <c r="AA162">
-        <v>-1</v>
-      </c>
       <c r="AB162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6351328</v>
+        <v>6351327</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,58 +14945,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>43</v>
       </c>
       <c r="K163">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L163">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
         <v>3</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15005,16 +15005,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6351329</v>
+        <v>6351328</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,76 +15034,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K164">
+        <v>1.3</v>
+      </c>
+      <c r="L164">
+        <v>5.25</v>
+      </c>
+      <c r="M164">
+        <v>7.5</v>
+      </c>
+      <c r="N164">
         <v>1.363</v>
       </c>
-      <c r="L164">
-        <v>5</v>
-      </c>
-      <c r="M164">
-        <v>6.5</v>
-      </c>
-      <c r="N164">
-        <v>1.4</v>
-      </c>
       <c r="O164">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q164">
         <v>-1.25</v>
       </c>
       <c r="R164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X164">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15126,7 +15126,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15301,10 +15301,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F167" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167" t="s">
         <v>30</v>
-      </c>
-      <c r="G167" t="s">
-        <v>29</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15378,7 +15378,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6383173</v>
+        <v>6383176</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15390,10 +15390,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15405,61 +15405,61 @@
         <v>43</v>
       </c>
       <c r="K168">
+        <v>1.909</v>
+      </c>
+      <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>3.6</v>
+      </c>
+      <c r="N168">
+        <v>1.6</v>
+      </c>
+      <c r="O168">
+        <v>4</v>
+      </c>
+      <c r="P168">
+        <v>4.75</v>
+      </c>
+      <c r="Q168">
+        <v>-1</v>
+      </c>
+      <c r="R168">
+        <v>1.95</v>
+      </c>
+      <c r="S168">
+        <v>1.85</v>
+      </c>
+      <c r="T168">
+        <v>3</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
         <v>1.8</v>
       </c>
-      <c r="L168">
-        <v>3.75</v>
-      </c>
-      <c r="M168">
-        <v>3.75</v>
-      </c>
-      <c r="N168">
-        <v>1.8</v>
-      </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
-      <c r="P168">
-        <v>3.8</v>
-      </c>
-      <c r="Q168">
-        <v>-0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.8</v>
-      </c>
-      <c r="S168">
-        <v>2</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
       <c r="W168">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>0.95</v>
+      </c>
+      <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.8</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
-      <c r="Y168">
-        <v>-1</v>
-      </c>
-      <c r="Z168">
-        <v>0.8</v>
-      </c>
-      <c r="AA168">
-        <v>-1</v>
-      </c>
-      <c r="AB168">
-        <v>-1</v>
-      </c>
-      <c r="AC168">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15467,7 +15467,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6383176</v>
+        <v>6383172</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15479,76 +15479,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>41</v>
+      </c>
+      <c r="K169">
+        <v>1.85</v>
+      </c>
+      <c r="L169">
+        <v>3.75</v>
+      </c>
+      <c r="M169">
+        <v>3.5</v>
+      </c>
+      <c r="N169">
         <v>2</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169" t="s">
-        <v>43</v>
-      </c>
-      <c r="K169">
-        <v>1.909</v>
-      </c>
-      <c r="L169">
-        <v>3.5</v>
-      </c>
-      <c r="M169">
+      <c r="O169">
         <v>3.6</v>
       </c>
-      <c r="N169">
-        <v>1.6</v>
-      </c>
-      <c r="O169">
-        <v>4</v>
-      </c>
       <c r="P169">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
         <v>2</v>
       </c>
-      <c r="V169">
-        <v>1.8</v>
-      </c>
       <c r="W169">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6383172</v>
+        <v>6383173</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,76 +15568,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
         <v>0</v>
       </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
       <c r="J170" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
         <v>3.75</v>
       </c>
       <c r="M170">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N170">
+        <v>1.8</v>
+      </c>
+      <c r="O170">
+        <v>3.75</v>
+      </c>
+      <c r="P170">
+        <v>3.8</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.8</v>
+      </c>
+      <c r="S170">
         <v>2</v>
       </c>
-      <c r="O170">
-        <v>3.6</v>
-      </c>
-      <c r="P170">
-        <v>3.1</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
-      <c r="R170">
-        <v>1.775</v>
-      </c>
-      <c r="S170">
-        <v>2.025</v>
-      </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15927,7 +15927,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16013,7 +16013,7 @@
         <v>45213.5625</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
         <v>34</v>
@@ -16102,10 +16102,10 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6471669</v>
+        <v>6471661</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,10 +16191,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16206,43 +16206,43 @@
         <v>43</v>
       </c>
       <c r="K177">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M177">
+        <v>4.333</v>
+      </c>
+      <c r="N177">
+        <v>1.125</v>
+      </c>
+      <c r="O177">
         <v>7</v>
       </c>
-      <c r="N177">
-        <v>1.75</v>
-      </c>
-      <c r="O177">
-        <v>3.8</v>
-      </c>
       <c r="P177">
+        <v>13</v>
+      </c>
+      <c r="Q177">
+        <v>-2.25</v>
+      </c>
+      <c r="R177">
+        <v>1.875</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
         <v>3.75</v>
       </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
         <v>1.975</v>
       </c>
-      <c r="S177">
-        <v>1.825</v>
-      </c>
-      <c r="T177">
-        <v>3.25</v>
-      </c>
-      <c r="U177">
-        <v>1.8</v>
-      </c>
-      <c r="V177">
-        <v>2</v>
-      </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16251,16 +16251,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>-0.5</v>
+      </c>
+      <c r="AA177">
+        <v>0.4625</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
-      <c r="AC177">
-        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
         <v>32</v>
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6471661</v>
+        <v>6471669</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,10 +16369,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16384,43 +16384,43 @@
         <v>43</v>
       </c>
       <c r="K179">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N179">
-        <v>1.125</v>
+        <v>1.75</v>
       </c>
       <c r="O179">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="Q179">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16429,16 +16429,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA179">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16547,10 +16547,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16639,7 +16639,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16728,7 +16728,7 @@
         <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16817,7 +16817,7 @@
         <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16903,7 +16903,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16995,7 +16995,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17170,10 +17170,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17259,7 +17259,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
         <v>36</v>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -16713,7 +16713,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7630065</v>
+        <v>7630584</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16725,76 +16725,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H183">
+        <v>3</v>
+      </c>
+      <c r="I183">
         <v>1</v>
       </c>
-      <c r="I183">
-        <v>2</v>
-      </c>
       <c r="J183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K183">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M183">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N183">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
         <v>2.75</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7630582</v>
+        <v>7630065</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,73 +16814,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K184">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T184">
         <v>2.75</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB184">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AC184">
         <v>-0.5</v>
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7630584</v>
+        <v>7630583</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,58 +16903,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M185">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="N185">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P185">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
-        <v>1.05</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16963,16 +16963,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16980,7 +16980,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7630583</v>
+        <v>7630582</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16992,13 +16992,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17007,43 +17007,43 @@
         <v>42</v>
       </c>
       <c r="K186">
-        <v>1.125</v>
+        <v>1.95</v>
       </c>
       <c r="L186">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="N186">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O186">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P186">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q186">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.2849999999999999</v>
+        <v>2</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17052,16 +17052,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -106,13 +106,13 @@
     <t>Waterford FC</t>
   </si>
   <si>
-    <t>Wexford FC</t>
+    <t>Bray Wanderers</t>
   </si>
   <si>
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
+    <t>Wexford FC</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062587</v>
+        <v>6062529</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M3">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062529</v>
+        <v>6062587</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6062535</v>
+        <v>6062534</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q12">
+        <v>1.75</v>
+      </c>
+      <c r="R12">
+        <v>1.8</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>0.25</v>
+      </c>
+      <c r="Z12">
         <v>-0.5</v>
       </c>
-      <c r="R12">
-        <v>1.925</v>
-      </c>
-      <c r="S12">
-        <v>1.925</v>
-      </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>2.8</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062588</v>
+        <v>6062535</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,55 +1595,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N13">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
         <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1652,19 +1652,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
+        <v>0.925</v>
+      </c>
+      <c r="AB13">
         <v>0.825</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062534</v>
+        <v>6062588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>2.6</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
+        <v>2.4</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
+        <v>1.975</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
         <v>1.4</v>
       </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <v>5.25</v>
-      </c>
-      <c r="P15">
-        <v>1.25</v>
-      </c>
-      <c r="Q15">
-        <v>1.75</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.8</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>0.25</v>
-      </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062536</v>
+        <v>6062589</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L17">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.05</v>
+        <v>1.571</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>26</v>
+        <v>4.75</v>
       </c>
       <c r="Q17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.825</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>1.85</v>
+      </c>
+      <c r="V17">
         <v>1.95</v>
       </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>3.5</v>
-      </c>
-      <c r="U17">
-        <v>1.875</v>
-      </c>
-      <c r="V17">
-        <v>1.925</v>
-      </c>
       <c r="W17">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.825</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.95</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.875</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062589</v>
+        <v>6062590</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="N18">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6062590</v>
+        <v>6062536</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,13 +2129,13 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2144,34 +2144,34 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M19">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="P19">
-        <v>1.363</v>
+        <v>26</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="R19">
         <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
         <v>1.875</v>
@@ -2180,7 +2180,7 @@
         <v>1.925</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,10 +2195,10 @@
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6062537</v>
+        <v>6062593</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1.083</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>23</v>
       </c>
       <c r="N22">
-        <v>3.25</v>
+        <v>1.062</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6063882</v>
+        <v>6062537</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.035</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="O23">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-4.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6062593</v>
+        <v>6063882</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25">
-        <v>1.083</v>
+        <v>1.035</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N25">
-        <v>1.062</v>
+        <v>1.02</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P25">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q25">
-        <v>-2.75</v>
+        <v>-4.25</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.06200000000000006</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,16 +2723,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6063881</v>
+        <v>6062594</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,46 +2841,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>43</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="N27">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2898,13 +2898,13 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>0.825</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6062594</v>
+        <v>6063881</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,46 +2930,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.75</v>
@@ -2987,13 +2987,13 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>0.825</v>
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,56 +3286,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
+        <v>1.4</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="N32">
-        <v>1.4</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3343,19 +3343,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,56 +3375,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L33">
+        <v>3.8</v>
+      </c>
+      <c r="M33">
         <v>4.5</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1.4</v>
       </c>
-      <c r="N33">
-        <v>8</v>
-      </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6063879</v>
+        <v>6062597</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N36">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R36">
+        <v>1.825</v>
+      </c>
+      <c r="S36">
+        <v>2.025</v>
+      </c>
+      <c r="T36">
+        <v>3.25</v>
+      </c>
+      <c r="U36">
         <v>1.925</v>
       </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6062597</v>
+        <v>6063879</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N37">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P37">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q37">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062544</v>
+        <v>6063095</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3835,43 +3835,43 @@
         <v>41</v>
       </c>
       <c r="K38">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q38">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3880,16 +3880,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6063095</v>
+        <v>6062544</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,13 +3909,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>30</v>
       </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3924,61 +3924,61 @@
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>1.25</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>-1.75</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>2.5</v>
-      </c>
-      <c r="O39">
-        <v>3.3</v>
-      </c>
-      <c r="P39">
-        <v>2.55</v>
-      </c>
-      <c r="Q39">
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>1.85</v>
+      </c>
+      <c r="W39">
+        <v>0.25</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0</v>
       </c>
-      <c r="R39">
-        <v>1.875</v>
-      </c>
-      <c r="S39">
-        <v>1.925</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>1.8</v>
-      </c>
-      <c r="W39">
-        <v>1.5</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>0.875</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6062547</v>
+        <v>6062546</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,73 +4087,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
       <c r="N41">
+        <v>2.75</v>
+      </c>
+      <c r="O41">
+        <v>3.75</v>
+      </c>
+      <c r="P41">
         <v>2.15</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
+        <v>0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
+        <v>1.9</v>
+      </c>
+      <c r="T41">
         <v>3.25</v>
       </c>
-      <c r="P41">
-        <v>3.2</v>
-      </c>
-      <c r="Q41">
-        <v>-0.25</v>
-      </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>1.95</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y41">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6062546</v>
+        <v>6063878</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.7</v>
+        <v>1.035</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N42">
-        <v>2.75</v>
+        <v>1.055</v>
       </c>
       <c r="O42">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X42">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6062598</v>
+        <v>6062547</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6063878</v>
+        <v>6062598</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,49 +4354,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>1.035</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>51</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
-        <v>1.055</v>
+        <v>1.666</v>
       </c>
       <c r="O44">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q44">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
         <v>1.825</v>
@@ -4405,25 +4405,25 @@
         <v>1.975</v>
       </c>
       <c r="W44">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4710,7 +4710,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M50">
+        <v>1.444</v>
+      </c>
+      <c r="N50">
+        <v>5.75</v>
+      </c>
+      <c r="O50">
         <v>4.5</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
       <c r="P50">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6062551</v>
+        <v>6063876</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,61 +4977,61 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51">
+        <v>1.285</v>
+      </c>
+      <c r="L51">
+        <v>5.5</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.2</v>
+      </c>
+      <c r="O51">
+        <v>6.5</v>
+      </c>
+      <c r="P51">
+        <v>8</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="J51" t="s">
-        <v>42</v>
-      </c>
-      <c r="K51">
-        <v>2.25</v>
-      </c>
-      <c r="L51">
-        <v>3.2</v>
-      </c>
-      <c r="M51">
-        <v>2.8</v>
-      </c>
-      <c r="N51">
-        <v>1.75</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
-      <c r="P51">
-        <v>4</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
+      <c r="U51">
         <v>1.825</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.975</v>
       </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
-      <c r="V51">
-        <v>1.95</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6063876</v>
+        <v>6062552</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,73 +5066,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52">
+        <v>2.4</v>
+      </c>
+      <c r="L52">
+        <v>3.2</v>
+      </c>
+      <c r="M52">
+        <v>2.6</v>
+      </c>
+      <c r="N52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52">
-        <v>1.285</v>
-      </c>
-      <c r="L52">
-        <v>5.5</v>
-      </c>
-      <c r="M52">
-        <v>6.5</v>
-      </c>
-      <c r="N52">
-        <v>1.2</v>
-      </c>
       <c r="O52">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6062552</v>
+        <v>6062551</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,73 +5155,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
         <v>3.2</v>
       </c>
       <c r="M53">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
+        <v>1.85</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6063875</v>
+        <v>6062554</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,40 +5422,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L56">
+        <v>4.5</v>
+      </c>
+      <c r="M56">
+        <v>1.5</v>
+      </c>
+      <c r="N56">
+        <v>6.5</v>
+      </c>
+      <c r="O56">
         <v>4.75</v>
       </c>
-      <c r="M56">
-        <v>6.5</v>
-      </c>
-      <c r="N56">
-        <v>1.55</v>
-      </c>
-      <c r="O56">
-        <v>4.333</v>
-      </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R56">
         <v>1.9</v>
@@ -5464,34 +5464,34 @@
         <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062554</v>
+        <v>6063875</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,40 +5600,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N58">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O58">
+        <v>4.333</v>
+      </c>
+      <c r="P58">
         <v>4.75</v>
       </c>
-      <c r="P58">
-        <v>1.444</v>
-      </c>
       <c r="Q58">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R58">
         <v>1.9</v>
@@ -5642,34 +5642,34 @@
         <v>1.9</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5692,7 +5692,7 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6062605</v>
+        <v>6063874</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
         <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <v>4.333</v>
+      </c>
+      <c r="M63">
+        <v>1.444</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>1.55</v>
+      </c>
+      <c r="Q63">
         <v>1</v>
       </c>
-      <c r="J63" t="s">
-        <v>42</v>
-      </c>
-      <c r="K63">
-        <v>1.7</v>
-      </c>
-      <c r="L63">
-        <v>3.75</v>
-      </c>
-      <c r="M63">
-        <v>4.2</v>
-      </c>
-      <c r="N63">
-        <v>1.6</v>
-      </c>
-      <c r="O63">
-        <v>3.8</v>
-      </c>
-      <c r="P63">
-        <v>4.75</v>
-      </c>
-      <c r="Q63">
-        <v>-0.75</v>
-      </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6063874</v>
+        <v>6062605</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="L64">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M64">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.975</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.8</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>1</v>
       </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
-      <c r="T64">
-        <v>3</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>0.55</v>
-      </c>
-      <c r="Z64">
-        <v>-1</v>
-      </c>
-      <c r="AA64">
-        <v>0.925</v>
-      </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.825</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6063873</v>
+        <v>6063096</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,49 +6401,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q67">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>2</v>
@@ -6455,22 +6455,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
         <v>1</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>45177.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>36</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6063096</v>
+        <v>6063873</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,49 +6579,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
         <v>1.8</v>
       </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
         <v>2</v>
@@ -6633,22 +6633,22 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y69">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6288590</v>
+        <v>6288012</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="L72">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.825</v>
+      </c>
+      <c r="S72">
         <v>1.975</v>
       </c>
-      <c r="S72">
-        <v>1.825</v>
-      </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288012</v>
+        <v>6287998</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
+        <v>1.363</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>7</v>
+      </c>
+      <c r="N73">
+        <v>1.4</v>
+      </c>
+      <c r="O73">
+        <v>4.75</v>
+      </c>
+      <c r="P73">
+        <v>6</v>
+      </c>
+      <c r="Q73">
+        <v>-1.25</v>
+      </c>
+      <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
       </c>
-      <c r="L73">
-        <v>3.6</v>
-      </c>
-      <c r="M73">
-        <v>3.4</v>
-      </c>
-      <c r="N73">
-        <v>2.05</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>3.1</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.825</v>
-      </c>
-      <c r="S73">
-        <v>1.975</v>
-      </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6287998</v>
+        <v>6288590</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,10 +7113,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
         <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322552</v>
+        <v>6322551</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>4</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="N76">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P76">
-        <v>2.15</v>
+        <v>1.071</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322551</v>
+        <v>6322552</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>23</v>
+        <v>3.1</v>
       </c>
       <c r="L77">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>1.071</v>
+        <v>2.15</v>
       </c>
       <c r="Q77">
-        <v>2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
+        <v>2.025</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="T77">
-        <v>3.75</v>
-      </c>
-      <c r="U77">
-        <v>1.9</v>
-      </c>
-      <c r="V77">
-        <v>1.9</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6322550</v>
+        <v>7222986</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="N78">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O78">
         <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>0.6659999999999999</v>
       </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7222986</v>
+        <v>6322550</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="L79">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O79">
         <v>3.75</v>
       </c>
       <c r="P79">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,13 +7558,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7573,34 +7573,34 @@
         <v>41</v>
       </c>
       <c r="K80">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7609,7 +7609,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7618,10 +7618,10 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7662,34 +7662,34 @@
         <v>41</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
         <v>1.85</v>
@@ -7698,7 +7698,7 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7707,10 +7707,10 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351328</v>
+        <v>6351329</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L82">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
         <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351329</v>
+        <v>6351328</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
+        <v>1.3</v>
+      </c>
+      <c r="L83">
+        <v>5.25</v>
+      </c>
+      <c r="M83">
+        <v>7.5</v>
+      </c>
+      <c r="N83">
         <v>1.363</v>
       </c>
-      <c r="L83">
-        <v>5</v>
-      </c>
-      <c r="M83">
-        <v>6.5</v>
-      </c>
-      <c r="N83">
-        <v>1.4</v>
-      </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q83">
         <v>-1.25</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X83">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>35</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383172</v>
+        <v>6383176</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
+        <v>1.909</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>3.6</v>
+      </c>
+      <c r="N87">
+        <v>1.6</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>4.75</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
-      </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
-      <c r="M87">
-        <v>3.5</v>
-      </c>
-      <c r="N87">
-        <v>2</v>
-      </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
-      <c r="P87">
-        <v>3.1</v>
-      </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
-        <v>1.775</v>
-      </c>
-      <c r="S87">
-        <v>2.025</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.8</v>
       </c>
-      <c r="V87">
-        <v>2</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383173</v>
+        <v>6383172</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
         <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>3.1</v>
+      </c>
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.775</v>
+      </c>
+      <c r="S88">
+        <v>2.025</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
-      <c r="P88">
-        <v>3.8</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6383176</v>
+        <v>6383173</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,10 +8448,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8463,43 +8463,43 @@
         <v>41</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N90">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W90">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,7 +8508,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8982,7 +8982,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471669</v>
+        <v>6471668</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N97">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
         <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>1.825</v>
+      </c>
+      <c r="S97">
         <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.825</v>
       </c>
       <c r="T97">
         <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471668</v>
+        <v>6471669</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
         <v>1.825</v>
-      </c>
-      <c r="S98">
-        <v>1.975</v>
       </c>
       <c r="T98">
         <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471667</v>
+        <v>6471660</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,61 +9249,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>4.75</v>
-      </c>
       <c r="N99">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q99">
         <v>-1</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
-      </c>
-      <c r="S99">
-        <v>2</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y99">
         <v>-1</v>
@@ -9312,13 +9312,13 @@
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>1</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471661</v>
+        <v>6471667</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
         <v>4</v>
       </c>
       <c r="M100">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N100">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="O100">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471660</v>
+        <v>6471661</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>4.333</v>
+      </c>
+      <c r="N101">
+        <v>1.125</v>
+      </c>
+      <c r="O101">
+        <v>7</v>
+      </c>
+      <c r="P101">
+        <v>13</v>
+      </c>
+      <c r="Q101">
+        <v>-2.25</v>
+      </c>
+      <c r="R101">
+        <v>1.875</v>
+      </c>
+      <c r="S101">
+        <v>1.925</v>
+      </c>
+      <c r="T101">
         <v>3.75</v>
       </c>
-      <c r="M101">
-        <v>4</v>
-      </c>
-      <c r="N101">
-        <v>1.615</v>
-      </c>
-      <c r="O101">
-        <v>4</v>
-      </c>
-      <c r="P101">
-        <v>4.5</v>
-      </c>
-      <c r="Q101">
-        <v>-1</v>
-      </c>
-      <c r="R101">
-        <v>2</v>
-      </c>
-      <c r="S101">
-        <v>1.8</v>
-      </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630065</v>
+        <v>7630582</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,73 +9605,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s">
         <v>32</v>
       </c>
-      <c r="G103" t="s">
-        <v>40</v>
-      </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.7</v>
-      </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AC103">
         <v>-0.5</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7630584</v>
+        <v>7630583</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M104">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="N104">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>1.05</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,16 +9754,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630583</v>
+        <v>7630584</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="N105">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="Q105">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630582</v>
+        <v>7630065</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AC106">
         <v>-0.5</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630141</v>
+        <v>7630067</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630067</v>
+        <v>7630141</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>2.55</v>
+      </c>
+      <c r="N110">
+        <v>3.3</v>
+      </c>
+      <c r="O110">
         <v>3.5</v>
       </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.5</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10387,6 +10387,376 @@
       </c>
       <c r="AC111">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7630068</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>38</v>
+      </c>
+      <c r="K112">
+        <v>1.8</v>
+      </c>
+      <c r="L112">
+        <v>3.75</v>
+      </c>
+      <c r="M112">
+        <v>4.2</v>
+      </c>
+      <c r="N112">
+        <v>1.8</v>
+      </c>
+      <c r="O112">
+        <v>3.75</v>
+      </c>
+      <c r="P112">
+        <v>4.2</v>
+      </c>
+      <c r="Q112">
+        <v>-0.75</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
+        <v>1.9</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7630587</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113">
+        <v>2.05</v>
+      </c>
+      <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>3.5</v>
+      </c>
+      <c r="N113">
+        <v>2.05</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
+        <v>3.5</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2.05</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7630586</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114">
+        <v>4.5</v>
+      </c>
+      <c r="L114">
+        <v>3.75</v>
+      </c>
+      <c r="M114">
+        <v>1.727</v>
+      </c>
+      <c r="N114">
+        <v>4.5</v>
+      </c>
+      <c r="O114">
+        <v>3.75</v>
+      </c>
+      <c r="P114">
+        <v>1.727</v>
+      </c>
+      <c r="Q114">
+        <v>0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.925</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
+        <v>1.9</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7630143</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115">
+        <v>2.8</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
+        <v>2.375</v>
+      </c>
+      <c r="N115">
+        <v>2.8</v>
+      </c>
+      <c r="O115">
+        <v>3.4</v>
+      </c>
+      <c r="P115">
+        <v>2.375</v>
+      </c>
+      <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.775</v>
+      </c>
+      <c r="S115">
+        <v>2.1</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.95</v>
+      </c>
+      <c r="V115">
+        <v>1.9</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7630069</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F116" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="K116">
+        <v>1.5</v>
+      </c>
+      <c r="L116">
+        <v>4.333</v>
+      </c>
+      <c r="M116">
+        <v>6</v>
+      </c>
+      <c r="N116">
+        <v>1.5</v>
+      </c>
+      <c r="O116">
+        <v>4.2</v>
+      </c>
+      <c r="P116">
+        <v>6</v>
+      </c>
+      <c r="Q116">
+        <v>-1</v>
+      </c>
+      <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -103,10 +103,10 @@
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
-    <t>Waterford FC</t>
+    <t>Bray Wanderers</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
+    <t>Waterford FC</t>
   </si>
   <si>
     <t>Athlone Town</t>
@@ -139,10 +139,10 @@
     <t>UCD</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062586</v>
+        <v>6062529</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
+        <v>3.8</v>
+      </c>
+      <c r="M2">
+        <v>1.6</v>
+      </c>
+      <c r="N2">
         <v>6</v>
       </c>
-      <c r="M2">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>1.2</v>
-      </c>
       <c r="O2">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="Q2">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P3">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1.95</v>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>1.5</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>1.111</v>
@@ -1331,7 +1331,7 @@
         <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6062534</v>
+        <v>6062535</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,55 +1506,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="L12">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1563,19 +1563,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062535</v>
+        <v>6062534</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q13">
+        <v>1.75</v>
+      </c>
+      <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>0.25</v>
+      </c>
+      <c r="Z13">
         <v>-0.5</v>
       </c>
-      <c r="R13">
-        <v>1.925</v>
-      </c>
-      <c r="S13">
-        <v>1.925</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>1.825</v>
-      </c>
-      <c r="V13">
-        <v>2.025</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>2.8</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6063884</v>
+        <v>6062588</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,10 +1684,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1699,25 +1699,25 @@
         <v>43</v>
       </c>
       <c r="K14">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="Q14">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>1.975</v>
@@ -1726,13 +1726,13 @@
         <v>1.825</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1741,19 +1741,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.222</v>
+        <v>1.4</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.825</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062588</v>
+        <v>6062533</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>1.222</v>
+      </c>
+      <c r="O15">
+        <v>5.5</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>-1.75</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>1.975</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.6</v>
-      </c>
-      <c r="O15">
-        <v>3.4</v>
-      </c>
-      <c r="P15">
-        <v>2.4</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6062533</v>
+        <v>6063884</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>9.5</v>
       </c>
       <c r="O16">
         <v>5.5</v>
       </c>
       <c r="P16">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
         <v>1.825</v>
       </c>
-      <c r="S16">
-        <v>1.975</v>
-      </c>
       <c r="T16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
         <v>0.222</v>
       </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
       <c r="Z16">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="N17">
-        <v>1.571</v>
+        <v>1.062</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>1.85</v>
+      </c>
+      <c r="T17">
+        <v>3.25</v>
+      </c>
+      <c r="U17">
+        <v>1.825</v>
+      </c>
+      <c r="V17">
         <v>1.975</v>
       </c>
-      <c r="S17">
-        <v>1.825</v>
-      </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB17">
         <v>0.825</v>
       </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062590</v>
+        <v>6062536</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,49 +2040,49 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="L18">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M18">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="O18">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="P18">
-        <v>1.363</v>
+        <v>26</v>
       </c>
       <c r="Q18">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="R18">
         <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.875</v>
@@ -2091,7 +2091,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,10 +2106,10 @@
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6062536</v>
+        <v>6062589</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L19">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>1.05</v>
+        <v>1.571</v>
       </c>
       <c r="O19">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>26</v>
+        <v>4.75</v>
       </c>
       <c r="Q19">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>1.825</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>3.5</v>
-      </c>
-      <c r="U19">
-        <v>1.875</v>
-      </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
       <c r="W19">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.825</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.95</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>0.875</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6063883</v>
+        <v>6062590</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,58 +2218,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
         <v>30</v>
       </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>1.285</v>
       </c>
       <c r="N20">
-        <v>1.062</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>29</v>
+        <v>1.363</v>
       </c>
       <c r="Q20">
-        <v>-2.75</v>
+        <v>1.5</v>
       </c>
       <c r="R20">
         <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.06200000000000006</v>
+        <v>5</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,16 +2278,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6062593</v>
+        <v>6063882</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,58 +2396,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>1.035</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
         <v>41</v>
       </c>
-      <c r="K22">
-        <v>1.083</v>
-      </c>
-      <c r="L22">
-        <v>9</v>
-      </c>
-      <c r="M22">
-        <v>23</v>
-      </c>
       <c r="N22">
-        <v>1.062</v>
+        <v>1.02</v>
       </c>
       <c r="O22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P22">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <v>-2.75</v>
+        <v>-4.25</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>0.06200000000000006</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2456,16 +2456,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6062537</v>
+        <v>6062592</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,43 +2485,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>3.6</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="N23">
+        <v>2.25</v>
+      </c>
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>2.15</v>
-      </c>
-      <c r="N23">
-        <v>3.25</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
       <c r="P23">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>1.8</v>
@@ -2530,31 +2530,31 @@
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6062592</v>
+        <v>6062537</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,43 +2574,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>2.1</v>
-      </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
         <v>1.8</v>
@@ -2619,31 +2619,31 @@
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6063882</v>
+        <v>6062593</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>1.02</v>
+        <v>1.062</v>
       </c>
       <c r="O25">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q25">
-        <v>-4.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>0.02000000000000002</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,16 +2723,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6062594</v>
+        <v>6062539</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,40 +2841,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
         <v>1.875</v>
@@ -2886,31 +2886,31 @@
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6063881</v>
+        <v>6062594</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,46 +2930,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="N28">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.75</v>
@@ -2987,13 +2987,13 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
         <v>0.825</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062539</v>
+        <v>6062540</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>1.1</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>1.083</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <v>-3</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>4.25</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
+        <v>1.875</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29">
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>1.3</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <v>5</v>
-      </c>
-      <c r="P29">
-        <v>1.3</v>
-      </c>
-      <c r="Q29">
-        <v>1.5</v>
-      </c>
-      <c r="R29">
-        <v>1.875</v>
-      </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>4</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
-      <c r="Z29">
-        <v>0.875</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062540</v>
+        <v>6063881</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>1.45</v>
       </c>
       <c r="N30">
-        <v>1.083</v>
+        <v>5.25</v>
       </c>
       <c r="O30">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>19</v>
+        <v>1.571</v>
       </c>
       <c r="Q30">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
         <v>2</v>
       </c>
       <c r="T30">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
+        <v>1.825</v>
+      </c>
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,56 +3286,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L32">
+        <v>3.8</v>
+      </c>
+      <c r="M32">
         <v>4.5</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.4</v>
       </c>
-      <c r="N32">
-        <v>8</v>
-      </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q32">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3343,19 +3343,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,56 +3375,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
+        <v>1.4</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="N33">
-        <v>1.4</v>
-      </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>3.5</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>1.333</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6062597</v>
+        <v>6063879</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N36">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q36">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063879</v>
+        <v>6063095</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
         <v>1.925</v>
       </c>
-      <c r="S37">
-        <v>1.875</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6063095</v>
+        <v>6062597</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,67 +3820,67 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="N38">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
+        <v>2.025</v>
+      </c>
+      <c r="T38">
+        <v>3.25</v>
+      </c>
+      <c r="U38">
         <v>1.925</v>
       </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3889,7 +3889,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>1.2</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6062546</v>
+        <v>6062547</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,73 +4087,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K41">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
       <c r="N41">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6063878</v>
+        <v>6062546</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,73 +4179,73 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>41</v>
       </c>
       <c r="K42">
-        <v>1.035</v>
+        <v>1.7</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="O42">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.475</v>
-      </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6062547</v>
+        <v>6063878</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,40 +4265,40 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>1.035</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N43">
-        <v>2.15</v>
+        <v>1.055</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>26</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R43">
         <v>1.85</v>
@@ -4307,34 +4307,34 @@
         <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
         <v>1.909</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>1.1</v>
@@ -4713,7 +4713,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
+        <v>1.444</v>
+      </c>
+      <c r="N49">
+        <v>5.75</v>
+      </c>
+      <c r="O49">
         <v>4.5</v>
       </c>
-      <c r="N49">
-        <v>1.5</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
       <c r="P49">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N50">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.8</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6063876</v>
+        <v>6062552</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,13 +4977,13 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -4992,58 +4992,58 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="L51">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="N51">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6062552</v>
+        <v>6063876</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,13 +5066,13 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -5081,58 +5081,58 @@
         <v>42</v>
       </c>
       <c r="K52">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
+        <v>1.2</v>
+      </c>
+      <c r="O52">
+        <v>6.5</v>
+      </c>
+      <c r="P52">
+        <v>8</v>
+      </c>
+      <c r="Q52">
+        <v>-1.75</v>
+      </c>
+      <c r="R52">
+        <v>1.8</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="O52">
-        <v>3</v>
-      </c>
-      <c r="P52">
-        <v>2.25</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.775</v>
-      </c>
-      <c r="S52">
-        <v>2.025</v>
-      </c>
-      <c r="T52">
-        <v>2.25</v>
-      </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5158,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5167,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5422,10 +5422,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
         <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6062555</v>
+        <v>6062602</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57">
+        <v>1.6</v>
+      </c>
+      <c r="L57">
         <v>4</v>
       </c>
-      <c r="I57">
+      <c r="M57">
+        <v>4.75</v>
+      </c>
+      <c r="N57">
+        <v>1.8</v>
+      </c>
+      <c r="O57">
+        <v>3.75</v>
+      </c>
+      <c r="P57">
+        <v>3.75</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>1.975</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.8</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>2.75</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>41</v>
-      </c>
-      <c r="K57">
-        <v>1.25</v>
-      </c>
-      <c r="L57">
-        <v>5.75</v>
-      </c>
-      <c r="M57">
-        <v>10</v>
-      </c>
-      <c r="N57">
-        <v>1.333</v>
-      </c>
-      <c r="O57">
-        <v>5</v>
-      </c>
-      <c r="P57">
-        <v>7.5</v>
-      </c>
-      <c r="Q57">
-        <v>-1.5</v>
-      </c>
-      <c r="R57">
-        <v>1.925</v>
-      </c>
-      <c r="S57">
-        <v>1.875</v>
-      </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
-      <c r="W57">
-        <v>0.333</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>0.925</v>
-      </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.4</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6062602</v>
+        <v>6062555</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="M59">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="N59">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>7.5</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062604</v>
+        <v>6062603</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
+        <v>3.8</v>
+      </c>
+      <c r="M62">
         <v>4.5</v>
       </c>
-      <c r="M62">
-        <v>6.5</v>
-      </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6063874</v>
+        <v>6062604</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>43</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L63">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
+        <v>-1</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.9</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>4.25</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>1</v>
       </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>0.55</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
-      <c r="AA63">
-        <v>0.925</v>
-      </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
         <v>1.7</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6062603</v>
+        <v>6063874</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K65">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M65">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="N65">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6063096</v>
+        <v>6062558</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,55 +6401,55 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
         <v>2</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6458,7 +6458,7 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6467,10 +6467,10 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6062558</v>
+        <v>6063096</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,55 +6490,55 @@
         <v>45177.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="O68">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
         <v>2</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6547,7 +6547,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6556,10 +6556,10 @@
         <v>1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>4.5</v>
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
         <v>2.15</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6288012</v>
+        <v>6287998</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
+        <v>1.363</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>7</v>
+      </c>
+      <c r="N72">
+        <v>1.4</v>
+      </c>
+      <c r="O72">
+        <v>4.75</v>
+      </c>
+      <c r="P72">
+        <v>6</v>
+      </c>
+      <c r="Q72">
+        <v>-1.25</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
         <v>1.95</v>
       </c>
-      <c r="L72">
-        <v>3.6</v>
-      </c>
-      <c r="M72">
-        <v>3.4</v>
-      </c>
-      <c r="N72">
-        <v>2.05</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3.1</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6287998</v>
+        <v>6288012</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
         <v>1.166</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6322553</v>
+        <v>7222986</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>30</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322551</v>
+        <v>6322550</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>23</v>
+        <v>1.65</v>
       </c>
       <c r="L76">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>1.09</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>23</v>
+        <v>1.666</v>
       </c>
       <c r="O76">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.925</v>
+      </c>
+      <c r="T76">
         <v>2.75</v>
       </c>
-      <c r="R76">
-        <v>1.95</v>
-      </c>
-      <c r="S76">
-        <v>1.85</v>
-      </c>
-      <c r="T76">
-        <v>3.75</v>
-      </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322552</v>
+        <v>6322551</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>4</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="N77">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P77">
-        <v>2.15</v>
+        <v>1.071</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7222986</v>
+        <v>6322552</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>42</v>
+      </c>
+      <c r="K78">
+        <v>3.1</v>
+      </c>
+      <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>2.875</v>
+      </c>
+      <c r="O78">
+        <v>3.4</v>
+      </c>
+      <c r="P78">
+        <v>2.15</v>
+      </c>
+      <c r="Q78">
+        <v>0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.825</v>
+      </c>
+      <c r="S78">
+        <v>2.025</v>
+      </c>
+      <c r="T78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>43</v>
-      </c>
-      <c r="K78">
-        <v>5.75</v>
-      </c>
-      <c r="L78">
-        <v>4.5</v>
-      </c>
-      <c r="M78">
-        <v>1.4</v>
-      </c>
-      <c r="N78">
-        <v>4.2</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
-      </c>
-      <c r="P78">
-        <v>1.666</v>
-      </c>
-      <c r="Q78">
-        <v>0.75</v>
-      </c>
-      <c r="R78">
-        <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
       <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6322550</v>
+        <v>6322553</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>1.825</v>
@@ -7520,7 +7520,7 @@
         <v>1.975</v>
       </c>
       <c r="W79">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,7 +7529,7 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2.05</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>1.111</v>
@@ -7736,7 +7736,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>1.363</v>
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351328</v>
+        <v>6351327</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,58 +7825,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83">
+        <v>2.8</v>
+      </c>
+      <c r="L83">
+        <v>3.4</v>
+      </c>
+      <c r="M83">
+        <v>2.3</v>
+      </c>
+      <c r="N83">
+        <v>2.5</v>
+      </c>
+      <c r="O83">
+        <v>3.4</v>
+      </c>
+      <c r="P83">
+        <v>2.55</v>
+      </c>
+      <c r="Q83">
         <v>0</v>
       </c>
-      <c r="J83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K83">
-        <v>1.3</v>
-      </c>
-      <c r="L83">
-        <v>5.25</v>
-      </c>
-      <c r="M83">
-        <v>7.5</v>
-      </c>
-      <c r="N83">
-        <v>1.363</v>
-      </c>
-      <c r="O83">
-        <v>4.75</v>
-      </c>
-      <c r="P83">
-        <v>6</v>
-      </c>
-      <c r="Q83">
-        <v>-1.25</v>
-      </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7885,16 +7885,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6351327</v>
+        <v>6351328</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,58 +7914,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7974,16 +7974,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383176</v>
+        <v>6383172</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L87">
+        <v>3.75</v>
+      </c>
+      <c r="M87">
         <v>3.5</v>
       </c>
-      <c r="M87">
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
         <v>3.6</v>
       </c>
-      <c r="N87">
-        <v>1.6</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
       <c r="P87">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383172</v>
+        <v>6383176</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
+        <v>1.909</v>
+      </c>
+      <c r="L88">
+        <v>3.5</v>
+      </c>
+      <c r="M88">
+        <v>3.6</v>
+      </c>
+      <c r="N88">
+        <v>1.6</v>
+      </c>
+      <c r="O88">
+        <v>4</v>
+      </c>
+      <c r="P88">
+        <v>4.75</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
-      </c>
-      <c r="L88">
-        <v>3.75</v>
-      </c>
-      <c r="M88">
-        <v>3.5</v>
-      </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>3.1</v>
-      </c>
-      <c r="Q88">
-        <v>-0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.775</v>
-      </c>
-      <c r="S88">
-        <v>2.025</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
         <v>1.8</v>
       </c>
-      <c r="V88">
-        <v>2</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>1.8</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>2.55</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>2.55</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>17</v>
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471668</v>
+        <v>6471661</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>1.125</v>
       </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R97">
+        <v>1.875</v>
+      </c>
+      <c r="S97">
+        <v>1.925</v>
+      </c>
+      <c r="T97">
+        <v>3.75</v>
+      </c>
+      <c r="U97">
         <v>1.825</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.975</v>
       </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
-      <c r="U97">
-        <v>1.875</v>
-      </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X97">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
+        <v>0.4625</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471669</v>
+        <v>6471668</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
+        <v>1.825</v>
+      </c>
+      <c r="S98">
         <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
       </c>
       <c r="T98">
         <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471660</v>
+        <v>6471669</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,13 +9249,13 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -9264,34 +9264,34 @@
         <v>42</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99">
+        <v>1.75</v>
+      </c>
+      <c r="O99">
+        <v>3.8</v>
+      </c>
+      <c r="P99">
         <v>3.75</v>
       </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
-      <c r="N99">
-        <v>1.615</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
-      <c r="P99">
-        <v>4.5</v>
-      </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.8</v>
@@ -9300,19 +9300,19 @@
         <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>33</v>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
         <v>1.571</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471661</v>
+        <v>6471660</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,13 +9427,13 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9442,61 +9442,61 @@
         <v>41</v>
       </c>
       <c r="K101">
+        <v>1.727</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
         <v>1.615</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>4</v>
       </c>
-      <c r="M101">
-        <v>4.333</v>
-      </c>
-      <c r="N101">
-        <v>1.125</v>
-      </c>
-      <c r="O101">
-        <v>7</v>
-      </c>
       <c r="P101">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>1.5</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.95</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>1.125</v>
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>2.5</v>
@@ -9872,7 +9872,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
         <v>40</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630067</v>
+        <v>7630141</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L108">
+        <v>3.3</v>
+      </c>
+      <c r="M108">
+        <v>2.55</v>
+      </c>
+      <c r="N108">
+        <v>3.3</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>3.4</v>
-      </c>
-      <c r="N108">
-        <v>2.5</v>
-      </c>
-      <c r="O108">
-        <v>3.2</v>
-      </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630141</v>
+        <v>7630067</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630068</v>
+        <v>7630587</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,46 +10406,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
         <v>0</v>
@@ -10468,7 +10468,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7630587</v>
+        <v>7630586</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10480,46 +10480,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K113">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7630586</v>
+        <v>7630143</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10554,46 +10554,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K114">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N114">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -10616,7 +10616,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7630143</v>
+        <v>7630069</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10628,46 +10628,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K115">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M115">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7630069</v>
+        <v>7630068</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10702,46 +10702,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N116">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
+        <v>1.975</v>
+      </c>
+      <c r="S116">
         <v>1.875</v>
       </c>
-      <c r="S116">
-        <v>1.975</v>
-      </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
         <v>0</v>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
+    <t>Athlone Town</t>
+  </si>
+  <si>
     <t>Bray Wanderers</t>
   </si>
   <si>
     <t>Waterford FC</t>
-  </si>
-  <si>
-    <t>Athlone Town</t>
   </si>
   <si>
     <t>Wexford FC</t>
@@ -139,10 +139,10 @@
     <t>UCD</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062529</v>
+        <v>6062528</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,64 +619,64 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
+        <v>3.6</v>
+      </c>
+      <c r="M2">
+        <v>3.3</v>
+      </c>
+      <c r="N2">
+        <v>1.909</v>
+      </c>
+      <c r="O2">
         <v>3.8</v>
       </c>
-      <c r="M2">
-        <v>1.6</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2">
-        <v>4.2</v>
-      </c>
       <c r="P2">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062586</v>
+        <v>6062529</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
+        <v>3.8</v>
+      </c>
+      <c r="M3">
+        <v>1.6</v>
+      </c>
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>1.2</v>
-      </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062528</v>
+        <v>6062586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,55 +797,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.95</v>
+        <v>1.222</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
         <v>1.825</v>
       </c>
-      <c r="S4">
+      <c r="T4">
+        <v>3.25</v>
+      </c>
+      <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
         <v>1.975</v>
       </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1.8</v>
-      </c>
       <c r="W4">
-        <v>0.909</v>
+        <v>0.2</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.825</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>1.5</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>1.111</v>
@@ -1328,10 +1328,10 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6062535</v>
+        <v>6062534</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q12">
+        <v>1.75</v>
+      </c>
+      <c r="R12">
+        <v>1.8</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>0.25</v>
+      </c>
+      <c r="Z12">
         <v>-0.5</v>
       </c>
-      <c r="R12">
-        <v>1.925</v>
-      </c>
-      <c r="S12">
-        <v>1.925</v>
-      </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>2.8</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062534</v>
+        <v>6062535</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,55 +1595,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q13">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1652,19 +1652,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062588</v>
+        <v>6062533</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>1.222</v>
+      </c>
+      <c r="O14">
+        <v>5.5</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>-1.75</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>2.6</v>
-      </c>
-      <c r="O14">
-        <v>3.4</v>
-      </c>
-      <c r="P14">
-        <v>2.4</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062533</v>
+        <v>6062588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
         <v>1.825</v>
       </c>
-      <c r="S15">
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
         <v>1.975</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>1.775</v>
-      </c>
-      <c r="V15">
-        <v>2.025</v>
-      </c>
       <c r="W15">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z15">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,73 +1954,73 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>1.8</v>
+      </c>
+      <c r="L17">
+        <v>3.6</v>
+      </c>
+      <c r="M17">
+        <v>3.6</v>
+      </c>
+      <c r="N17">
+        <v>1.571</v>
+      </c>
+      <c r="O17">
+        <v>3.8</v>
+      </c>
+      <c r="P17">
+        <v>4.75</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.825</v>
+      </c>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>1.1</v>
-      </c>
-      <c r="L17">
-        <v>8</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>1.062</v>
-      </c>
-      <c r="O17">
-        <v>11</v>
-      </c>
-      <c r="P17">
-        <v>29</v>
-      </c>
-      <c r="Q17">
-        <v>-2.75</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
+        <v>1.85</v>
+      </c>
+      <c r="V17">
         <v>1.95</v>
       </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>1.975</v>
-      </c>
       <c r="W17">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>1.125</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="N19">
-        <v>1.571</v>
+        <v>1.062</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>29</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
+        <v>3.25</v>
+      </c>
+      <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="S19">
-        <v>1.825</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1.85</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB19">
         <v>0.825</v>
       </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>6.5</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6063882</v>
+        <v>6062537</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>1.035</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="O22">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>-4.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6062592</v>
+        <v>6063882</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>1.035</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>1.02</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="P23">
-        <v>2.875</v>
+        <v>41</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6062537</v>
+        <v>6062592</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,43 +2574,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
+        <v>2.1</v>
+      </c>
+      <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="L24">
+      <c r="N24">
+        <v>2.25</v>
+      </c>
+      <c r="O24">
         <v>3.4</v>
       </c>
-      <c r="M24">
-        <v>2.15</v>
-      </c>
-      <c r="N24">
-        <v>3.25</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
       <c r="P24">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>1.8</v>
@@ -2619,31 +2619,31 @@
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>1.083</v>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6062539</v>
+        <v>6063881</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>1.45</v>
+      </c>
+      <c r="N27">
+        <v>5.25</v>
+      </c>
+      <c r="O27">
+        <v>4.2</v>
+      </c>
+      <c r="P27">
+        <v>1.571</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27">
-        <v>8</v>
-      </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-      <c r="M27">
-        <v>1.3</v>
-      </c>
-      <c r="N27">
-        <v>8</v>
-      </c>
-      <c r="O27">
-        <v>5</v>
-      </c>
-      <c r="P27">
-        <v>1.3</v>
-      </c>
-      <c r="Q27">
-        <v>1.5</v>
-      </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6062594</v>
+        <v>6062539</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,40 +2930,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R28">
         <v>1.875</v>
@@ -2975,31 +2975,31 @@
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062540</v>
+        <v>6062594</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
+        <v>2.2</v>
+      </c>
+      <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>2.875</v>
+      </c>
+      <c r="N29">
+        <v>3.1</v>
+      </c>
+      <c r="O29">
+        <v>3.3</v>
+      </c>
+      <c r="P29">
+        <v>2.1</v>
+      </c>
+      <c r="Q29">
+        <v>0.25</v>
+      </c>
+      <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>1.825</v>
+      </c>
+      <c r="V29">
+        <v>1.975</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
         <v>1.1</v>
       </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <v>19</v>
-      </c>
-      <c r="N29">
-        <v>1.083</v>
-      </c>
-      <c r="O29">
-        <v>11</v>
-      </c>
-      <c r="P29">
-        <v>19</v>
-      </c>
-      <c r="Q29">
-        <v>-3</v>
-      </c>
-      <c r="R29">
-        <v>1.85</v>
-      </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>10</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6063881</v>
+        <v>6062540</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>1.45</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>5.25</v>
+        <v>1.083</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="P30">
-        <v>1.571</v>
+        <v>19</v>
       </c>
       <c r="Q30">
+        <v>-3</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>4.25</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
+        <v>1.875</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>-1</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>1</v>
       </c>
-      <c r="R30">
-        <v>1.8</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>0.571</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>-0</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,53 +3289,53 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
+        <v>1.4</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="N32">
-        <v>1.4</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3343,19 +3343,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,56 +3375,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L33">
+        <v>3.8</v>
+      </c>
+      <c r="M33">
         <v>4.5</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1.4</v>
       </c>
-      <c r="N33">
-        <v>8</v>
-      </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
         <v>3.5</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35">
         <v>1.333</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6063879</v>
+        <v>6062597</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N36">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R36">
+        <v>1.825</v>
+      </c>
+      <c r="S36">
+        <v>2.025</v>
+      </c>
+      <c r="T36">
+        <v>3.25</v>
+      </c>
+      <c r="U36">
         <v>1.925</v>
       </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063095</v>
+        <v>6063879</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N37">
+        <v>3.5</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>1.85</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.875</v>
+      </c>
+      <c r="T37">
         <v>2.5</v>
       </c>
-      <c r="O37">
-        <v>3.3</v>
-      </c>
-      <c r="P37">
-        <v>2.55</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.925</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
         <v>0.875</v>
       </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062597</v>
+        <v>6062544</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
       </c>
       <c r="K38">
+        <v>1.2</v>
+      </c>
+      <c r="L38">
         <v>7</v>
       </c>
-      <c r="L38">
-        <v>5</v>
-      </c>
       <c r="M38">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N38">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P38">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="Q38">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X38">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6062544</v>
+        <v>6063095</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,58 +3909,58 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q39">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3969,16 +3969,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6062546</v>
+        <v>6062598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,10 +4176,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4188,28 +4188,28 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O42">
         <v>3.75</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4218,13 +4218,13 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4236,13 +4236,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4265,7 +4265,7 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>1.035</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6062598</v>
+        <v>6062546</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4366,28 +4366,28 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
         <v>3.75</v>
       </c>
       <c r="P44">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
         <v>1.9</v>
@@ -4396,13 +4396,13 @@
         <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4414,13 +4414,13 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>1.1</v>
@@ -4713,7 +4713,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>5.75</v>
@@ -4888,7 +4888,7 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
         <v>1.6</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6062552</v>
+        <v>6063876</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,13 +4977,13 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -4992,58 +4992,58 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M51">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
+        <v>1.2</v>
+      </c>
+      <c r="O51">
+        <v>6.5</v>
+      </c>
+      <c r="P51">
+        <v>8</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-      <c r="P51">
-        <v>2.25</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.775</v>
-      </c>
-      <c r="S51">
-        <v>2.025</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6063876</v>
+        <v>6062552</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,13 +5066,13 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -5081,58 +5081,58 @@
         <v>42</v>
       </c>
       <c r="K52">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="L52">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="N52">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5158,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5167,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5336,7 +5336,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6062554</v>
+        <v>6063875</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,40 +5422,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M56">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N56">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O56">
+        <v>4.333</v>
+      </c>
+      <c r="P56">
         <v>4.75</v>
       </c>
-      <c r="P56">
-        <v>1.444</v>
-      </c>
       <c r="Q56">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R56">
         <v>1.9</v>
@@ -5464,34 +5464,34 @@
         <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6063875</v>
+        <v>6062554</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,40 +5600,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L58">
+        <v>4.5</v>
+      </c>
+      <c r="M58">
+        <v>1.5</v>
+      </c>
+      <c r="N58">
+        <v>6.5</v>
+      </c>
+      <c r="O58">
         <v>4.75</v>
       </c>
-      <c r="M58">
-        <v>6.5</v>
-      </c>
-      <c r="N58">
-        <v>1.55</v>
-      </c>
-      <c r="O58">
-        <v>4.333</v>
-      </c>
       <c r="P58">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R58">
         <v>1.9</v>
@@ -5642,34 +5642,34 @@
         <v>1.9</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59">
         <v>1.25</v>
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>7.5</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062603</v>
+        <v>6062605</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>4.2</v>
+      </c>
+      <c r="N62">
+        <v>1.6</v>
+      </c>
+      <c r="O62">
         <v>3.8</v>
       </c>
-      <c r="M62">
-        <v>4.5</v>
-      </c>
-      <c r="N62">
-        <v>1.95</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,10 +6045,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062605</v>
+        <v>6062603</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>41</v>
       </c>
       <c r="K64">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N64">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X64">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6062558</v>
+        <v>6063873</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67">
+        <v>4.5</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>1.65</v>
+      </c>
+      <c r="N67">
+        <v>6.5</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67">
+        <v>1.4</v>
+      </c>
+      <c r="Q67">
+        <v>1.25</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>1.8</v>
+      </c>
+      <c r="T67">
+        <v>3.25</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <v>1.8</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>4</v>
+      </c>
+      <c r="Y67">
+        <v>-1</v>
+      </c>
+      <c r="Z67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
-      <c r="J67" t="s">
-        <v>43</v>
-      </c>
-      <c r="K67">
-        <v>7.5</v>
-      </c>
-      <c r="L67">
-        <v>5.25</v>
-      </c>
-      <c r="M67">
-        <v>1.363</v>
-      </c>
-      <c r="N67">
-        <v>7.5</v>
-      </c>
-      <c r="O67">
-        <v>5.5</v>
-      </c>
-      <c r="P67">
-        <v>1.363</v>
-      </c>
-      <c r="Q67">
-        <v>1.5</v>
-      </c>
-      <c r="R67">
-        <v>1.85</v>
-      </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67">
-        <v>3</v>
-      </c>
-      <c r="U67">
-        <v>1.9</v>
-      </c>
-      <c r="V67">
-        <v>1.95</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>0.363</v>
-      </c>
-      <c r="Z67">
-        <v>-1</v>
-      </c>
       <c r="AA67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6063873</v>
+        <v>6062558</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M69">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="N69">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
         <v>1</v>
       </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>2.15</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6287998</v>
+        <v>6288590</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N72">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
         <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288012</v>
+        <v>6287998</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K73">
+        <v>1.363</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>7</v>
+      </c>
+      <c r="N73">
+        <v>1.4</v>
+      </c>
+      <c r="O73">
+        <v>4.75</v>
+      </c>
+      <c r="P73">
+        <v>6</v>
+      </c>
+      <c r="Q73">
+        <v>-1.25</v>
+      </c>
+      <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
       </c>
-      <c r="L73">
-        <v>3.6</v>
-      </c>
-      <c r="M73">
-        <v>3.4</v>
-      </c>
-      <c r="N73">
-        <v>2.05</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>3.1</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.825</v>
-      </c>
-      <c r="S73">
-        <v>1.975</v>
-      </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6288590</v>
+        <v>6288012</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>42</v>
       </c>
       <c r="K74">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="L74">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.825</v>
+      </c>
+      <c r="S74">
         <v>1.975</v>
       </c>
-      <c r="S74">
-        <v>1.825</v>
-      </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC74">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7222986</v>
+        <v>6322550</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="L75">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O75">
         <v>3.75</v>
       </c>
       <c r="P75">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322550</v>
+        <v>6322551</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>1.65</v>
+        <v>23</v>
       </c>
       <c r="L76">
+        <v>9</v>
+      </c>
+      <c r="M76">
+        <v>1.09</v>
+      </c>
+      <c r="N76">
+        <v>23</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>1.071</v>
+      </c>
+      <c r="Q76">
+        <v>2.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>3.75</v>
       </c>
-      <c r="M76">
-        <v>4.75</v>
-      </c>
-      <c r="N76">
-        <v>1.666</v>
-      </c>
-      <c r="O76">
-        <v>3.75</v>
-      </c>
-      <c r="P76">
-        <v>4.333</v>
-      </c>
-      <c r="Q76">
-        <v>-0.75</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.925</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322551</v>
+        <v>6322553</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>23</v>
+        <v>2.15</v>
       </c>
       <c r="L77">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>23</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>1.071</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
         <v>3.1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6322553</v>
+        <v>7222986</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,49 +7558,49 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7609,7 +7609,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7618,10 +7618,10 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,49 +7647,49 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O81">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
         <v>1.85</v>
@@ -7698,7 +7698,7 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7707,10 +7707,10 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351329</v>
+        <v>6351328</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,13 +7736,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7751,61 +7751,61 @@
         <v>41</v>
       </c>
       <c r="K82">
+        <v>1.3</v>
+      </c>
+      <c r="L82">
+        <v>5.25</v>
+      </c>
+      <c r="M82">
+        <v>7.5</v>
+      </c>
+      <c r="N82">
         <v>1.363</v>
       </c>
-      <c r="L82">
-        <v>5</v>
-      </c>
-      <c r="M82">
-        <v>6.5</v>
-      </c>
-      <c r="N82">
-        <v>1.4</v>
-      </c>
       <c r="O82">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q82">
         <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X82">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>2.8</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6351328</v>
+        <v>6351329</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,13 +7914,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7929,61 +7929,61 @@
         <v>42</v>
       </c>
       <c r="K84">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L84">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N84">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O84">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q84">
         <v>-1.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383172</v>
+        <v>6383173</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
         <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383176</v>
+        <v>6383175</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N88">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P88">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383175</v>
+        <v>6383176</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6383173</v>
+        <v>6383172</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
         <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>3.6</v>
+      </c>
+      <c r="P90">
+        <v>3.1</v>
+      </c>
+      <c r="Q90">
+        <v>-0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.775</v>
+      </c>
+      <c r="S90">
+        <v>2.025</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
         <v>1.8</v>
       </c>
-      <c r="O90">
-        <v>3.75</v>
-      </c>
-      <c r="P90">
-        <v>3.8</v>
-      </c>
-      <c r="Q90">
-        <v>-0.5</v>
-      </c>
-      <c r="R90">
-        <v>1.8</v>
-      </c>
-      <c r="S90">
-        <v>2</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
         <v>1.8</v>
@@ -8629,7 +8629,7 @@
         <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
         <v>2.55</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K94">
         <v>2.55</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>17</v>
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471661</v>
+        <v>6471660</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,13 +9071,13 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9086,61 +9086,61 @@
         <v>42</v>
       </c>
       <c r="K97">
+        <v>1.727</v>
+      </c>
+      <c r="L97">
+        <v>3.75</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
         <v>1.615</v>
       </c>
-      <c r="L97">
+      <c r="O97">
         <v>4</v>
       </c>
-      <c r="M97">
-        <v>4.333</v>
-      </c>
-      <c r="N97">
-        <v>1.125</v>
-      </c>
-      <c r="O97">
-        <v>7</v>
-      </c>
       <c r="P97">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q97">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471668</v>
+        <v>6471661</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.125</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.925</v>
+      </c>
+      <c r="T98">
+        <v>3.75</v>
+      </c>
+      <c r="U98">
         <v>1.825</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.975</v>
       </c>
-      <c r="T98">
-        <v>3.25</v>
-      </c>
-      <c r="U98">
-        <v>1.875</v>
-      </c>
-      <c r="V98">
-        <v>1.925</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
+        <v>0.4625</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471667</v>
+        <v>6471668</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9350,49 +9350,49 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="N100">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9401,13 +9401,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471660</v>
+        <v>6471667</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,61 +9427,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q101">
         <v>-1</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
@@ -9490,13 +9490,13 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>1.5</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630582</v>
+        <v>7630065</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,73 +9605,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AC103">
         <v>-0.5</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
         <v>1.125</v>
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
         <v>2.5</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630065</v>
+        <v>7630582</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,70 +9875,70 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
         <v>3.4</v>
       </c>
-      <c r="M106">
-        <v>2.7</v>
-      </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AC106">
         <v>-0.5</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630141</v>
+        <v>7630066</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10151,7 +10151,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630066</v>
+        <v>7630141</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="N111">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
+        <v>2.05</v>
+      </c>
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
         <v>1.85</v>
       </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.9</v>
-      </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y111">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630587</v>
+        <v>7630069</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,37 +10406,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
@@ -10445,25 +10454,31 @@
         <v>2</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10485,6 +10500,15 @@
       <c r="G113" t="s">
         <v>37</v>
       </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>43</v>
+      </c>
       <c r="K113">
         <v>4.5</v>
       </c>
@@ -10495,49 +10519,55 @@
         <v>1.727</v>
       </c>
       <c r="N113">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z113">
         <v>0</v>
       </c>
       <c r="AA113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10557,7 +10587,16 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>41</v>
       </c>
       <c r="K114">
         <v>2.8</v>
@@ -10569,194 +10608,52 @@
         <v>2.375</v>
       </c>
       <c r="N114">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>7630069</v>
-      </c>
-      <c r="C115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="E115" s="2">
-        <v>45352.69791666666</v>
-      </c>
-      <c r="F115" t="s">
-        <v>39</v>
-      </c>
-      <c r="G115" t="s">
-        <v>40</v>
-      </c>
-      <c r="K115">
-        <v>1.5</v>
-      </c>
-      <c r="L115">
-        <v>4.333</v>
-      </c>
-      <c r="M115">
-        <v>6</v>
-      </c>
-      <c r="N115">
-        <v>1.571</v>
-      </c>
-      <c r="O115">
-        <v>4.2</v>
-      </c>
-      <c r="P115">
-        <v>5.5</v>
-      </c>
-      <c r="Q115">
-        <v>-1</v>
-      </c>
-      <c r="R115">
-        <v>1.925</v>
-      </c>
-      <c r="S115">
-        <v>1.925</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>7630068</v>
-      </c>
-      <c r="C116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" s="2">
-        <v>45352.69791666666</v>
-      </c>
-      <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>38</v>
-      </c>
-      <c r="K116">
-        <v>1.8</v>
-      </c>
-      <c r="L116">
-        <v>3.75</v>
-      </c>
-      <c r="M116">
-        <v>4.2</v>
-      </c>
-      <c r="N116">
-        <v>1.727</v>
-      </c>
-      <c r="O116">
-        <v>3.8</v>
-      </c>
-      <c r="P116">
-        <v>4.5</v>
-      </c>
-      <c r="Q116">
-        <v>-0.75</v>
-      </c>
-      <c r="R116">
-        <v>1.975</v>
-      </c>
-      <c r="S116">
-        <v>1.875</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.925</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-      <c r="AA116">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -106,13 +106,13 @@
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
-  </si>
-  <si>
     <t>Waterford FC</t>
   </si>
   <si>
     <t>Wexford FC</t>
+  </si>
+  <si>
+    <t>Bray Wanderers</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -121,10 +121,10 @@
     <t>Kerry FC</t>
   </si>
   <si>
-    <t>Cobh Ramblers</t>
+    <t>Galway United</t>
   </si>
   <si>
-    <t>Galway United</t>
+    <t>Cobh Ramblers</t>
   </si>
   <si>
     <t>Treaty United FC</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P3">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062586</v>
+        <v>6062587</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,55 +797,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062587</v>
+        <v>6062529</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,70 +889,70 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6062531</v>
+        <v>6062532</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1165,34 +1165,34 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="N8">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.571</v>
+        <v>0.125</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6062532</v>
+        <v>6062531</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1254,34 +1254,34 @@
         <v>41</v>
       </c>
       <c r="K9">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="O9">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1290,7 +1290,7 @@
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.125</v>
+        <v>0.571</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6062530</v>
+        <v>6063094</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,40 +1328,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
         <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1373,31 +1373,31 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6063094</v>
+        <v>6062530</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,40 +1417,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O11">
         <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1462,31 +1462,31 @@
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6062534</v>
+        <v>6063884</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,16 +1506,16 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
@@ -1530,31 +1530,31 @@
         <v>1.4</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="Q12">
         <v>1.75</v>
       </c>
       <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
+        <v>3.25</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1563,19 +1563,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062535</v>
+        <v>6062534</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q13">
+        <v>1.75</v>
+      </c>
+      <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>0.25</v>
+      </c>
+      <c r="Z13">
         <v>-0.5</v>
       </c>
-      <c r="R13">
-        <v>1.925</v>
-      </c>
-      <c r="S13">
-        <v>1.925</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>1.825</v>
-      </c>
-      <c r="V13">
-        <v>2.025</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>2.8</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062533</v>
+        <v>6062588</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
         <v>1.825</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.775</v>
-      </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
       <c r="W14">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z14">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062588</v>
+        <v>6062535</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,55 +1773,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
         <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1830,19 +1830,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
+        <v>0.925</v>
+      </c>
+      <c r="AB15">
         <v>0.825</v>
       </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6063884</v>
+        <v>6062533</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="L16">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N16">
-        <v>9.5</v>
+        <v>1.222</v>
       </c>
       <c r="O16">
         <v>5.5</v>
       </c>
       <c r="P16">
-        <v>1.222</v>
+        <v>11</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
+        <v>1.825</v>
+      </c>
+      <c r="S16">
         <v>1.975</v>
       </c>
-      <c r="S16">
-        <v>1.825</v>
-      </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062589</v>
+        <v>6062536</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N17">
-        <v>1.571</v>
+        <v>1.05</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>26</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062536</v>
+        <v>6063883</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,40 +2040,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="L18">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>1.062</v>
+      </c>
+      <c r="O18">
         <v>11</v>
       </c>
-      <c r="N18">
-        <v>1.05</v>
-      </c>
-      <c r="O18">
-        <v>15</v>
-      </c>
       <c r="P18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>-3</v>
+        <v>-2.75</v>
       </c>
       <c r="R18">
         <v>1.95</v>
@@ -2082,16 +2082,16 @@
         <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>0.05000000000000004</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,13 +2100,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6063883</v>
+        <v>6062590</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,58 +2129,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>41</v>
       </c>
       <c r="K19">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>1.285</v>
       </c>
       <c r="N19">
-        <v>1.062</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>29</v>
+        <v>1.363</v>
       </c>
       <c r="Q19">
-        <v>-2.75</v>
+        <v>1.5</v>
       </c>
       <c r="R19">
         <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.06200000000000006</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6062590</v>
+        <v>6062589</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="Q20">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
+        <v>1.825</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1.85</v>
+      </c>
+      <c r="V20">
         <v>1.95</v>
       </c>
-      <c r="S20">
-        <v>1.9</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.825</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.95</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6062537</v>
+        <v>6063882</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1.035</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>41</v>
       </c>
       <c r="N22">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6063882</v>
+        <v>6062593</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,58 +2485,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
         <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N23">
-        <v>1.02</v>
+        <v>1.062</v>
       </c>
       <c r="O23">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P23">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q23">
-        <v>-4.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>0.02000000000000002</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2545,16 +2545,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6062592</v>
+        <v>6062537</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,43 +2574,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>2.1</v>
-      </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
         <v>1.8</v>
@@ -2619,31 +2619,31 @@
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6062593</v>
+        <v>6062592</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,73 +2663,73 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.083</v>
+        <v>2.1</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>1.062</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>26</v>
+        <v>2.875</v>
       </c>
       <c r="Q25">
-        <v>-2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
         <v>1.8</v>
       </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
       <c r="T25">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
+        <v>1.975</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
         <v>1.875</v>
       </c>
-      <c r="W25">
-        <v>0.06200000000000006</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
         <v>0.8</v>
       </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6063881</v>
+        <v>6062539</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6062539</v>
+        <v>6062540</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>19</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>19</v>
       </c>
       <c r="Q28">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>4.25</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="S28">
-        <v>1.925</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.85</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062540</v>
+        <v>6063881</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>1.45</v>
       </c>
       <c r="N30">
-        <v>1.083</v>
+        <v>5.25</v>
       </c>
       <c r="O30">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>19</v>
+        <v>1.571</v>
       </c>
       <c r="Q30">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
         <v>2</v>
       </c>
       <c r="T30">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
+        <v>1.825</v>
+      </c>
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3375,10 +3375,10 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6062597</v>
+        <v>6063879</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N36">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q36">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063879</v>
+        <v>6063095</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
         <v>1.925</v>
       </c>
-      <c r="S37">
-        <v>1.875</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062544</v>
+        <v>6062597</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>1.333</v>
       </c>
       <c r="N38">
+        <v>5.25</v>
+      </c>
+      <c r="O38">
+        <v>4.333</v>
+      </c>
+      <c r="P38">
+        <v>1.5</v>
+      </c>
+      <c r="Q38">
         <v>1.25</v>
       </c>
-      <c r="O38">
-        <v>6</v>
-      </c>
-      <c r="P38">
-        <v>8</v>
-      </c>
-      <c r="Q38">
-        <v>-1.75</v>
-      </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6063095</v>
+        <v>6062544</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,13 +3909,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
         <v>32</v>
       </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3924,61 +3924,61 @@
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>1.25</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>-1.75</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>2.5</v>
-      </c>
-      <c r="O39">
-        <v>3.3</v>
-      </c>
-      <c r="P39">
-        <v>2.55</v>
-      </c>
-      <c r="Q39">
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>1.85</v>
+      </c>
+      <c r="W39">
+        <v>0.25</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0</v>
       </c>
-      <c r="R39">
-        <v>1.875</v>
-      </c>
-      <c r="S39">
-        <v>1.925</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>1.8</v>
-      </c>
-      <c r="W39">
-        <v>1.5</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>0.875</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6062547</v>
+        <v>6063878</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,40 +4087,40 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>1.035</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.055</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="P41">
-        <v>3.2</v>
+        <v>26</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R41">
         <v>1.85</v>
@@ -4129,34 +4129,34 @@
         <v>1.95</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,10 +4176,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6063878</v>
+        <v>6062547</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,40 +4265,40 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>3</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.035</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>1.055</v>
+        <v>2.15</v>
       </c>
       <c r="O43">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>26</v>
+        <v>3.2</v>
       </c>
       <c r="Q43">
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
         <v>1.85</v>
@@ -4307,34 +4307,34 @@
         <v>1.95</v>
       </c>
       <c r="T43">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>45142.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4446,7 +4446,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4621,7 +4621,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4710,10 +4710,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4977,7 +4977,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
@@ -5066,10 +5066,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5155,10 +5155,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6063875</v>
+        <v>6062555</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,13 +5422,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5437,43 +5437,43 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L56">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M56">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O56">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6062602</v>
+        <v>6062554</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>43</v>
       </c>
       <c r="K57">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
+        <v>1.5</v>
+      </c>
+      <c r="N57">
+        <v>6.5</v>
+      </c>
+      <c r="O57">
         <v>4.75</v>
       </c>
-      <c r="N57">
-        <v>1.8</v>
-      </c>
-      <c r="O57">
-        <v>3.75</v>
-      </c>
       <c r="P57">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q57">
+        <v>1.25</v>
+      </c>
+      <c r="R57">
+        <v>1.9</v>
+      </c>
+      <c r="S57">
+        <v>1.9</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>1.775</v>
+      </c>
+      <c r="V57">
+        <v>2.025</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>0.444</v>
+      </c>
+      <c r="Z57">
+        <v>0.45</v>
+      </c>
+      <c r="AA57">
         <v>-0.5</v>
       </c>
-      <c r="R57">
-        <v>1.825</v>
-      </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>1.8</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>2.75</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
-      <c r="AA57">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062554</v>
+        <v>6062602</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,7 +5600,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5609,46 +5609,46 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="K58">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N58">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5657,19 +5657,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.444</v>
+        <v>2.75</v>
       </c>
       <c r="Z58">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6062555</v>
+        <v>6063875</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,13 +5689,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5704,43 +5704,43 @@
         <v>41</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L59">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N59">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P59">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,13 +5749,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5956,7 +5956,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6045,7 +6045,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6134,7 +6134,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
@@ -6226,7 +6226,7 @@
         <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6579,10 +6579,10 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>45178.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6287998</v>
+        <v>6288012</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6288012</v>
+        <v>6287998</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,73 +7027,73 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
+        <v>1.363</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>7</v>
+      </c>
+      <c r="N74">
+        <v>1.4</v>
+      </c>
+      <c r="O74">
+        <v>4.75</v>
+      </c>
+      <c r="P74">
+        <v>6</v>
+      </c>
+      <c r="Q74">
+        <v>-1.25</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
         <v>1.95</v>
       </c>
-      <c r="L74">
-        <v>3.6</v>
-      </c>
-      <c r="M74">
-        <v>3.4</v>
-      </c>
-      <c r="N74">
-        <v>2.05</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
-      <c r="P74">
-        <v>3.1</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.825</v>
-      </c>
-      <c r="S74">
-        <v>1.975</v>
-      </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6322550</v>
+        <v>7222986</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="N75">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
         <v>3.75</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>0.6659999999999999</v>
       </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322551</v>
+        <v>6322553</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>23</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>23</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>1.071</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322553</v>
+        <v>6322550</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,13 +7291,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7306,34 +7306,34 @@
         <v>41</v>
       </c>
       <c r="K77">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7342,7 +7342,7 @@
         <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7351,7 +7351,7 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6322552</v>
+        <v>6322551</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>4</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="N78">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P78">
-        <v>2.15</v>
+        <v>1.071</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7222986</v>
+        <v>6322552</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79">
+        <v>3.1</v>
+      </c>
+      <c r="L79">
+        <v>3.5</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>2.875</v>
+      </c>
+      <c r="O79">
+        <v>3.4</v>
+      </c>
+      <c r="P79">
+        <v>2.15</v>
+      </c>
+      <c r="Q79">
+        <v>0.25</v>
+      </c>
+      <c r="R79">
+        <v>1.825</v>
+      </c>
+      <c r="S79">
+        <v>2.025</v>
+      </c>
+      <c r="T79">
         <v>3</v>
       </c>
-      <c r="J79" t="s">
-        <v>43</v>
-      </c>
-      <c r="K79">
-        <v>5.75</v>
-      </c>
-      <c r="L79">
-        <v>4.5</v>
-      </c>
-      <c r="M79">
-        <v>1.4</v>
-      </c>
-      <c r="N79">
-        <v>4.2</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>1.666</v>
-      </c>
-      <c r="Q79">
-        <v>0.75</v>
-      </c>
-      <c r="R79">
-        <v>1.9</v>
-      </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
       <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
         <v>1.85</v>
       </c>
-      <c r="V79">
-        <v>2</v>
-      </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -7647,7 +7647,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>38</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351328</v>
+        <v>6351327</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,58 +7736,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
         <v>36</v>
       </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
       <c r="H82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>41</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7796,16 +7796,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351327</v>
+        <v>6351329</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,73 +7828,73 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R83">
+        <v>1.925</v>
+      </c>
+      <c r="S83">
         <v>1.875</v>
-      </c>
-      <c r="S83">
-        <v>1.925</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.875</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6351329</v>
+        <v>6351328</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
+        <v>1.3</v>
+      </c>
+      <c r="L84">
+        <v>5.25</v>
+      </c>
+      <c r="M84">
+        <v>7.5</v>
+      </c>
+      <c r="N84">
         <v>1.363</v>
       </c>
-      <c r="L84">
-        <v>5</v>
-      </c>
-      <c r="M84">
-        <v>6.5</v>
-      </c>
-      <c r="N84">
-        <v>1.4</v>
-      </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q84">
         <v>-1.25</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383173</v>
+        <v>6383176</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,10 +8181,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8196,61 +8196,61 @@
         <v>41</v>
       </c>
       <c r="K87">
+        <v>1.909</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>3.6</v>
+      </c>
+      <c r="N87">
+        <v>1.6</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>4.75</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>1.85</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.8</v>
       </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
-      <c r="M87">
-        <v>3.75</v>
-      </c>
-      <c r="N87">
-        <v>1.8</v>
-      </c>
-      <c r="O87">
-        <v>3.75</v>
-      </c>
-      <c r="P87">
-        <v>3.8</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.95</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383176</v>
+        <v>6383173</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,10 +8359,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8374,43 +8374,43 @@
         <v>41</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N89">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8419,7 +8419,7 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8428,7 +8428,7 @@
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8537,10 +8537,10 @@
         <v>45209.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8718,7 +8718,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8982,10 +8982,10 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471660</v>
+        <v>6471661</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>4.333</v>
+      </c>
+      <c r="N97">
+        <v>1.125</v>
+      </c>
+      <c r="O97">
+        <v>7</v>
+      </c>
+      <c r="P97">
+        <v>13</v>
+      </c>
+      <c r="Q97">
+        <v>-2.25</v>
+      </c>
+      <c r="R97">
+        <v>1.875</v>
+      </c>
+      <c r="S97">
+        <v>1.925</v>
+      </c>
+      <c r="T97">
         <v>3.75</v>
       </c>
-      <c r="M97">
-        <v>4</v>
-      </c>
-      <c r="N97">
-        <v>1.615</v>
-      </c>
-      <c r="O97">
-        <v>4</v>
-      </c>
-      <c r="P97">
-        <v>4.5</v>
-      </c>
-      <c r="Q97">
-        <v>-1</v>
-      </c>
-      <c r="R97">
-        <v>2</v>
-      </c>
-      <c r="S97">
-        <v>1.8</v>
-      </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471661</v>
+        <v>6471660</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
+        <v>1.727</v>
+      </c>
+      <c r="L98">
+        <v>3.75</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
         <v>1.615</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>4</v>
       </c>
-      <c r="M98">
-        <v>4.333</v>
-      </c>
-      <c r="N98">
-        <v>1.125</v>
-      </c>
-      <c r="O98">
-        <v>7</v>
-      </c>
       <c r="P98">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q98">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471669</v>
+        <v>6471668</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N99">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
         <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.825</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471668</v>
+        <v>6471669</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N100">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q100">
         <v>-0.75</v>
       </c>
       <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
         <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9516,10 +9516,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>40</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630584</v>
+        <v>7630582</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O105">
         <v>3.3</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630582</v>
+        <v>7630584</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O106">
         <v>3.3</v>
       </c>
       <c r="P106">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630066</v>
+        <v>7630585</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,73 +10050,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y108">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
+        <v>0.4125</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="AA108">
-        <v>0.425</v>
-      </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630585</v>
+        <v>7630067</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L109">
+        <v>3.5</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>2.875</v>
-      </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630067</v>
+        <v>7630066</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,55 +10228,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
+        <v>5.25</v>
+      </c>
+      <c r="L110">
+        <v>4.333</v>
+      </c>
+      <c r="M110">
+        <v>1.5</v>
+      </c>
+      <c r="N110">
+        <v>4.2</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>1.65</v>
+      </c>
+      <c r="Q110">
+        <v>0.75</v>
+      </c>
+      <c r="R110">
         <v>1.95</v>
       </c>
-      <c r="L110">
-        <v>3.5</v>
-      </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.5</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
-      <c r="P110">
-        <v>2.625</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
+      <c r="S110">
         <v>1.85</v>
       </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10285,19 +10285,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.625</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630069</v>
+        <v>7630586</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,64 +10406,64 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z112">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7630586</v>
+        <v>7630143</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,70 +10495,70 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N113">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
         <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7630143</v>
+        <v>7630069</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,13 +10584,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10599,43 +10599,43 @@
         <v>41</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M114">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6063094</v>
+        <v>6062530</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,40 +1328,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O10">
         <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1373,31 +1373,31 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6062530</v>
+        <v>6063094</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,40 +1417,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
         <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1462,31 +1462,31 @@
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062534</v>
+        <v>6062533</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="L13">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>1.222</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P13">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
+        <v>0.4125</v>
+      </c>
+      <c r="AA13">
         <v>-0.5</v>
       </c>
-      <c r="AA13">
-        <v>0.5</v>
-      </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062535</v>
+        <v>6062534</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M15">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="N15">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q15">
+        <v>1.75</v>
+      </c>
+      <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>1.8</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>0.25</v>
+      </c>
+      <c r="Z15">
         <v>-0.5</v>
       </c>
-      <c r="R15">
-        <v>1.925</v>
-      </c>
-      <c r="S15">
-        <v>1.925</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.825</v>
-      </c>
-      <c r="V15">
-        <v>2.025</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>2.8</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6062533</v>
+        <v>6062535</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
+        <v>1.925</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
         <v>1.825</v>
-      </c>
-      <c r="S16">
-        <v>1.975</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.775</v>
       </c>
       <c r="V16">
         <v>2.025</v>
       </c>
       <c r="W16">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z16">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>1.8</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>3.6</v>
+      </c>
+      <c r="N18">
+        <v>1.571</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+      <c r="P18">
+        <v>4.75</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.825</v>
+      </c>
+      <c r="T18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>1.1</v>
-      </c>
-      <c r="L18">
-        <v>8</v>
-      </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>1.062</v>
-      </c>
-      <c r="O18">
-        <v>11</v>
-      </c>
-      <c r="P18">
-        <v>29</v>
-      </c>
-      <c r="Q18">
-        <v>-2.75</v>
-      </c>
-      <c r="R18">
+      <c r="U18">
+        <v>1.85</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>3.25</v>
-      </c>
-      <c r="U18">
-        <v>1.825</v>
-      </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>1.1</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1.062</v>
+      </c>
+      <c r="O20">
+        <v>11</v>
+      </c>
+      <c r="P20">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>1.8</v>
-      </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>3.6</v>
-      </c>
-      <c r="N20">
-        <v>1.571</v>
-      </c>
-      <c r="O20">
-        <v>3.8</v>
-      </c>
-      <c r="P20">
-        <v>4.75</v>
-      </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
         <v>1.975</v>
       </c>
-      <c r="S20">
-        <v>1.825</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>1.85</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0.825</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6063882</v>
+        <v>6062593</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,58 +2396,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
         <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N22">
-        <v>1.02</v>
+        <v>1.062</v>
       </c>
       <c r="O22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q22">
-        <v>-4.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>0.02000000000000002</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2456,16 +2456,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6062593</v>
+        <v>6062537</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.083</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
-        <v>1.062</v>
+        <v>3.25</v>
       </c>
       <c r="O23">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
+        <v>2.05</v>
+      </c>
+      <c r="S23">
         <v>1.8</v>
       </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.925</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6062537</v>
+        <v>6063882</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1.035</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>2.15</v>
+        <v>41</v>
       </c>
       <c r="N24">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6062539</v>
+        <v>6062594</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,40 +2841,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
         <v>1.875</v>
@@ -2886,31 +2886,31 @@
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062594</v>
+        <v>6063881</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,46 +3019,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N29">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.75</v>
@@ -3076,13 +3076,13 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
         <v>0.825</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6063881</v>
+        <v>6062539</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N30">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y30">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6062552</v>
+        <v>6062551</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,73 +5066,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
+        <v>1.85</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6062551</v>
+        <v>6062552</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,73 +5155,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L53">
         <v>3.2</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
+        <v>1.85</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
+        <v>0.3875</v>
+      </c>
+      <c r="AA53">
         <v>-0.5</v>
       </c>
-      <c r="R53">
-        <v>1.825</v>
-      </c>
-      <c r="S53">
-        <v>1.975</v>
-      </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>1.85</v>
-      </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.4</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
-      <c r="AA53">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062605</v>
+        <v>6063874</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>4.333</v>
+      </c>
+      <c r="M62">
+        <v>1.444</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>1.55</v>
+      </c>
+      <c r="Q62">
         <v>1</v>
       </c>
-      <c r="J62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62">
-        <v>1.7</v>
-      </c>
-      <c r="L62">
-        <v>3.75</v>
-      </c>
-      <c r="M62">
-        <v>4.2</v>
-      </c>
-      <c r="N62">
-        <v>1.6</v>
-      </c>
-      <c r="O62">
-        <v>3.8</v>
-      </c>
-      <c r="P62">
-        <v>4.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.75</v>
-      </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6063874</v>
+        <v>6062605</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
+        <v>-0.75</v>
+      </c>
+      <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>2.75</v>
+      </c>
+      <c r="U65">
+        <v>1.975</v>
+      </c>
+      <c r="V65">
+        <v>1.825</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>2.8</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
         <v>1</v>
       </c>
-      <c r="R65">
-        <v>1.875</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>3</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>1.975</v>
-      </c>
-      <c r="W65">
-        <v>-1</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>0.55</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.925</v>
-      </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.825</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6288590</v>
+        <v>6288012</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="L72">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.825</v>
+      </c>
+      <c r="S72">
         <v>1.975</v>
       </c>
-      <c r="S72">
-        <v>1.825</v>
-      </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288012</v>
+        <v>6288590</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
         <v>1.825</v>
       </c>
-      <c r="S73">
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>1.975</v>
       </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.825</v>
+      </c>
+      <c r="AB73">
         <v>-0.5</v>
       </c>
-      <c r="AA73">
+      <c r="AC73">
         <v>0.4875</v>
-      </c>
-      <c r="AB73">
-        <v>0.875</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7222986</v>
+        <v>6322553</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75">
+        <v>2.15</v>
+      </c>
+      <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
         <v>3</v>
       </c>
-      <c r="J75" t="s">
-        <v>43</v>
-      </c>
-      <c r="K75">
-        <v>5.75</v>
-      </c>
-      <c r="L75">
-        <v>4.5</v>
-      </c>
-      <c r="M75">
-        <v>1.4</v>
-      </c>
       <c r="N75">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322553</v>
+        <v>7222986</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322550</v>
+        <v>6322552</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,13 +7291,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7306,44 +7306,44 @@
         <v>41</v>
       </c>
       <c r="K77">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
+        <v>2.025</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>1.85</v>
+      </c>
+      <c r="W77">
         <v>1.875</v>
       </c>
-      <c r="S77">
-        <v>1.925</v>
-      </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
-      <c r="U77">
-        <v>1.825</v>
-      </c>
-      <c r="V77">
-        <v>1.975</v>
-      </c>
-      <c r="W77">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="X77">
         <v>-1</v>
       </c>
@@ -7351,13 +7351,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6322551</v>
+        <v>6322550</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>23</v>
+        <v>1.65</v>
       </c>
       <c r="L78">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>1.09</v>
+        <v>4.75</v>
       </c>
       <c r="N78">
-        <v>23</v>
+        <v>1.666</v>
       </c>
       <c r="O78">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
+        <v>1.925</v>
+      </c>
+      <c r="T78">
         <v>2.75</v>
       </c>
-      <c r="R78">
-        <v>1.95</v>
-      </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
-      <c r="T78">
-        <v>3.75</v>
-      </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6322552</v>
+        <v>6322551</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>4</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="N79">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P79">
-        <v>2.15</v>
+        <v>1.071</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351327</v>
+        <v>6351329</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
+        <v>1.925</v>
+      </c>
+      <c r="S82">
         <v>1.875</v>
-      </c>
-      <c r="S82">
-        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
         <v>0.875</v>
       </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
       <c r="AB82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351329</v>
+        <v>6351327</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83">
+        <v>2.8</v>
+      </c>
+      <c r="L83">
+        <v>3.4</v>
+      </c>
+      <c r="M83">
+        <v>2.3</v>
+      </c>
+      <c r="N83">
+        <v>2.5</v>
+      </c>
+      <c r="O83">
+        <v>3.4</v>
+      </c>
+      <c r="P83">
+        <v>2.55</v>
+      </c>
+      <c r="Q83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>42</v>
-      </c>
-      <c r="K83">
-        <v>1.363</v>
-      </c>
-      <c r="L83">
-        <v>5</v>
-      </c>
-      <c r="M83">
-        <v>6.5</v>
-      </c>
-      <c r="N83">
-        <v>1.4</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
-      <c r="P83">
-        <v>5.75</v>
-      </c>
-      <c r="Q83">
-        <v>-1.25</v>
-      </c>
       <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>1.925</v>
-      </c>
-      <c r="S83">
-        <v>1.875</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X83">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383176</v>
+        <v>6383173</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,10 +8181,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8196,43 +8196,43 @@
         <v>41</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8241,7 +8241,7 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
         <v>-1</v>
@@ -8250,7 +8250,7 @@
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383175</v>
+        <v>6383172</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,55 +8270,55 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>43</v>
       </c>
       <c r="K88">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8327,19 +8327,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.363</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383173</v>
+        <v>6383175</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89">
+        <v>5.25</v>
+      </c>
+      <c r="L89">
+        <v>4.2</v>
+      </c>
+      <c r="M89">
+        <v>1.5</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+      <c r="P89">
+        <v>1.363</v>
+      </c>
+      <c r="Q89">
+        <v>1.25</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>1.85</v>
+      </c>
+      <c r="V89">
+        <v>1.95</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>0.363</v>
+      </c>
+      <c r="Z89">
+        <v>0.5</v>
+      </c>
+      <c r="AA89">
+        <v>-0.5</v>
+      </c>
+      <c r="AB89">
         <v>0</v>
       </c>
-      <c r="J89" t="s">
-        <v>41</v>
-      </c>
-      <c r="K89">
-        <v>1.8</v>
-      </c>
-      <c r="L89">
-        <v>3.75</v>
-      </c>
-      <c r="M89">
-        <v>3.75</v>
-      </c>
-      <c r="N89">
-        <v>1.8</v>
-      </c>
-      <c r="O89">
-        <v>3.75</v>
-      </c>
-      <c r="P89">
-        <v>3.8</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
-      <c r="W89">
-        <v>0.8</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>0.8</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6383172</v>
+        <v>6383176</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
+        <v>1.909</v>
+      </c>
+      <c r="L90">
+        <v>3.5</v>
+      </c>
+      <c r="M90">
+        <v>3.6</v>
+      </c>
+      <c r="N90">
+        <v>1.6</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>4.75</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
         <v>1.85</v>
-      </c>
-      <c r="L90">
-        <v>3.75</v>
-      </c>
-      <c r="M90">
-        <v>3.5</v>
-      </c>
-      <c r="N90">
-        <v>2</v>
-      </c>
-      <c r="O90">
-        <v>3.6</v>
-      </c>
-      <c r="P90">
-        <v>3.1</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.775</v>
-      </c>
-      <c r="S90">
-        <v>2.025</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471661</v>
+        <v>6471667</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L97">
         <v>4</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N97">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471660</v>
+        <v>6471668</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,61 +9160,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>42</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N98">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9223,13 +9223,13 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471668</v>
+        <v>6471660</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,61 +9249,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
       </c>
       <c r="K99">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="P99">
         <v>4.5</v>
       </c>
-      <c r="P99">
-        <v>3.4</v>
-      </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y99">
         <v>-1</v>
@@ -9312,13 +9312,13 @@
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471669</v>
+        <v>6471661</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9353,43 +9353,43 @@
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M100">
+        <v>4.333</v>
+      </c>
+      <c r="N100">
+        <v>1.125</v>
+      </c>
+      <c r="O100">
         <v>7</v>
       </c>
-      <c r="N100">
-        <v>1.75</v>
-      </c>
-      <c r="O100">
-        <v>3.8</v>
-      </c>
       <c r="P100">
+        <v>13</v>
+      </c>
+      <c r="Q100">
+        <v>-2.25</v>
+      </c>
+      <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
+        <v>1.925</v>
+      </c>
+      <c r="T100">
         <v>3.75</v>
       </c>
-      <c r="Q100">
-        <v>-0.75</v>
-      </c>
-      <c r="R100">
+      <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.8</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
       <c r="W100">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>-0.5</v>
+      </c>
+      <c r="AA100">
+        <v>0.4625</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471667</v>
+        <v>6471669</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>1.333</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>7</v>
+      </c>
+      <c r="N101">
+        <v>1.75</v>
+      </c>
+      <c r="O101">
+        <v>3.8</v>
+      </c>
+      <c r="P101">
+        <v>3.75</v>
+      </c>
+      <c r="Q101">
+        <v>-0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>1.825</v>
+      </c>
+      <c r="T101">
+        <v>3.25</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>0.75</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>42</v>
-      </c>
-      <c r="K101">
-        <v>1.571</v>
-      </c>
-      <c r="L101">
-        <v>4</v>
-      </c>
-      <c r="M101">
-        <v>4.75</v>
-      </c>
-      <c r="N101">
-        <v>1.5</v>
-      </c>
-      <c r="O101">
-        <v>4.2</v>
-      </c>
-      <c r="P101">
-        <v>5.25</v>
-      </c>
-      <c r="Q101">
-        <v>-1</v>
-      </c>
-      <c r="R101">
-        <v>1.8</v>
-      </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>3.2</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
-      <c r="AA101">
-        <v>1</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630065</v>
+        <v>7630582</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,73 +9605,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.7</v>
-      </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AC103">
         <v>-0.5</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7630583</v>
+        <v>7630584</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,16 +9754,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630582</v>
+        <v>7630065</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB105">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AC105">
         <v>-0.5</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630584</v>
+        <v>7630583</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M106">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="N106">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P106">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W106">
-        <v>1.05</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630585</v>
+        <v>7630067</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
+        <v>3.5</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>2.875</v>
-      </c>
       <c r="N108">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630067</v>
+        <v>7630141</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L109">
+        <v>3.3</v>
+      </c>
+      <c r="M109">
+        <v>2.55</v>
+      </c>
+      <c r="N109">
+        <v>3.3</v>
+      </c>
+      <c r="O109">
         <v>3.5</v>
       </c>
-      <c r="M109">
-        <v>3.4</v>
-      </c>
-      <c r="N109">
-        <v>2.5</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y109">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630066</v>
+        <v>7630585</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,73 +10228,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="N110">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.4125</v>
+      </c>
+      <c r="AA110">
         <v>-0.5</v>
       </c>
-      <c r="AA110">
-        <v>0.425</v>
-      </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630141</v>
+        <v>7630066</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M111">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="N111">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q111">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630586</v>
+        <v>7630069</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,64 +10406,64 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P112">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7630143</v>
+        <v>7630586</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,70 +10495,70 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="N113">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
         <v>1.825</v>
       </c>
       <c r="W113">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7630069</v>
+        <v>7630143</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,13 +10584,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10599,61 +10599,431 @@
         <v>41</v>
       </c>
       <c r="K114">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L114">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
+        <v>1.825</v>
+      </c>
+      <c r="W114">
+        <v>1.55</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.875</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7630588</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F115" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="K115">
+        <v>1.444</v>
+      </c>
+      <c r="L115">
+        <v>4.5</v>
+      </c>
+      <c r="M115">
+        <v>6</v>
+      </c>
+      <c r="N115">
+        <v>1.6</v>
+      </c>
+      <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
+        <v>4.75</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>1.85</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
         <v>1.8</v>
       </c>
-      <c r="W114">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
+      <c r="V115">
+        <v>2.05</v>
+      </c>
+      <c r="W115">
         <v>0</v>
       </c>
-      <c r="AA114">
-        <v>-0</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.8</v>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7630144</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F116" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116">
+        <v>2.15</v>
+      </c>
+      <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>2.9</v>
+      </c>
+      <c r="N116">
+        <v>2.1</v>
+      </c>
+      <c r="O116">
+        <v>3.5</v>
+      </c>
+      <c r="P116">
+        <v>3</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.925</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
+        <v>1.925</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7630074</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F117" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117">
+        <v>2.375</v>
+      </c>
+      <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>2.7</v>
+      </c>
+      <c r="N117">
+        <v>2.5</v>
+      </c>
+      <c r="O117">
+        <v>3.25</v>
+      </c>
+      <c r="P117">
+        <v>2.625</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.85</v>
+      </c>
+      <c r="V117">
+        <v>2</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7630073</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118">
+        <v>2.375</v>
+      </c>
+      <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>2.7</v>
+      </c>
+      <c r="N118">
+        <v>2.15</v>
+      </c>
+      <c r="O118">
+        <v>3.5</v>
+      </c>
+      <c r="P118">
+        <v>3</v>
+      </c>
+      <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>1.925</v>
+      </c>
+      <c r="S118">
+        <v>1.925</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.85</v>
+      </c>
+      <c r="V118">
+        <v>2</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7630145</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45360.6875</v>
+      </c>
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
+        <v>2.2</v>
+      </c>
+      <c r="N119">
+        <v>4.333</v>
+      </c>
+      <c r="O119">
+        <v>3.75</v>
+      </c>
+      <c r="P119">
+        <v>1.727</v>
+      </c>
+      <c r="Q119">
+        <v>0.75</v>
+      </c>
+      <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>2.025</v>
+      </c>
+      <c r="V119">
+        <v>1.825</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -106,13 +106,13 @@
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Waterford FC</t>
+    <t>Bray Wanderers</t>
   </si>
   <si>
     <t>Wexford FC</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
+    <t>Waterford FC</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -121,10 +121,10 @@
     <t>Kerry FC</t>
   </si>
   <si>
-    <t>Galway United</t>
+    <t>Cobh Ramblers</t>
   </si>
   <si>
-    <t>Cobh Ramblers</t>
+    <t>Galway United</t>
   </si>
   <si>
     <t>Treaty United FC</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062586</v>
+        <v>6062529</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
+        <v>3.8</v>
+      </c>
+      <c r="M3">
+        <v>1.6</v>
+      </c>
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>1.2</v>
-      </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P5">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6062532</v>
+        <v>6062531</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1165,34 +1165,34 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="O8">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.125</v>
+        <v>0.571</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6062531</v>
+        <v>6062532</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1254,34 +1254,34 @@
         <v>41</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="N9">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1290,7 +1290,7 @@
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.571</v>
+        <v>0.125</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062533</v>
+        <v>6062534</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>1.222</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="Q13">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z13">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062588</v>
+        <v>6062535</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,55 +1684,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N14">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1741,19 +1741,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.925</v>
+      </c>
+      <c r="AB14">
         <v>0.825</v>
       </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062534</v>
+        <v>6062533</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="L15">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>1.222</v>
       </c>
       <c r="O15">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P15">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="Q15">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.4125</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.5</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6062535</v>
+        <v>6062588</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,55 +1862,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.825</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062536</v>
+        <v>6062589</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L17">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.05</v>
+        <v>1.571</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>26</v>
+        <v>4.75</v>
       </c>
       <c r="Q17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.825</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>1.85</v>
+      </c>
+      <c r="V17">
         <v>1.95</v>
       </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>3.5</v>
-      </c>
-      <c r="U17">
-        <v>1.875</v>
-      </c>
-      <c r="V17">
-        <v>1.925</v>
-      </c>
       <c r="W17">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.825</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.95</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.875</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>1.1</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>1.062</v>
+      </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>1.8</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.6</v>
-      </c>
-      <c r="N18">
-        <v>1.571</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
-      <c r="P18">
-        <v>4.75</v>
-      </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
+        <v>3.25</v>
+      </c>
+      <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0.825</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,10 +2129,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6063883</v>
+        <v>6062536</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,40 +2218,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
       </c>
       <c r="K20">
-        <v>1.1</v>
+        <v>1.125</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>1.05</v>
+      </c>
+      <c r="O20">
         <v>15</v>
       </c>
-      <c r="N20">
-        <v>1.062</v>
-      </c>
-      <c r="O20">
-        <v>11</v>
-      </c>
       <c r="P20">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q20">
-        <v>-2.75</v>
+        <v>-3</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2260,16 +2260,16 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.06200000000000006</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,13 +2278,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6062537</v>
+        <v>6062592</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,43 +2485,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>3.6</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="N23">
+        <v>2.25</v>
+      </c>
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>2.15</v>
-      </c>
-      <c r="N23">
-        <v>3.25</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
       <c r="P23">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>1.8</v>
@@ -2530,31 +2530,31 @@
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6062592</v>
+        <v>6062537</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,43 +2663,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>2.1</v>
-      </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N25">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
         <v>1.8</v>
@@ -2708,31 +2708,31 @@
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y25">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6062594</v>
+        <v>6063881</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,46 +2841,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>43</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2898,13 +2898,13 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>0.825</v>
@@ -2930,7 +2930,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6063881</v>
+        <v>6062594</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,46 +3019,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>43</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
         <v>2.75</v>
@@ -3076,13 +3076,13 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
         <v>0.825</v>
@@ -3108,10 +3108,10 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
         <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3467,7 +3467,7 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6063879</v>
+        <v>6062544</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P36">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>-1.75</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1.95</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
-      <c r="V36">
-        <v>1.95</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6062544</v>
+        <v>6063879</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N39">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="Q39">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6063878</v>
+        <v>6062546</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,73 +4090,73 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.035</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="O41">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.475</v>
-      </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6062598</v>
+        <v>6063878</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,49 +4176,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.035</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>3.4</v>
+        <v>51</v>
       </c>
       <c r="N42">
-        <v>1.666</v>
+        <v>1.055</v>
       </c>
       <c r="O42">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U42">
         <v>1.825</v>
@@ -4227,25 +4227,25 @@
         <v>1.975</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X42">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6062546</v>
+        <v>6062598</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4369,25 +4369,25 @@
         <v>42</v>
       </c>
       <c r="K44">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O44">
         <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
         <v>1.9</v>
@@ -4396,13 +4396,13 @@
         <v>1.9</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4414,13 +4414,13 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4446,7 +4446,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4621,7 +4621,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4713,7 +4713,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M50">
+        <v>1.444</v>
+      </c>
+      <c r="N50">
+        <v>5.75</v>
+      </c>
+      <c r="O50">
         <v>4.5</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
       <c r="P50">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6062551</v>
+        <v>6062552</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,73 +5066,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
         <v>36</v>
       </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N52">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
+        <v>0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.775</v>
+      </c>
+      <c r="S52">
+        <v>2.025</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.95</v>
+      </c>
+      <c r="V52">
+        <v>1.85</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>2</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
+        <v>0.3875</v>
+      </c>
+      <c r="AA52">
         <v>-0.5</v>
       </c>
-      <c r="R52">
-        <v>1.825</v>
-      </c>
-      <c r="S52">
-        <v>1.975</v>
-      </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
-      <c r="V52">
-        <v>1.95</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.4</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
-      <c r="AA52">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6062552</v>
+        <v>6062551</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,73 +5155,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
         <v>30</v>
       </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
         <v>3.2</v>
       </c>
       <c r="M53">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
+        <v>1.85</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6062555</v>
+        <v>6063875</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,13 +5422,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5437,43 +5437,43 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N56">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P56">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6062554</v>
+        <v>6062602</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,55 +5511,55 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>43</v>
       </c>
       <c r="K57">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N57">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5568,19 +5568,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.444</v>
+        <v>2.75</v>
       </c>
       <c r="Z57">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062602</v>
+        <v>6062554</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="K58">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
+        <v>1.5</v>
+      </c>
+      <c r="N58">
+        <v>6.5</v>
+      </c>
+      <c r="O58">
         <v>4.75</v>
       </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>3.75</v>
-      </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q58">
+        <v>1.25</v>
+      </c>
+      <c r="R58">
+        <v>1.9</v>
+      </c>
+      <c r="S58">
+        <v>1.9</v>
+      </c>
+      <c r="T58">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>1.775</v>
+      </c>
+      <c r="V58">
+        <v>2.025</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>0.444</v>
+      </c>
+      <c r="Z58">
+        <v>0.45</v>
+      </c>
+      <c r="AA58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.825</v>
-      </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>1.8</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>2.75</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6063875</v>
+        <v>6062555</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,13 +5689,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5704,43 +5704,43 @@
         <v>41</v>
       </c>
       <c r="K59">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M59">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N59">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O59">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,13 +5749,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5959,7 +5959,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6062604</v>
+        <v>6062605</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
         <v>1.8</v>
@@ -6087,22 +6087,22 @@
         <v>2</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y63">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062603</v>
+        <v>6062604</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N64">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6062605</v>
+        <v>6062603</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N65">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6579,10 +6579,10 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>45178.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6288012</v>
+        <v>6287998</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
+        <v>1.363</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>7</v>
+      </c>
+      <c r="N72">
+        <v>1.4</v>
+      </c>
+      <c r="O72">
+        <v>4.75</v>
+      </c>
+      <c r="P72">
+        <v>6</v>
+      </c>
+      <c r="Q72">
+        <v>-1.25</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
         <v>1.95</v>
       </c>
-      <c r="L72">
-        <v>3.6</v>
-      </c>
-      <c r="M72">
-        <v>3.4</v>
-      </c>
-      <c r="N72">
-        <v>2.05</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3.1</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288590</v>
+        <v>6288012</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="L73">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
         <v>1.975</v>
       </c>
-      <c r="S73">
-        <v>1.825</v>
-      </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6287998</v>
+        <v>6288590</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6322553</v>
+        <v>6322550</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7128,34 +7128,34 @@
         <v>41</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
         <v>1.825</v>
@@ -7164,7 +7164,7 @@
         <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,7 +7173,7 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7222986</v>
+        <v>6322551</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,55 +7202,55 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>5.75</v>
+        <v>23</v>
       </c>
       <c r="L76">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="M76">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="N76">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>1.071</v>
+      </c>
+      <c r="Q76">
+        <v>2.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>3.75</v>
       </c>
-      <c r="P76">
-        <v>1.666</v>
-      </c>
-      <c r="Q76">
-        <v>0.75</v>
-      </c>
-      <c r="R76">
+      <c r="U76">
         <v>1.9</v>
       </c>
-      <c r="S76">
-        <v>1.95</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7259,16 +7259,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.6659999999999999</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="AC76">
         <v>-0.5</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6322550</v>
+        <v>6322553</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,13 +7380,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -7395,34 +7395,34 @@
         <v>41</v>
       </c>
       <c r="K78">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7431,7 +7431,7 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7440,7 +7440,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6322551</v>
+        <v>7222986</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,55 +7469,55 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>23</v>
+        <v>5.75</v>
       </c>
       <c r="L79">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="M79">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="N79">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="O79">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>1.071</v>
+        <v>1.666</v>
       </c>
       <c r="Q79">
+        <v>0.75</v>
+      </c>
+      <c r="R79">
+        <v>1.9</v>
+      </c>
+      <c r="S79">
+        <v>1.95</v>
+      </c>
+      <c r="T79">
         <v>2.75</v>
       </c>
-      <c r="R79">
-        <v>1.95</v>
-      </c>
-      <c r="S79">
+      <c r="U79">
         <v>1.85</v>
       </c>
-      <c r="T79">
-        <v>3.75</v>
-      </c>
-      <c r="U79">
-        <v>1.9</v>
-      </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7526,16 +7526,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.07099999999999995</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AC79">
         <v>-0.5</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,13 +7558,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7573,34 +7573,34 @@
         <v>41</v>
       </c>
       <c r="K80">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7609,7 +7609,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7618,10 +7618,10 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7662,34 +7662,34 @@
         <v>41</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
         <v>1.85</v>
@@ -7698,7 +7698,7 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7707,10 +7707,10 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351329</v>
+        <v>6351327</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,73 +7739,73 @@
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82">
+        <v>2.8</v>
+      </c>
+      <c r="L82">
+        <v>3.4</v>
+      </c>
+      <c r="M82">
+        <v>2.3</v>
+      </c>
+      <c r="N82">
+        <v>2.5</v>
+      </c>
+      <c r="O82">
+        <v>3.4</v>
+      </c>
+      <c r="P82">
+        <v>2.55</v>
+      </c>
+      <c r="Q82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>42</v>
-      </c>
-      <c r="K82">
-        <v>1.363</v>
-      </c>
-      <c r="L82">
-        <v>5</v>
-      </c>
-      <c r="M82">
-        <v>6.5</v>
-      </c>
-      <c r="N82">
-        <v>1.4</v>
-      </c>
-      <c r="O82">
-        <v>4.5</v>
-      </c>
-      <c r="P82">
-        <v>5.75</v>
-      </c>
-      <c r="Q82">
-        <v>-1.25</v>
-      </c>
       <c r="R82">
+        <v>1.875</v>
+      </c>
+      <c r="S82">
         <v>1.925</v>
-      </c>
-      <c r="S82">
-        <v>1.875</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X82">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351327</v>
+        <v>6351329</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,73 +7828,73 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R83">
+        <v>1.925</v>
+      </c>
+      <c r="S83">
         <v>1.875</v>
-      </c>
-      <c r="S83">
-        <v>1.925</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.875</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383173</v>
+        <v>6383172</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L87">
         <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
+        <v>3.1</v>
+      </c>
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.775</v>
+      </c>
+      <c r="S87">
+        <v>2.025</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.75</v>
-      </c>
-      <c r="P87">
-        <v>3.8</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383172</v>
+        <v>6383173</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L88">
         <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8537,10 +8537,10 @@
         <v>45209.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8718,7 +8718,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471667</v>
+        <v>6471669</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,73 +9074,73 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97">
+        <v>1.333</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>1.75</v>
+      </c>
+      <c r="O97">
+        <v>3.8</v>
+      </c>
+      <c r="P97">
+        <v>3.75</v>
+      </c>
+      <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
+        <v>3.25</v>
+      </c>
+      <c r="U97">
+        <v>1.8</v>
+      </c>
+      <c r="V97">
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>0.75</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>1</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97" t="s">
-        <v>42</v>
-      </c>
-      <c r="K97">
-        <v>1.571</v>
-      </c>
-      <c r="L97">
-        <v>4</v>
-      </c>
-      <c r="M97">
-        <v>4.75</v>
-      </c>
-      <c r="N97">
-        <v>1.5</v>
-      </c>
-      <c r="O97">
-        <v>4.2</v>
-      </c>
-      <c r="P97">
-        <v>5.25</v>
-      </c>
-      <c r="Q97">
-        <v>-1</v>
-      </c>
-      <c r="R97">
-        <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.85</v>
-      </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>3.2</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>1</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471668</v>
+        <v>6471667</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9175,46 +9175,46 @@
         <v>42</v>
       </c>
       <c r="K98">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9223,13 +9223,13 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471660</v>
+        <v>6471661</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>4.333</v>
+      </c>
+      <c r="N99">
+        <v>1.125</v>
+      </c>
+      <c r="O99">
+        <v>7</v>
+      </c>
+      <c r="P99">
+        <v>13</v>
+      </c>
+      <c r="Q99">
+        <v>-2.25</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
         <v>3.75</v>
       </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
-      <c r="N99">
-        <v>1.615</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
-      <c r="P99">
-        <v>4.5</v>
-      </c>
-      <c r="Q99">
-        <v>-1</v>
-      </c>
-      <c r="R99">
-        <v>2</v>
-      </c>
-      <c r="S99">
-        <v>1.8</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471661</v>
+        <v>6471660</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
+        <v>1.727</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
         <v>1.615</v>
       </c>
-      <c r="L100">
+      <c r="O100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>4.333</v>
-      </c>
-      <c r="N100">
-        <v>1.125</v>
-      </c>
-      <c r="O100">
-        <v>7</v>
-      </c>
       <c r="P100">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471669</v>
+        <v>6471668</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N101">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q101">
         <v>-0.75</v>
       </c>
       <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
         <v>1.975</v>
-      </c>
-      <c r="S101">
-        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,10 +9516,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630582</v>
+        <v>7630065</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,73 +9605,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AC103">
         <v>-0.5</v>
@@ -9697,7 +9697,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630065</v>
+        <v>7630583</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="N105">
+        <v>1.285</v>
+      </c>
+      <c r="O105">
+        <v>5.5</v>
+      </c>
+      <c r="P105">
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <v>-1.5</v>
+      </c>
+      <c r="R105">
         <v>1.8</v>
       </c>
-      <c r="O105">
-        <v>3.75</v>
-      </c>
-      <c r="P105">
-        <v>3.8</v>
-      </c>
-      <c r="Q105">
-        <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.825</v>
-      </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.775</v>
+      </c>
+      <c r="V105">
         <v>2.025</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>1.025</v>
-      </c>
-      <c r="AB105">
-        <v>0.5125</v>
-      </c>
-      <c r="AC105">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630583</v>
+        <v>7630582</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9887,43 +9887,43 @@
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.125</v>
+        <v>1.95</v>
       </c>
       <c r="L106">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.2849999999999999</v>
+        <v>2</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC106">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630067</v>
+        <v>7630141</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L108">
+        <v>3.3</v>
+      </c>
+      <c r="M108">
+        <v>2.55</v>
+      </c>
+      <c r="N108">
+        <v>3.3</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>3.4</v>
-      </c>
-      <c r="N108">
-        <v>2.5</v>
-      </c>
-      <c r="O108">
-        <v>3.2</v>
-      </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630141</v>
+        <v>7630585</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>42</v>
       </c>
       <c r="K109">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N109">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630585</v>
+        <v>7630067</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
+        <v>3.5</v>
+      </c>
+      <c r="M110">
         <v>3.4</v>
       </c>
-      <c r="M110">
-        <v>2.875</v>
-      </c>
       <c r="N110">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z110">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630069</v>
+        <v>7630586</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,64 +10406,64 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z112">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7630586</v>
+        <v>7630143</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,70 +10495,70 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N113">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
         <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7630143</v>
+        <v>7630069</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,13 +10584,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10599,43 +10599,43 @@
         <v>41</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M114">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10678,6 +10678,15 @@
       <c r="G115" t="s">
         <v>34</v>
       </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>42</v>
+      </c>
       <c r="K115">
         <v>1.444</v>
       </c>
@@ -10688,22 +10697,22 @@
         <v>6</v>
       </c>
       <c r="N115">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
         <v>2</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2.75</v>
@@ -10712,22 +10721,28 @@
         <v>1.8</v>
       </c>
       <c r="V115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10735,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7630144</v>
+        <v>7630073</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10747,37 +10762,46 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L116">
         <v>3.5</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>2.75</v>
@@ -10786,22 +10810,28 @@
         <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB116">
+        <v>0.925</v>
+      </c>
+      <c r="AC116">
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10826,6 +10856,15 @@
       <c r="G117" t="s">
         <v>31</v>
       </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>43</v>
+      </c>
       <c r="K117">
         <v>2.375</v>
       </c>
@@ -10836,10 +10875,10 @@
         <v>2.7</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
         <v>2.625</v>
@@ -10848,34 +10887,40 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2.25</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
       <c r="W117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB117">
+        <v>0.95</v>
+      </c>
+      <c r="AC117">
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10883,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7630073</v>
+        <v>7630145</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10892,49 +10937,49 @@
         <v>28</v>
       </c>
       <c r="E118" s="2">
-        <v>45359.69791666666</v>
+        <v>45360.6875</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>0</v>
@@ -10949,80 +10994,6 @@
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>7630145</v>
-      </c>
-      <c r="C119" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="2">
-        <v>45360.6875</v>
-      </c>
-      <c r="F119" t="s">
-        <v>38</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119">
-        <v>3.4</v>
-      </c>
-      <c r="M119">
-        <v>2.2</v>
-      </c>
-      <c r="N119">
-        <v>4.333</v>
-      </c>
-      <c r="O119">
-        <v>3.75</v>
-      </c>
-      <c r="P119">
-        <v>1.727</v>
-      </c>
-      <c r="Q119">
-        <v>0.75</v>
-      </c>
-      <c r="R119">
-        <v>1.875</v>
-      </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>2.025</v>
-      </c>
-      <c r="V119">
-        <v>1.825</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
-        <v>0</v>
-      </c>
-      <c r="AA119">
         <v>0</v>
       </c>
     </row>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Bray Wanderers</t>
   </si>
   <si>
-    <t>Wexford FC</t>
+    <t>Waterford FC</t>
   </si>
   <si>
-    <t>Waterford FC</t>
+    <t>Wexford FC</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062587</v>
+        <v>6062586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,55 +797,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062586</v>
+        <v>6062587</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,55 +886,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6062530</v>
+        <v>6063094</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,40 +1328,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
         <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1373,31 +1373,31 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6063094</v>
+        <v>6062530</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,40 +1417,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O11">
         <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1462,31 +1462,31 @@
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6063884</v>
+        <v>6062533</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="L12">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N12">
-        <v>9.5</v>
+        <v>1.222</v>
       </c>
       <c r="O12">
         <v>5.5</v>
       </c>
       <c r="P12">
-        <v>1.222</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R12">
+        <v>1.825</v>
+      </c>
+      <c r="S12">
         <v>1.975</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062534</v>
+        <v>6062535</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,55 +1595,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q13">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1652,19 +1652,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062535</v>
+        <v>6062534</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M14">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q14">
+        <v>1.75</v>
+      </c>
+      <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1.8</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>0.25</v>
+      </c>
+      <c r="Z14">
         <v>-0.5</v>
       </c>
-      <c r="R14">
-        <v>1.925</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.825</v>
-      </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>2.8</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062533</v>
+        <v>6062588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
         <v>1.825</v>
       </c>
-      <c r="S15">
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
         <v>1.975</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>1.775</v>
-      </c>
-      <c r="V15">
-        <v>2.025</v>
-      </c>
       <c r="W15">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z15">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6062588</v>
+        <v>6063884</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,10 +1862,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1877,25 +1877,25 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P16">
-        <v>2.4</v>
+        <v>1.222</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1904,13 +1904,13 @@
         <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.4</v>
+        <v>0.222</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>1.1</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>1.062</v>
+      </c>
+      <c r="O17">
+        <v>11</v>
+      </c>
+      <c r="P17">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>1.8</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>3.6</v>
-      </c>
-      <c r="N17">
-        <v>1.571</v>
-      </c>
-      <c r="O17">
-        <v>3.8</v>
-      </c>
-      <c r="P17">
-        <v>4.75</v>
-      </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>1.85</v>
+      </c>
+      <c r="T17">
+        <v>3.25</v>
+      </c>
+      <c r="U17">
+        <v>1.825</v>
+      </c>
+      <c r="V17">
         <v>1.975</v>
       </c>
-      <c r="S17">
-        <v>1.825</v>
-      </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB17">
         <v>0.825</v>
       </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6063883</v>
+        <v>6062590</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,58 +2040,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>1.285</v>
       </c>
       <c r="N18">
-        <v>1.062</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="P18">
-        <v>29</v>
+        <v>1.363</v>
       </c>
       <c r="Q18">
-        <v>-2.75</v>
+        <v>1.5</v>
       </c>
       <c r="R18">
         <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
         <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.06200000000000006</v>
+        <v>5</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6062590</v>
+        <v>6062536</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,13 +2129,13 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2144,34 +2144,34 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M19">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="P19">
-        <v>1.363</v>
+        <v>26</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="R19">
         <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
         <v>1.875</v>
@@ -2180,7 +2180,7 @@
         <v>1.925</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,10 +2195,10 @@
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6062536</v>
+        <v>6062589</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.05</v>
+        <v>1.571</v>
       </c>
       <c r="O20">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>26</v>
+        <v>4.75</v>
       </c>
       <c r="Q20">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
+        <v>1.825</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1.85</v>
+      </c>
+      <c r="V20">
         <v>1.95</v>
       </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.825</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.95</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>0.875</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6062592</v>
+        <v>6062537</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,43 +2485,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>2.1</v>
-      </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
         <v>1.8</v>
@@ -2530,31 +2530,31 @@
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6063882</v>
+        <v>6062592</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.035</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.02</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>21</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>41</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
-        <v>-4.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6062537</v>
+        <v>6063882</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1.035</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>2.15</v>
+        <v>41</v>
       </c>
       <c r="N25">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6062540</v>
+        <v>6062594</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,73 +2933,73 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
+        <v>2.2</v>
+      </c>
+      <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
+        <v>2.875</v>
+      </c>
+      <c r="N28">
+        <v>3.1</v>
+      </c>
+      <c r="O28">
+        <v>3.3</v>
+      </c>
+      <c r="P28">
+        <v>2.1</v>
+      </c>
+      <c r="Q28">
+        <v>0.25</v>
+      </c>
+      <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
+        <v>1.925</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>1.825</v>
+      </c>
+      <c r="V28">
+        <v>1.975</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
         <v>1.1</v>
       </c>
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>1.083</v>
-      </c>
-      <c r="O28">
-        <v>11</v>
-      </c>
-      <c r="P28">
-        <v>19</v>
-      </c>
-      <c r="Q28">
-        <v>-3</v>
-      </c>
-      <c r="R28">
-        <v>1.85</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.975</v>
-      </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>10</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062594</v>
+        <v>6062540</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,73 +3022,73 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>1.1</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>1.083</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <v>-3</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>4.25</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
+        <v>1.875</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29">
-        <v>2.2</v>
-      </c>
-      <c r="L29">
-        <v>3.4</v>
-      </c>
-      <c r="M29">
-        <v>2.875</v>
-      </c>
-      <c r="N29">
-        <v>3.1</v>
-      </c>
-      <c r="O29">
-        <v>3.3</v>
-      </c>
-      <c r="P29">
-        <v>2.1</v>
-      </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.875</v>
-      </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>1.1</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>0.925</v>
-      </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,56 +3286,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L32">
+        <v>3.8</v>
+      </c>
+      <c r="M32">
         <v>4.5</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.4</v>
       </c>
-      <c r="N32">
-        <v>8</v>
-      </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q32">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3343,19 +3343,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,56 +3375,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
+        <v>1.4</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="N33">
-        <v>1.4</v>
-      </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6062544</v>
+        <v>6063095</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,13 +3642,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3657,43 +3657,43 @@
         <v>41</v>
       </c>
       <c r="K36">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q36">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3702,16 +3702,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063095</v>
+        <v>6062544</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3746,61 +3746,61 @@
         <v>41</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>1.25</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>-1.75</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
         <v>3</v>
       </c>
-      <c r="N37">
-        <v>2.5</v>
-      </c>
-      <c r="O37">
-        <v>3.3</v>
-      </c>
-      <c r="P37">
-        <v>2.55</v>
-      </c>
-      <c r="Q37">
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
+        <v>1.85</v>
+      </c>
+      <c r="W37">
+        <v>0.25</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA37">
+        <v>-1</v>
+      </c>
+      <c r="AB37">
         <v>0</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.925</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
-      <c r="V37">
-        <v>1.8</v>
-      </c>
-      <c r="W37">
-        <v>1.5</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6062546</v>
+        <v>6062547</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,73 +4087,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K41">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
       <c r="N41">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6063878</v>
+        <v>6062598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,49 +4176,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
         <v>32</v>
       </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>1.035</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>51</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>1.055</v>
+        <v>1.666</v>
       </c>
       <c r="O42">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
         <v>1.825</v>
@@ -4227,25 +4227,25 @@
         <v>1.975</v>
       </c>
       <c r="W42">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6062547</v>
+        <v>6062546</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
         <v>4</v>
       </c>
       <c r="N43">
+        <v>2.75</v>
+      </c>
+      <c r="O43">
+        <v>3.75</v>
+      </c>
+      <c r="P43">
         <v>2.15</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
+        <v>0.25</v>
+      </c>
+      <c r="R43">
+        <v>1.9</v>
+      </c>
+      <c r="S43">
+        <v>1.9</v>
+      </c>
+      <c r="T43">
         <v>3.25</v>
       </c>
-      <c r="P43">
-        <v>3.2</v>
-      </c>
-      <c r="Q43">
-        <v>-0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.85</v>
-      </c>
-      <c r="S43">
-        <v>1.95</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA43">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6062598</v>
+        <v>6063878</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,49 +4354,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>1.035</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>3.4</v>
+        <v>51</v>
       </c>
       <c r="N44">
-        <v>1.666</v>
+        <v>1.055</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P44">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U44">
         <v>1.825</v>
@@ -4405,25 +4405,25 @@
         <v>1.975</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4710,10 +4710,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
         <v>31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
@@ -5066,7 +5066,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6063875</v>
+        <v>6062555</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,13 +5422,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5437,43 +5437,43 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L56">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M56">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O56">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5514,7 +5514,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062554</v>
+        <v>6063875</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,40 +5600,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N58">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O58">
+        <v>4.333</v>
+      </c>
+      <c r="P58">
         <v>4.75</v>
       </c>
-      <c r="P58">
-        <v>1.444</v>
-      </c>
       <c r="Q58">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R58">
         <v>1.9</v>
@@ -5642,34 +5642,34 @@
         <v>1.9</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6062555</v>
+        <v>6062554</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K59">
+        <v>5.5</v>
+      </c>
+      <c r="L59">
+        <v>4.5</v>
+      </c>
+      <c r="M59">
+        <v>1.5</v>
+      </c>
+      <c r="N59">
+        <v>6.5</v>
+      </c>
+      <c r="O59">
+        <v>4.75</v>
+      </c>
+      <c r="P59">
+        <v>1.444</v>
+      </c>
+      <c r="Q59">
         <v>1.25</v>
       </c>
-      <c r="L59">
-        <v>5.75</v>
-      </c>
-      <c r="M59">
-        <v>10</v>
-      </c>
-      <c r="N59">
-        <v>1.333</v>
-      </c>
-      <c r="O59">
-        <v>5</v>
-      </c>
-      <c r="P59">
-        <v>7.5</v>
-      </c>
-      <c r="Q59">
-        <v>-1.5</v>
-      </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6063874</v>
+        <v>6062603</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6062605</v>
+        <v>6063874</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <v>4.333</v>
+      </c>
+      <c r="M63">
+        <v>1.444</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>1.55</v>
+      </c>
+      <c r="Q63">
         <v>1</v>
       </c>
-      <c r="J63" t="s">
-        <v>42</v>
-      </c>
-      <c r="K63">
-        <v>1.7</v>
-      </c>
-      <c r="L63">
-        <v>3.75</v>
-      </c>
-      <c r="M63">
-        <v>4.2</v>
-      </c>
-      <c r="N63">
-        <v>1.6</v>
-      </c>
-      <c r="O63">
-        <v>3.8</v>
-      </c>
-      <c r="P63">
-        <v>4.75</v>
-      </c>
-      <c r="Q63">
-        <v>-0.75</v>
-      </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6062603</v>
+        <v>6062605</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
+        <v>3.75</v>
+      </c>
+      <c r="M65">
+        <v>4.2</v>
+      </c>
+      <c r="N65">
+        <v>1.6</v>
+      </c>
+      <c r="O65">
         <v>3.8</v>
       </c>
-      <c r="M65">
-        <v>4.5</v>
-      </c>
-      <c r="N65">
-        <v>1.95</v>
-      </c>
-      <c r="O65">
-        <v>3.5</v>
-      </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6063873</v>
+        <v>6062558</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M67">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="N67">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P67">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q67">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
         <v>1</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6493,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6062558</v>
+        <v>6063873</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69">
+        <v>4.5</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>1.65</v>
+      </c>
+      <c r="N69">
+        <v>6.5</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>1.4</v>
+      </c>
+      <c r="Q69">
+        <v>1.25</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
+        <v>1.8</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>4</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>4</v>
-      </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69">
-        <v>7.5</v>
-      </c>
-      <c r="L69">
-        <v>5.25</v>
-      </c>
-      <c r="M69">
-        <v>1.363</v>
-      </c>
-      <c r="N69">
-        <v>7.5</v>
-      </c>
-      <c r="O69">
-        <v>5.5</v>
-      </c>
-      <c r="P69">
-        <v>1.363</v>
-      </c>
-      <c r="Q69">
-        <v>1.5</v>
-      </c>
-      <c r="R69">
-        <v>1.85</v>
-      </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.363</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
       <c r="AA69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6287998</v>
+        <v>6288012</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288012</v>
+        <v>6288590</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
         <v>1.825</v>
       </c>
-      <c r="S73">
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>1.975</v>
       </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.825</v>
+      </c>
+      <c r="AB73">
         <v>-0.5</v>
       </c>
-      <c r="AA73">
+      <c r="AC73">
         <v>0.4875</v>
-      </c>
-      <c r="AB73">
-        <v>0.875</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6288590</v>
+        <v>6287998</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="L74">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
+        <v>4.75</v>
+      </c>
+      <c r="P74">
         <v>6</v>
       </c>
-      <c r="P74">
-        <v>10</v>
-      </c>
       <c r="Q74">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
         <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6322550</v>
+        <v>6322552</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7128,44 +7128,44 @@
         <v>41</v>
       </c>
       <c r="K75">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.85</v>
+      </c>
+      <c r="W75">
         <v>1.875</v>
       </c>
-      <c r="S75">
-        <v>1.925</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.825</v>
-      </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
-      <c r="W75">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="X75">
         <v>-1</v>
       </c>
@@ -7173,13 +7173,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322551</v>
+        <v>6322550</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>23</v>
+        <v>1.65</v>
       </c>
       <c r="L76">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>1.09</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>23</v>
+        <v>1.666</v>
       </c>
       <c r="O76">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.925</v>
+      </c>
+      <c r="T76">
         <v>2.75</v>
       </c>
-      <c r="R76">
-        <v>1.95</v>
-      </c>
-      <c r="S76">
-        <v>1.85</v>
-      </c>
-      <c r="T76">
-        <v>3.75</v>
-      </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322552</v>
+        <v>6322551</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>4</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="N77">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P77">
-        <v>2.15</v>
+        <v>1.071</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -7472,7 +7472,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,13 +7558,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7573,34 +7573,34 @@
         <v>41</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7609,7 +7609,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7618,10 +7618,10 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7662,34 +7662,34 @@
         <v>41</v>
       </c>
       <c r="K81">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O81">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
         <v>1.85</v>
@@ -7698,7 +7698,7 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7707,10 +7707,10 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351327</v>
+        <v>6351328</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,58 +7736,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>41</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N82">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7796,16 +7796,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,10 +7825,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6351328</v>
+        <v>6351327</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,58 +7914,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>41</v>
       </c>
       <c r="K84">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L84">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q84">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7974,16 +7974,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383172</v>
+        <v>6383175</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,55 +8181,55 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>43</v>
       </c>
       <c r="K87">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8238,19 +8238,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>0.363</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383173</v>
+        <v>6383172</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
         <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>3.1</v>
+      </c>
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.775</v>
+      </c>
+      <c r="S88">
+        <v>2.025</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
-      <c r="P88">
-        <v>3.8</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383175</v>
+        <v>6383173</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N89">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471669</v>
+        <v>6471668</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N97">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
         <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>1.825</v>
+      </c>
+      <c r="S97">
         <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.825</v>
       </c>
       <c r="T97">
         <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471667</v>
+        <v>6471669</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98">
+        <v>1.333</v>
+      </c>
+      <c r="L98">
+        <v>5</v>
+      </c>
+      <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
+        <v>1.75</v>
+      </c>
+      <c r="O98">
+        <v>3.8</v>
+      </c>
+      <c r="P98">
+        <v>3.75</v>
+      </c>
+      <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
+        <v>3.25</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
+        <v>2</v>
+      </c>
+      <c r="W98">
+        <v>0.75</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>42</v>
-      </c>
-      <c r="K98">
-        <v>1.571</v>
-      </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
-        <v>4.75</v>
-      </c>
-      <c r="N98">
-        <v>1.5</v>
-      </c>
-      <c r="O98">
-        <v>4.2</v>
-      </c>
-      <c r="P98">
-        <v>5.25</v>
-      </c>
-      <c r="Q98">
-        <v>-1</v>
-      </c>
-      <c r="R98">
-        <v>1.8</v>
-      </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>3.2</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471661</v>
+        <v>6471660</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
+        <v>1.727</v>
+      </c>
+      <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
         <v>1.615</v>
       </c>
-      <c r="L99">
+      <c r="O99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>4.333</v>
-      </c>
-      <c r="N99">
-        <v>1.125</v>
-      </c>
-      <c r="O99">
-        <v>7</v>
-      </c>
       <c r="P99">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q99">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471660</v>
+        <v>6471667</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,61 +9338,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
       </c>
       <c r="K100">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
         <v>-1</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9401,13 +9401,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471668</v>
+        <v>6471661</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="L101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.65</v>
+        <v>1.125</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P101">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R101">
+        <v>1.875</v>
+      </c>
+      <c r="S101">
+        <v>1.925</v>
+      </c>
+      <c r="T101">
+        <v>3.75</v>
+      </c>
+      <c r="U101">
         <v>1.825</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.975</v>
       </c>
-      <c r="T101">
-        <v>3.25</v>
-      </c>
-      <c r="U101">
-        <v>1.875</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
+        <v>0.4625</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630065</v>
+        <v>7630583</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M103">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="N103">
+        <v>1.285</v>
+      </c>
+      <c r="O103">
+        <v>5.5</v>
+      </c>
+      <c r="P103">
+        <v>9</v>
+      </c>
+      <c r="Q103">
+        <v>-1.5</v>
+      </c>
+      <c r="R103">
         <v>1.8</v>
       </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>3.8</v>
-      </c>
-      <c r="Q103">
-        <v>-0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.825</v>
-      </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
+        <v>1.775</v>
+      </c>
+      <c r="V103">
         <v>2.025</v>
       </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>1.025</v>
-      </c>
-      <c r="AB103">
-        <v>0.5125</v>
-      </c>
-      <c r="AC103">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7630584</v>
+        <v>7630065</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N104">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630583</v>
+        <v>7630584</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="N105">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="Q105">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630585</v>
+        <v>7630067</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L109">
+        <v>3.5</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>2.875</v>
-      </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630067</v>
+        <v>7630066</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,55 +10228,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
+        <v>5.25</v>
+      </c>
+      <c r="L110">
+        <v>4.333</v>
+      </c>
+      <c r="M110">
+        <v>1.5</v>
+      </c>
+      <c r="N110">
+        <v>4.2</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>1.65</v>
+      </c>
+      <c r="Q110">
+        <v>0.75</v>
+      </c>
+      <c r="R110">
         <v>1.95</v>
       </c>
-      <c r="L110">
-        <v>3.5</v>
-      </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.5</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
-      <c r="P110">
-        <v>2.625</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
+      <c r="S110">
         <v>1.85</v>
       </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10285,19 +10285,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.625</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630066</v>
+        <v>7630585</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,73 +10317,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="N111">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y111">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
+        <v>0.4125</v>
+      </c>
+      <c r="AA111">
         <v>-0.5</v>
       </c>
-      <c r="AA111">
-        <v>0.425</v>
-      </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7630588</v>
+        <v>7630073</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7630073</v>
+        <v>7630074</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,19 +10762,19 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.375</v>
@@ -10786,49 +10786,49 @@
         <v>2.7</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.95</v>
+      </c>
+      <c r="V116">
         <v>1.85</v>
       </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7630074</v>
+        <v>7630588</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N117">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y117">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10945,6 +10945,15 @@
       <c r="G118" t="s">
         <v>39</v>
       </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>43</v>
+      </c>
       <c r="K118">
         <v>3</v>
       </c>
@@ -10967,33 +10976,409 @@
         <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>1.825</v>
       </c>
       <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.925</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7630589</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
+        <v>35</v>
+      </c>
+      <c r="K119">
+        <v>3.5</v>
+      </c>
+      <c r="L119">
+        <v>3.8</v>
+      </c>
+      <c r="M119">
+        <v>1.909</v>
+      </c>
+      <c r="N119">
+        <v>3.2</v>
+      </c>
+      <c r="O119">
+        <v>3.75</v>
+      </c>
+      <c r="P119">
+        <v>2</v>
+      </c>
+      <c r="Q119">
+        <v>0.5</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
+        <v>1.875</v>
+      </c>
+      <c r="W119">
         <v>0</v>
       </c>
-      <c r="X118">
+      <c r="X119">
         <v>0</v>
       </c>
-      <c r="Y118">
+      <c r="Y119">
         <v>0</v>
       </c>
-      <c r="Z118">
+      <c r="Z119">
         <v>0</v>
       </c>
-      <c r="AA118">
+      <c r="AA119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7630146</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
+        <v>33</v>
+      </c>
+      <c r="K120">
+        <v>1.95</v>
+      </c>
+      <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
+        <v>3.5</v>
+      </c>
+      <c r="N120">
+        <v>1.85</v>
+      </c>
+      <c r="O120">
+        <v>3.5</v>
+      </c>
+      <c r="P120">
+        <v>3.8</v>
+      </c>
+      <c r="Q120">
+        <v>-0.5</v>
+      </c>
+      <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
+        <v>1.875</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7630075</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F121" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" t="s">
+        <v>30</v>
+      </c>
+      <c r="K121">
+        <v>1.8</v>
+      </c>
+      <c r="L121">
+        <v>3.5</v>
+      </c>
+      <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>1.8</v>
+      </c>
+      <c r="O121">
+        <v>3.5</v>
+      </c>
+      <c r="P121">
+        <v>4.2</v>
+      </c>
+      <c r="Q121">
+        <v>-0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>1.85</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7630076</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F122" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122">
+        <v>2.5</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
+        <v>2.6</v>
+      </c>
+      <c r="N122">
+        <v>2.7</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>2.4</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>2.025</v>
+      </c>
+      <c r="S122">
+        <v>1.825</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>1.825</v>
+      </c>
+      <c r="V122">
+        <v>2.025</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7630147</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45367.6875</v>
+      </c>
+      <c r="F123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="K123">
+        <v>2.75</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>2.3</v>
+      </c>
+      <c r="N123">
+        <v>2.8</v>
+      </c>
+      <c r="O123">
+        <v>3.4</v>
+      </c>
+      <c r="P123">
+        <v>2.3</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.85</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
+        <v>1.875</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
         <v>0</v>
       </c>
     </row>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -106,13 +106,13 @@
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
-  </si>
-  <si>
     <t>Waterford FC</t>
   </si>
   <si>
     <t>Wexford FC</t>
+  </si>
+  <si>
+    <t>Bray Wanderers</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -121,10 +121,10 @@
     <t>Kerry FC</t>
   </si>
   <si>
-    <t>Cobh Ramblers</t>
+    <t>Galway United</t>
   </si>
   <si>
-    <t>Galway United</t>
+    <t>Cobh Ramblers</t>
   </si>
   <si>
     <t>Treaty United FC</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P3">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062586</v>
+        <v>6062587</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,55 +797,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062587</v>
+        <v>6062529</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,70 +889,70 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6062531</v>
+        <v>6062532</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1165,34 +1165,34 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="N8">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.571</v>
+        <v>0.125</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6062532</v>
+        <v>6062531</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1254,34 +1254,34 @@
         <v>41</v>
       </c>
       <c r="K9">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="O9">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1290,7 +1290,7 @@
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.125</v>
+        <v>0.571</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6062533</v>
+        <v>6063884</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="N12">
-        <v>1.222</v>
+        <v>9.5</v>
       </c>
       <c r="O12">
         <v>5.5</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="Q12">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
         <v>1.825</v>
       </c>
-      <c r="S12">
-        <v>1.975</v>
-      </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>0.222</v>
       </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
       <c r="Z12">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062535</v>
+        <v>6062588</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,55 +1595,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
         <v>1.825</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1652,19 +1652,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062534</v>
+        <v>6062533</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="L14">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>1.222</v>
       </c>
       <c r="O14">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.4125</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.5</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062588</v>
+        <v>6062534</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,7 +1773,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1782,46 +1782,46 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M15">
+        <v>1.4</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>5.25</v>
+      </c>
+      <c r="P15">
+        <v>1.25</v>
+      </c>
+      <c r="Q15">
+        <v>1.75</v>
+      </c>
+      <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.6</v>
-      </c>
-      <c r="O15">
-        <v>3.4</v>
-      </c>
-      <c r="P15">
-        <v>2.4</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1830,19 +1830,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6063884</v>
+        <v>6062535</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,55 +1862,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="L16">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>9.5</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
         <v>1.825</v>
       </c>
-      <c r="T16">
-        <v>3.25</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
       <c r="V16">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.222</v>
+        <v>2.8</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>1.8</v>
+      </c>
+      <c r="L17">
+        <v>3.6</v>
+      </c>
+      <c r="M17">
+        <v>3.6</v>
+      </c>
+      <c r="N17">
+        <v>1.571</v>
+      </c>
+      <c r="O17">
+        <v>3.8</v>
+      </c>
+      <c r="P17">
+        <v>4.75</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.825</v>
+      </c>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>1.1</v>
-      </c>
-      <c r="L17">
-        <v>8</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>1.062</v>
-      </c>
-      <c r="O17">
-        <v>11</v>
-      </c>
-      <c r="P17">
-        <v>29</v>
-      </c>
-      <c r="Q17">
-        <v>-2.75</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
+        <v>1.85</v>
+      </c>
+      <c r="V17">
         <v>1.95</v>
       </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>1.975</v>
-      </c>
       <c r="W17">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062590</v>
+        <v>6062536</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,10 +2043,10 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2055,34 +2055,34 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="L18">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M18">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="O18">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="P18">
-        <v>1.363</v>
+        <v>26</v>
       </c>
       <c r="Q18">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="R18">
         <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.875</v>
@@ -2091,7 +2091,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,10 +2106,10 @@
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6062536</v>
+        <v>6062590</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,10 +2132,10 @@
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2144,34 +2144,34 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="N19">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>26</v>
+        <v>1.363</v>
       </c>
       <c r="Q19">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R19">
         <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
         <v>1.875</v>
@@ -2180,7 +2180,7 @@
         <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.05000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,10 +2195,10 @@
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>1.1</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1.062</v>
+      </c>
+      <c r="O20">
+        <v>11</v>
+      </c>
+      <c r="P20">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>1.8</v>
-      </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>3.6</v>
-      </c>
-      <c r="N20">
-        <v>1.571</v>
-      </c>
-      <c r="O20">
-        <v>3.8</v>
-      </c>
-      <c r="P20">
-        <v>4.75</v>
-      </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
         <v>1.975</v>
       </c>
-      <c r="S20">
-        <v>1.825</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>1.85</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0.825</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6062593</v>
+        <v>6062592</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>1.083</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>1.062</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>26</v>
+        <v>2.875</v>
       </c>
       <c r="Q22">
-        <v>-2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
         <v>1.8</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
+        <v>1.975</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
         <v>1.875</v>
       </c>
-      <c r="W22">
-        <v>0.06200000000000006</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
         <v>0.8</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6062592</v>
+        <v>6063882</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>1.035</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>1.02</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>41</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6063882</v>
+        <v>6062593</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
         <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>1.02</v>
+        <v>1.062</v>
       </c>
       <c r="O25">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q25">
-        <v>-4.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>0.02000000000000002</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,16 +2723,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6063881</v>
+        <v>6062594</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,46 +2841,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>43</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="N27">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2898,13 +2898,13 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>0.825</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6062594</v>
+        <v>6063881</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,46 +2930,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.75</v>
@@ -2987,13 +2987,13 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>0.825</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062540</v>
+        <v>6062539</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="N29">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="Q29">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
         <v>1.85</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062539</v>
+        <v>6062540</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>1.3</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P30">
-        <v>1.3</v>
+        <v>19</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>4.25</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.875</v>
       </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.85</v>
-      </c>
-      <c r="V30">
-        <v>1.95</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,56 +3286,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
+        <v>1.4</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="N32">
-        <v>1.4</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3343,19 +3343,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,56 +3375,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L33">
+        <v>3.8</v>
+      </c>
+      <c r="M33">
         <v>4.5</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1.4</v>
       </c>
-      <c r="N33">
-        <v>8</v>
-      </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3467,7 +3467,7 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6063095</v>
+        <v>6063879</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N36">
+        <v>3.5</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>1.85</v>
+      </c>
+      <c r="Q36">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
         <v>2.5</v>
       </c>
-      <c r="O36">
-        <v>3.3</v>
-      </c>
-      <c r="P36">
-        <v>2.55</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>1.875</v>
-      </c>
-      <c r="S36">
-        <v>1.925</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
         <v>0.875</v>
       </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,10 +3731,10 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062597</v>
+        <v>6063095</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,67 +3820,67 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
+        <v>2.55</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
         <v>1.5</v>
       </c>
-      <c r="Q38">
-        <v>1.25</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
-      <c r="S38">
-        <v>2.025</v>
-      </c>
-      <c r="T38">
-        <v>3.25</v>
-      </c>
-      <c r="U38">
-        <v>1.925</v>
-      </c>
-      <c r="V38">
-        <v>1.925</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
       <c r="X38">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3889,7 +3889,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6063879</v>
+        <v>6062597</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N39">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
+        <v>2.025</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
         <v>1.925</v>
       </c>
-      <c r="S39">
-        <v>1.875</v>
-      </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.85</v>
-      </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6062547</v>
+        <v>6062598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,73 +4087,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y41">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6062598</v>
+        <v>6062547</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6062546</v>
+        <v>6063878</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,73 +4268,73 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.7</v>
+        <v>1.035</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N43">
-        <v>2.75</v>
+        <v>1.055</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P43">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6063878</v>
+        <v>6062546</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>1.035</v>
+        <v>1.7</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q44">
-        <v>-3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
+        <v>0.45</v>
+      </c>
+      <c r="AA44">
         <v>-0.5</v>
       </c>
-      <c r="AA44">
-        <v>0.475</v>
-      </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4621,7 +4621,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4710,10 +4710,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4977,7 +4977,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6062552</v>
+        <v>6062551</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,73 +5066,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
+        <v>1.85</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6062551</v>
+        <v>6062552</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,73 +5155,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
         <v>35</v>
       </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
       <c r="H53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L53">
         <v>3.2</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
+        <v>1.85</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
+        <v>0.3875</v>
+      </c>
+      <c r="AA53">
         <v>-0.5</v>
       </c>
-      <c r="R53">
-        <v>1.825</v>
-      </c>
-      <c r="S53">
-        <v>1.975</v>
-      </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>1.85</v>
-      </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.4</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
-      <c r="AA53">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6062555</v>
+        <v>6062554</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
+        <v>5.5</v>
+      </c>
+      <c r="L56">
+        <v>4.5</v>
+      </c>
+      <c r="M56">
+        <v>1.5</v>
+      </c>
+      <c r="N56">
+        <v>6.5</v>
+      </c>
+      <c r="O56">
+        <v>4.75</v>
+      </c>
+      <c r="P56">
+        <v>1.444</v>
+      </c>
+      <c r="Q56">
         <v>1.25</v>
       </c>
-      <c r="L56">
-        <v>5.75</v>
-      </c>
-      <c r="M56">
-        <v>10</v>
-      </c>
-      <c r="N56">
-        <v>1.333</v>
-      </c>
-      <c r="O56">
-        <v>5</v>
-      </c>
-      <c r="P56">
-        <v>7.5</v>
-      </c>
-      <c r="Q56">
-        <v>-1.5</v>
-      </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
         <v>3</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6062602</v>
+        <v>6062555</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="M57">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6063875</v>
+        <v>6062602</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>1.6</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>4.75</v>
+      </c>
+      <c r="N58">
+        <v>1.8</v>
+      </c>
+      <c r="O58">
+        <v>3.75</v>
+      </c>
+      <c r="P58">
+        <v>3.75</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.825</v>
+      </c>
+      <c r="S58">
+        <v>1.975</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.8</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>2.75</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58">
-        <v>1.4</v>
-      </c>
-      <c r="L58">
-        <v>4.75</v>
-      </c>
-      <c r="M58">
-        <v>6.5</v>
-      </c>
-      <c r="N58">
-        <v>1.55</v>
-      </c>
-      <c r="O58">
-        <v>4.333</v>
-      </c>
-      <c r="P58">
-        <v>4.75</v>
-      </c>
-      <c r="Q58">
-        <v>-1</v>
-      </c>
-      <c r="R58">
-        <v>1.9</v>
-      </c>
-      <c r="S58">
-        <v>1.9</v>
-      </c>
-      <c r="T58">
-        <v>3.25</v>
-      </c>
-      <c r="U58">
-        <v>2</v>
-      </c>
-      <c r="V58">
-        <v>1.8</v>
-      </c>
-      <c r="W58">
-        <v>0.55</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>1</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6062554</v>
+        <v>6063875</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,40 +5689,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M59">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N59">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
+        <v>4.333</v>
+      </c>
+      <c r="P59">
         <v>4.75</v>
       </c>
-      <c r="P59">
-        <v>1.444</v>
-      </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R59">
         <v>1.9</v>
@@ -5731,34 +5731,34 @@
         <v>1.9</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062603</v>
+        <v>6062604</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N62">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6063874</v>
+        <v>6062605</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q63">
+        <v>-0.75</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
+        <v>1.825</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>2.8</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>1</v>
       </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>0.55</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
-      <c r="AA63">
-        <v>0.925</v>
-      </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.825</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062604</v>
+        <v>6063874</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,55 +6134,55 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>43</v>
       </c>
       <c r="K64">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6191,19 +6191,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>4.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6062605</v>
+        <v>6062603</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N65">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6401,10 +6401,10 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>45178.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6288012</v>
+        <v>6288590</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
         <v>1.825</v>
       </c>
-      <c r="S72">
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>1.975</v>
       </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
+        <v>0.825</v>
+      </c>
+      <c r="AB72">
         <v>-0.5</v>
       </c>
-      <c r="AA72">
+      <c r="AC72">
         <v>0.4875</v>
-      </c>
-      <c r="AB72">
-        <v>0.875</v>
-      </c>
-      <c r="AC72">
-        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288590</v>
+        <v>6288012</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="L73">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
         <v>1.975</v>
       </c>
-      <c r="S73">
-        <v>1.825</v>
-      </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,10 +7024,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322550</v>
+        <v>6322551</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
         <v>35</v>
       </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
       <c r="H76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>1.65</v>
+        <v>23</v>
       </c>
       <c r="L76">
+        <v>9</v>
+      </c>
+      <c r="M76">
+        <v>1.09</v>
+      </c>
+      <c r="N76">
+        <v>23</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>1.071</v>
+      </c>
+      <c r="Q76">
+        <v>2.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>3.75</v>
       </c>
-      <c r="M76">
-        <v>4.75</v>
-      </c>
-      <c r="N76">
-        <v>1.666</v>
-      </c>
-      <c r="O76">
-        <v>3.75</v>
-      </c>
-      <c r="P76">
-        <v>4.333</v>
-      </c>
-      <c r="Q76">
-        <v>-0.75</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.925</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322551</v>
+        <v>6322550</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>23</v>
+        <v>1.65</v>
       </c>
       <c r="L77">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>1.09</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>23</v>
+        <v>1.666</v>
       </c>
       <c r="O77">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.875</v>
+      </c>
+      <c r="S77">
+        <v>1.925</v>
+      </c>
+      <c r="T77">
         <v>2.75</v>
       </c>
-      <c r="R77">
-        <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
-      <c r="T77">
-        <v>3.75</v>
-      </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6322553</v>
+        <v>7222986</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N78">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7222986</v>
+        <v>6322553</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79">
+        <v>2.15</v>
+      </c>
+      <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
         <v>3</v>
       </c>
-      <c r="J79" t="s">
-        <v>43</v>
-      </c>
-      <c r="K79">
-        <v>5.75</v>
-      </c>
-      <c r="L79">
-        <v>4.5</v>
-      </c>
-      <c r="M79">
-        <v>1.4</v>
-      </c>
       <c r="N79">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -7647,7 +7647,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>38</v>
@@ -7736,7 +7736,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7825,10 +7825,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7914,10 +7914,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383175</v>
+        <v>6383176</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="Q87">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383172</v>
+        <v>6383173</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L88">
         <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383173</v>
+        <v>6383172</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>3.1</v>
+      </c>
+      <c r="Q89">
+        <v>-0.25</v>
+      </c>
+      <c r="R89">
+        <v>1.775</v>
+      </c>
+      <c r="S89">
+        <v>2.025</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
         <v>1.8</v>
       </c>
-      <c r="O89">
-        <v>3.75</v>
-      </c>
-      <c r="P89">
-        <v>3.8</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6383176</v>
+        <v>6383175</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N90">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,10 +8537,10 @@
         <v>45209.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8718,7 +8718,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8982,10 +8982,10 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471668</v>
+        <v>6471669</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
         <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
         <v>1.825</v>
-      </c>
-      <c r="S97">
-        <v>1.975</v>
       </c>
       <c r="T97">
         <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X97">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471669</v>
+        <v>6471668</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
+        <v>1.825</v>
+      </c>
+      <c r="S98">
         <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
       </c>
       <c r="T98">
         <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471660</v>
+        <v>6471661</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>4.333</v>
+      </c>
+      <c r="N99">
+        <v>1.125</v>
+      </c>
+      <c r="O99">
+        <v>7</v>
+      </c>
+      <c r="P99">
+        <v>13</v>
+      </c>
+      <c r="Q99">
+        <v>-2.25</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
         <v>3.75</v>
       </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
-      <c r="N99">
-        <v>1.615</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
-      <c r="P99">
-        <v>4.5</v>
-      </c>
-      <c r="Q99">
-        <v>-1</v>
-      </c>
-      <c r="R99">
-        <v>2</v>
-      </c>
-      <c r="S99">
-        <v>1.8</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>33</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471661</v>
+        <v>6471660</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
+        <v>1.727</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
         <v>1.615</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>4</v>
       </c>
-      <c r="M101">
-        <v>4.333</v>
-      </c>
-      <c r="N101">
-        <v>1.125</v>
-      </c>
-      <c r="O101">
-        <v>7</v>
-      </c>
       <c r="P101">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,10 +9516,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630583</v>
+        <v>7630582</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,13 +9605,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9620,43 +9620,43 @@
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.125</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.2849999999999999</v>
+        <v>2</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9786,7 +9786,7 @@
         <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630582</v>
+        <v>7630583</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9887,43 +9887,43 @@
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.95</v>
+        <v>1.125</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P106">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W106">
-        <v>2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630141</v>
+        <v>7630066</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630067</v>
+        <v>7630141</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L109">
+        <v>3.3</v>
+      </c>
+      <c r="M109">
+        <v>2.55</v>
+      </c>
+      <c r="N109">
+        <v>3.3</v>
+      </c>
+      <c r="O109">
         <v>3.5</v>
       </c>
-      <c r="M109">
-        <v>3.4</v>
-      </c>
-      <c r="N109">
-        <v>2.5</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y109">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630066</v>
+        <v>7630067</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,55 +10228,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10285,19 +10285,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6499999999999999</v>
+        <v>1.625</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7630143</v>
+        <v>7630069</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,13 +10495,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -10510,43 +10510,43 @@
         <v>41</v>
       </c>
       <c r="K113">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10555,16 +10555,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7630069</v>
+        <v>7630143</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,13 +10584,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10599,43 +10599,43 @@
         <v>41</v>
       </c>
       <c r="K114">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L114">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.5329999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10676,7 +10676,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7630074</v>
+        <v>7630588</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M116">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y116">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7630588</v>
+        <v>7630074</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N117">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7630589</v>
+        <v>7630146</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,61 +11029,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>43</v>
       </c>
       <c r="K119">
+        <v>1.95</v>
+      </c>
+      <c r="L119">
         <v>3.5</v>
       </c>
-      <c r="L119">
+      <c r="M119">
+        <v>3.5</v>
+      </c>
+      <c r="N119">
+        <v>1.85</v>
+      </c>
+      <c r="O119">
+        <v>3.5</v>
+      </c>
+      <c r="P119">
         <v>3.8</v>
       </c>
-      <c r="M119">
-        <v>1.909</v>
-      </c>
-      <c r="N119">
-        <v>3.2</v>
-      </c>
-      <c r="O119">
-        <v>3.75</v>
-      </c>
-      <c r="P119">
-        <v>2</v>
-      </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB119">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC119">
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11091,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7630146</v>
+        <v>7630076</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11103,61 +11118,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
       </c>
       <c r="K120">
+        <v>2.5</v>
+      </c>
+      <c r="L120">
+        <v>3.3</v>
+      </c>
+      <c r="M120">
+        <v>2.6</v>
+      </c>
+      <c r="N120">
+        <v>2.625</v>
+      </c>
+      <c r="O120">
+        <v>3.25</v>
+      </c>
+      <c r="P120">
+        <v>2.45</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
         <v>1.95</v>
       </c>
-      <c r="L120">
-        <v>3.5</v>
-      </c>
-      <c r="M120">
-        <v>3.5</v>
-      </c>
-      <c r="N120">
+      <c r="S120">
         <v>1.85</v>
       </c>
-      <c r="O120">
-        <v>3.5</v>
-      </c>
-      <c r="P120">
-        <v>3.8</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.9</v>
-      </c>
-      <c r="S120">
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>0.95</v>
+      </c>
+      <c r="AC120">
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11180,7 +11210,16 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>41</v>
       </c>
       <c r="K121">
         <v>1.8</v>
@@ -11192,25 +11231,25 @@
         <v>4.2</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>2</v>
@@ -11219,19 +11258,25 @@
         <v>1.85</v>
       </c>
       <c r="W121">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11239,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7630076</v>
+        <v>7630589</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11251,135 +11296,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>7630147</v>
-      </c>
-      <c r="C123" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="2">
-        <v>45367.6875</v>
-      </c>
-      <c r="F123" t="s">
-        <v>38</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
-      </c>
-      <c r="K123">
-        <v>2.75</v>
-      </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>2.3</v>
-      </c>
-      <c r="N123">
-        <v>2.8</v>
-      </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
-      <c r="P123">
-        <v>2.3</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.85</v>
-      </c>
-      <c r="S123">
-        <v>2</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-      <c r="Z123">
-        <v>0</v>
-      </c>
-      <c r="AA123">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Waterford FC</t>
   </si>
   <si>
-    <t>Wexford FC</t>
+    <t>Bray Wanderers</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
+    <t>Wexford FC</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062587</v>
+        <v>6062529</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062529</v>
+        <v>6062587</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6063094</v>
+        <v>6062530</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,40 +1328,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O10">
         <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1373,31 +1373,31 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6062530</v>
+        <v>6063094</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,40 +1417,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
         <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1462,31 +1462,31 @@
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6063884</v>
+        <v>6062534</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,16 +1506,16 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
@@ -1530,32 +1530,32 @@
         <v>1.4</v>
       </c>
       <c r="N12">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="Q12">
         <v>1.75</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
         <v>1.8</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
@@ -1563,19 +1563,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062588</v>
+        <v>6062533</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>1.222</v>
+      </c>
+      <c r="O13">
+        <v>5.5</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>-1.75</v>
+      </c>
+      <c r="R13">
+        <v>1.825</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
         <v>3</v>
       </c>
-      <c r="N13">
-        <v>2.6</v>
-      </c>
-      <c r="O13">
-        <v>3.4</v>
-      </c>
-      <c r="P13">
-        <v>2.4</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1.975</v>
-      </c>
-      <c r="S13">
-        <v>1.825</v>
-      </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062533</v>
+        <v>6062588</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
         <v>1.825</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.775</v>
-      </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
       <c r="W14">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z14">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062534</v>
+        <v>6063884</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,16 +1773,16 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
@@ -1797,31 +1797,31 @@
         <v>1.4</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O15">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P15">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="Q15">
         <v>1.75</v>
       </c>
       <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1830,19 +1830,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062589</v>
+        <v>6062536</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N17">
-        <v>1.571</v>
+        <v>1.05</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>26</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062536</v>
+        <v>6062589</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>1.05</v>
+        <v>1.571</v>
       </c>
       <c r="O18">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>26</v>
+        <v>4.75</v>
       </c>
       <c r="Q18">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.825</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>1.85</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>3.5</v>
-      </c>
-      <c r="U18">
-        <v>1.875</v>
-      </c>
-      <c r="V18">
-        <v>1.925</v>
-      </c>
       <c r="W18">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.825</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.95</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>0.875</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6062592</v>
+        <v>6063882</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>1.035</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N22">
-        <v>2.25</v>
+        <v>1.02</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6063882</v>
+        <v>6062592</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.035</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.02</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>21</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>41</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
-        <v>-4.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6062594</v>
+        <v>6062540</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>1.1</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>1.083</v>
+      </c>
+      <c r="O27">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>19</v>
+      </c>
+      <c r="Q27">
+        <v>-3</v>
+      </c>
+      <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>4.25</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
+        <v>1.875</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27">
-        <v>2.2</v>
-      </c>
-      <c r="L27">
-        <v>3.4</v>
-      </c>
-      <c r="M27">
-        <v>2.875</v>
-      </c>
-      <c r="N27">
-        <v>3.1</v>
-      </c>
-      <c r="O27">
-        <v>3.3</v>
-      </c>
-      <c r="P27">
-        <v>2.1</v>
-      </c>
-      <c r="Q27">
-        <v>0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.875</v>
-      </c>
-      <c r="S27">
-        <v>1.925</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.825</v>
-      </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>1.1</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
-      <c r="AA27">
-        <v>0.925</v>
-      </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062539</v>
+        <v>6062594</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
         <v>1.875</v>
@@ -3064,31 +3064,31 @@
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062540</v>
+        <v>6062539</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="N30">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="Q30">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
         <v>1.85</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>4.25</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3375,10 +3375,10 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
         <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6063879</v>
+        <v>6062544</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P36">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>-1.75</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1.95</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
-      <c r="V36">
-        <v>1.95</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6062544</v>
+        <v>6062597</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>1.333</v>
       </c>
       <c r="N37">
+        <v>5.25</v>
+      </c>
+      <c r="O37">
+        <v>4.333</v>
+      </c>
+      <c r="P37">
+        <v>1.5</v>
+      </c>
+      <c r="Q37">
         <v>1.25</v>
       </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>-1.75</v>
-      </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6063095</v>
+        <v>6063879</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N38">
+        <v>3.5</v>
+      </c>
+      <c r="O38">
+        <v>3.75</v>
+      </c>
+      <c r="P38">
+        <v>1.85</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
+        <v>1.925</v>
+      </c>
+      <c r="S38">
+        <v>1.875</v>
+      </c>
+      <c r="T38">
         <v>2.5</v>
       </c>
-      <c r="O38">
-        <v>3.3</v>
-      </c>
-      <c r="P38">
-        <v>2.55</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>1.875</v>
-      </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
         <v>0.875</v>
       </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6062597</v>
+        <v>6063095</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,67 +3909,67 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
+        <v>2.55</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
+        <v>1.925</v>
+      </c>
+      <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>1.8</v>
+      </c>
+      <c r="W39">
         <v>1.5</v>
       </c>
-      <c r="Q39">
-        <v>1.25</v>
-      </c>
-      <c r="R39">
-        <v>1.825</v>
-      </c>
-      <c r="S39">
-        <v>2.025</v>
-      </c>
-      <c r="T39">
-        <v>3.25</v>
-      </c>
-      <c r="U39">
-        <v>1.925</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
       <c r="X39">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3978,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6062598</v>
+        <v>6063878</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,49 +4087,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>1.035</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>3.4</v>
+        <v>51</v>
       </c>
       <c r="N41">
-        <v>1.666</v>
+        <v>1.055</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U41">
         <v>1.825</v>
@@ -4138,25 +4138,25 @@
         <v>1.975</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X41">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6062547</v>
+        <v>6062598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O42">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y42">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6063878</v>
+        <v>6062546</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.035</v>
+        <v>1.7</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="O43">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q43">
-        <v>-3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.45</v>
+      </c>
+      <c r="AA43">
         <v>-0.5</v>
       </c>
-      <c r="AA43">
-        <v>0.475</v>
-      </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6062546</v>
+        <v>6062547</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,73 +4354,73 @@
         <v>45142.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
         <v>4</v>
       </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4710,7 +4710,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
+        <v>1.444</v>
+      </c>
+      <c r="N49">
+        <v>5.75</v>
+      </c>
+      <c r="O49">
         <v>4.5</v>
       </c>
-      <c r="N49">
-        <v>1.5</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
       <c r="P49">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N50">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.8</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6063876</v>
+        <v>6062551</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,61 +4977,61 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
         <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N51">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6062551</v>
+        <v>6063876</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,61 +5066,61 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52">
+        <v>1.285</v>
+      </c>
+      <c r="L52">
+        <v>5.5</v>
+      </c>
+      <c r="M52">
+        <v>6.5</v>
+      </c>
+      <c r="N52">
+        <v>1.2</v>
+      </c>
+      <c r="O52">
+        <v>6.5</v>
+      </c>
+      <c r="P52">
+        <v>8</v>
+      </c>
+      <c r="Q52">
+        <v>-1.75</v>
+      </c>
+      <c r="R52">
+        <v>1.8</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="J52" t="s">
-        <v>42</v>
-      </c>
-      <c r="K52">
-        <v>2.25</v>
-      </c>
-      <c r="L52">
-        <v>3.2</v>
-      </c>
-      <c r="M52">
-        <v>2.8</v>
-      </c>
-      <c r="N52">
-        <v>1.75</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>4</v>
-      </c>
-      <c r="Q52">
-        <v>-0.5</v>
-      </c>
-      <c r="R52">
+      <c r="U52">
         <v>1.825</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>1.975</v>
       </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
-      <c r="V52">
-        <v>1.95</v>
-      </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5129,10 +5129,10 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6062555</v>
+        <v>6063875</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,13 +5511,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5526,43 +5526,43 @@
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="M57">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N57">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,13 +5571,13 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062602</v>
+        <v>6062555</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="M58">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="N58">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6063875</v>
+        <v>6062602</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59">
+        <v>1.6</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>4.75</v>
+      </c>
+      <c r="N59">
+        <v>1.8</v>
+      </c>
+      <c r="O59">
+        <v>3.75</v>
+      </c>
+      <c r="P59">
+        <v>3.75</v>
+      </c>
+      <c r="Q59">
+        <v>-0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.825</v>
+      </c>
+      <c r="S59">
+        <v>1.975</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
+        <v>1.8</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>2.75</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59">
-        <v>1.4</v>
-      </c>
-      <c r="L59">
-        <v>4.75</v>
-      </c>
-      <c r="M59">
-        <v>6.5</v>
-      </c>
-      <c r="N59">
-        <v>1.55</v>
-      </c>
-      <c r="O59">
-        <v>4.333</v>
-      </c>
-      <c r="P59">
-        <v>4.75</v>
-      </c>
-      <c r="Q59">
-        <v>-1</v>
-      </c>
-      <c r="R59">
-        <v>1.9</v>
-      </c>
-      <c r="S59">
-        <v>1.9</v>
-      </c>
-      <c r="T59">
-        <v>3.25</v>
-      </c>
-      <c r="U59">
-        <v>2</v>
-      </c>
-      <c r="V59">
-        <v>1.8</v>
-      </c>
-      <c r="W59">
-        <v>0.55</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062604</v>
+        <v>6063874</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,55 +5956,55 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
         <v>43</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L62">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M62">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6013,19 +6013,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>4.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6062605</v>
+        <v>6062604</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
+        <v>6.5</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
+      </c>
+      <c r="O63">
         <v>4.2</v>
       </c>
-      <c r="N63">
-        <v>1.6</v>
-      </c>
-      <c r="O63">
-        <v>3.8</v>
-      </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R63">
         <v>1.8</v>
@@ -6087,22 +6087,22 @@
         <v>2</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6063874</v>
+        <v>6062605</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="L64">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M64">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.975</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.8</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>1</v>
       </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
-      <c r="T64">
-        <v>3</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>0.55</v>
-      </c>
-      <c r="Z64">
-        <v>-1</v>
-      </c>
-      <c r="AA64">
-        <v>0.925</v>
-      </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.825</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6063096</v>
+        <v>6063873</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,49 +6490,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
         <v>1.8</v>
       </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6544,22 +6544,22 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6063873</v>
+        <v>6063096</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,49 +6579,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N69">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
         <v>2</v>
@@ -6633,22 +6633,22 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
         <v>1</v>
       </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6288590</v>
+        <v>6287998</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="L72">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O72">
+        <v>4.75</v>
+      </c>
+      <c r="P72">
         <v>6</v>
       </c>
-      <c r="P72">
-        <v>10</v>
-      </c>
       <c r="Q72">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288012</v>
+        <v>6288590</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
         <v>1.825</v>
       </c>
-      <c r="S73">
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>1.975</v>
       </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.825</v>
+      </c>
+      <c r="AB73">
         <v>-0.5</v>
       </c>
-      <c r="AA73">
+      <c r="AC73">
         <v>0.4875</v>
-      </c>
-      <c r="AB73">
-        <v>0.875</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6287998</v>
+        <v>6288012</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y74">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6322552</v>
+        <v>6322550</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7128,43 +7128,43 @@
         <v>41</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
         <v>1.825</v>
       </c>
-      <c r="S75">
-        <v>2.025</v>
-      </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
-      <c r="U75">
-        <v>2</v>
-      </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.875</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,13 +7173,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
+        <v>0.875</v>
+      </c>
+      <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
         <v>0.825</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>1</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322551</v>
+        <v>6322553</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>23</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>23</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>1.071</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322550</v>
+        <v>6322552</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,13 +7291,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7306,44 +7306,44 @@
         <v>41</v>
       </c>
       <c r="K77">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
+        <v>2.025</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>1.85</v>
+      </c>
+      <c r="W77">
         <v>1.875</v>
       </c>
-      <c r="S77">
-        <v>1.925</v>
-      </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
-      <c r="U77">
-        <v>1.825</v>
-      </c>
-      <c r="V77">
-        <v>1.975</v>
-      </c>
-      <c r="W77">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="X77">
         <v>-1</v>
       </c>
@@ -7351,13 +7351,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6322553</v>
+        <v>6322551</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.15</v>
+        <v>23</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1.09</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>23</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.071</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>2.75</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,13 +7558,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7573,34 +7573,34 @@
         <v>41</v>
       </c>
       <c r="K80">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7609,7 +7609,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7618,10 +7618,10 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7662,34 +7662,34 @@
         <v>41</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
         <v>1.85</v>
@@ -7698,7 +7698,7 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7707,10 +7707,10 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7828,7 +7828,7 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383176</v>
+        <v>6383172</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L87">
+        <v>3.75</v>
+      </c>
+      <c r="M87">
         <v>3.5</v>
       </c>
-      <c r="M87">
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
         <v>3.6</v>
       </c>
-      <c r="N87">
-        <v>1.6</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
       <c r="P87">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383172</v>
+        <v>6383175</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,55 +8359,55 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>43</v>
       </c>
       <c r="K89">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M89">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R89">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8416,19 +8416,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.1</v>
+        <v>0.363</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA89">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6383175</v>
+        <v>6383176</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L90">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8982,7 +8982,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471669</v>
+        <v>6471667</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N97">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471667</v>
+        <v>6471660</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,61 +9338,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>4.75</v>
-      </c>
       <c r="N100">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
         <v>-1</v>
       </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
         <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
       </c>
       <c r="T100">
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9401,13 +9401,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471660</v>
+        <v>6471669</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,49 +9427,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>7</v>
+      </c>
+      <c r="N101">
+        <v>1.75</v>
+      </c>
+      <c r="O101">
+        <v>3.8</v>
+      </c>
+      <c r="P101">
         <v>3.75</v>
       </c>
-      <c r="M101">
-        <v>4</v>
-      </c>
-      <c r="N101">
-        <v>1.615</v>
-      </c>
-      <c r="O101">
-        <v>4</v>
-      </c>
-      <c r="P101">
-        <v>4.5</v>
-      </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
         <v>1.8</v>
@@ -9478,19 +9478,19 @@
         <v>2</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630582</v>
+        <v>7630584</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
         <v>3.3</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7630065</v>
+        <v>7630583</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M104">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="N104">
+        <v>1.285</v>
+      </c>
+      <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <v>-1.5</v>
+      </c>
+      <c r="R104">
         <v>1.8</v>
       </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
-      <c r="P104">
-        <v>3.8</v>
-      </c>
-      <c r="Q104">
-        <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
         <v>2.025</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>1.025</v>
-      </c>
-      <c r="AB104">
-        <v>0.5125</v>
-      </c>
-      <c r="AC104">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630584</v>
+        <v>7630582</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O105">
         <v>3.3</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630583</v>
+        <v>7630065</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="L106">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>15</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC106">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630066</v>
+        <v>7630067</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,55 +10050,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10107,19 +10107,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.6499999999999999</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630141</v>
+        <v>7630066</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="L109">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="N109">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630067</v>
+        <v>7630141</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>2.55</v>
+      </c>
+      <c r="N110">
+        <v>3.3</v>
+      </c>
+      <c r="O110">
         <v>3.5</v>
       </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.5</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7630073</v>
+        <v>7630588</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
       </c>
       <c r="K115">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7630588</v>
+        <v>7630074</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N116">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7630074</v>
+        <v>7630073</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,19 +10851,19 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>2.375</v>
@@ -10875,49 +10875,49 @@
         <v>2.7</v>
       </c>
       <c r="N117">
+        <v>2.5</v>
+      </c>
+      <c r="O117">
+        <v>3.3</v>
+      </c>
+      <c r="P117">
         <v>2.55</v>
-      </c>
-      <c r="O117">
-        <v>3.2</v>
-      </c>
-      <c r="P117">
-        <v>2.625</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y117">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7630146</v>
+        <v>7630589</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
+        <v>3.5</v>
+      </c>
+      <c r="L119">
+        <v>3.8</v>
+      </c>
+      <c r="M119">
+        <v>1.909</v>
+      </c>
+      <c r="N119">
+        <v>2.9</v>
+      </c>
+      <c r="O119">
+        <v>3.8</v>
+      </c>
+      <c r="P119">
+        <v>2.2</v>
+      </c>
+      <c r="Q119">
+        <v>0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
+        <v>1.925</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="L119">
-        <v>3.5</v>
-      </c>
-      <c r="M119">
-        <v>3.5</v>
-      </c>
-      <c r="N119">
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="O119">
-        <v>3.5</v>
-      </c>
-      <c r="P119">
-        <v>3.8</v>
-      </c>
-      <c r="Q119">
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>2.8</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.4375</v>
+      </c>
+      <c r="AA119">
         <v>-0.5</v>
       </c>
-      <c r="R119">
-        <v>1.9</v>
-      </c>
-      <c r="S119">
-        <v>1.9</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>2.8</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7630076</v>
+        <v>7630146</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L120">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11210,7 +11210,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7630589</v>
+        <v>7630076</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K122">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L122">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N122">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
         <v>1.95</v>
@@ -11347,25 +11347,929 @@
         <v>1.85</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>0.95</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7630149</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45373.69791666666</v>
+      </c>
+      <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
+      </c>
+      <c r="K123">
+        <v>1.615</v>
+      </c>
+      <c r="L123">
+        <v>3.75</v>
+      </c>
+      <c r="M123">
+        <v>4.5</v>
+      </c>
+      <c r="N123">
+        <v>1.6</v>
+      </c>
+      <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
+        <v>5</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.775</v>
+      </c>
+      <c r="S123">
+        <v>2.025</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>2.75</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>1.025</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7630590</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45373.69791666666</v>
+      </c>
+      <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s">
+        <v>39</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>42</v>
+      </c>
+      <c r="K124">
+        <v>4.333</v>
+      </c>
+      <c r="L124">
+        <v>3.7</v>
+      </c>
+      <c r="M124">
+        <v>1.666</v>
+      </c>
+      <c r="N124">
+        <v>4.2</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
+        <v>1.727</v>
+      </c>
+      <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>1.8</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.6</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.8</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7630148</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45373.69791666666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>38</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125" t="s">
+        <v>42</v>
+      </c>
+      <c r="K125">
+        <v>1.95</v>
+      </c>
+      <c r="L125">
+        <v>3.4</v>
+      </c>
+      <c r="M125">
+        <v>3.5</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>2.2</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.775</v>
+      </c>
+      <c r="V125">
+        <v>2.025</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.4</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
-      <c r="AC122">
-        <v>0.8500000000000001</v>
+      <c r="AB125">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7630077</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45373.69791666666</v>
+      </c>
+      <c r="F126" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126" t="s">
+        <v>43</v>
+      </c>
+      <c r="K126">
+        <v>2.2</v>
+      </c>
+      <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>2.9</v>
+      </c>
+      <c r="O126">
+        <v>3.3</v>
+      </c>
+      <c r="P126">
+        <v>2.25</v>
+      </c>
+      <c r="Q126">
+        <v>0.25</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>1.9</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>1.25</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.95</v>
+      </c>
+      <c r="AB126">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7630078</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45373.69791666666</v>
+      </c>
+      <c r="F127" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" t="s">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127" t="s">
+        <v>43</v>
+      </c>
+      <c r="K127">
+        <v>2.3</v>
+      </c>
+      <c r="L127">
+        <v>3.2</v>
+      </c>
+      <c r="M127">
+        <v>2.7</v>
+      </c>
+      <c r="N127">
+        <v>2.45</v>
+      </c>
+      <c r="O127">
+        <v>3.1</v>
+      </c>
+      <c r="P127">
+        <v>2.625</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>1.8</v>
+      </c>
+      <c r="S127">
+        <v>2.05</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.875</v>
+      </c>
+      <c r="V127">
+        <v>1.975</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>1.625</v>
+      </c>
+      <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
+        <v>1.05</v>
+      </c>
+      <c r="AB127">
+        <v>0.875</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>8005335</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45376.69791666666</v>
+      </c>
+      <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>38</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>42</v>
+      </c>
+      <c r="K128">
+        <v>1.869</v>
+      </c>
+      <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>3.4</v>
+      </c>
+      <c r="N128">
+        <v>2.5</v>
+      </c>
+      <c r="O128">
+        <v>3.2</v>
+      </c>
+      <c r="P128">
+        <v>2.5</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>1.8</v>
+      </c>
+      <c r="V128">
+        <v>2</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>2.2</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>-0</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7630591</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F129" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129">
+        <v>1.4</v>
+      </c>
+      <c r="L129">
+        <v>4.2</v>
+      </c>
+      <c r="M129">
+        <v>6.5</v>
+      </c>
+      <c r="N129">
+        <v>1.444</v>
+      </c>
+      <c r="O129">
+        <v>4</v>
+      </c>
+      <c r="P129">
+        <v>6.5</v>
+      </c>
+      <c r="Q129">
+        <v>-1.25</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7630150</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
+        <v>33</v>
+      </c>
+      <c r="K130">
+        <v>1.95</v>
+      </c>
+      <c r="L130">
+        <v>3.5</v>
+      </c>
+      <c r="M130">
+        <v>3.3</v>
+      </c>
+      <c r="N130">
+        <v>1.95</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>3.3</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
+        <v>1.825</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7630080</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>40</v>
+      </c>
+      <c r="K131">
+        <v>2.375</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>2.625</v>
+      </c>
+      <c r="N131">
+        <v>2.6</v>
+      </c>
+      <c r="O131">
+        <v>3.3</v>
+      </c>
+      <c r="P131">
+        <v>2.45</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1.975</v>
+      </c>
+      <c r="S131">
+        <v>1.875</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.875</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7630079</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+      <c r="K132">
+        <v>1.833</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>3.6</v>
+      </c>
+      <c r="N132">
+        <v>1.833</v>
+      </c>
+      <c r="O132">
+        <v>3.5</v>
+      </c>
+      <c r="P132">
+        <v>3.6</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>1.975</v>
+      </c>
+      <c r="T132">
+        <v>2.75</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7630592</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
+      <c r="K133">
+        <v>4</v>
+      </c>
+      <c r="L133">
+        <v>3.6</v>
+      </c>
+      <c r="M133">
+        <v>1.75</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133">
+        <v>3.6</v>
+      </c>
+      <c r="P133">
+        <v>1.75</v>
+      </c>
+      <c r="Q133">
+        <v>0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
+        <v>1.85</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -106,10 +106,10 @@
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Waterford FC</t>
+    <t>Bray Wanderers</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
+    <t>Waterford FC</t>
   </si>
   <si>
     <t>Wexford FC</t>
@@ -121,10 +121,10 @@
     <t>Kerry FC</t>
   </si>
   <si>
-    <t>Galway United</t>
+    <t>Cobh Ramblers</t>
   </si>
   <si>
-    <t>Cobh Ramblers</t>
+    <t>Galway United</t>
   </si>
   <si>
     <t>Treaty United FC</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062586</v>
+        <v>6062529</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
+        <v>3.8</v>
+      </c>
+      <c r="M3">
+        <v>1.6</v>
+      </c>
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>1.2</v>
-      </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6062532</v>
+        <v>6062531</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1165,34 +1165,34 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="O8">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.125</v>
+        <v>0.571</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6062531</v>
+        <v>6062532</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1254,34 +1254,34 @@
         <v>41</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="N9">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1290,7 +1290,7 @@
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.571</v>
+        <v>0.125</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1509,7 +1509,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062533</v>
+        <v>6062535</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,73 +1595,73 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N13">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="Q13">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
+        <v>1.925</v>
+      </c>
+      <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>2.25</v>
+      </c>
+      <c r="U13">
         <v>1.825</v>
-      </c>
-      <c r="S13">
-        <v>1.975</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.775</v>
       </c>
       <c r="V13">
         <v>2.025</v>
       </c>
       <c r="W13">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z13">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062588</v>
+        <v>6062533</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>1.222</v>
+      </c>
+      <c r="O14">
+        <v>5.5</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>-1.75</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>2.6</v>
-      </c>
-      <c r="O14">
-        <v>3.4</v>
-      </c>
-      <c r="P14">
-        <v>2.4</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6062535</v>
+        <v>6062588</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,55 +1862,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.825</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>1.1</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>1.062</v>
+      </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>1.8</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.6</v>
-      </c>
-      <c r="N18">
-        <v>1.571</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
-      <c r="P18">
-        <v>4.75</v>
-      </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
+        <v>3.25</v>
+      </c>
+      <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0.825</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,10 +2129,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>1.8</v>
+      </c>
+      <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>3.6</v>
+      </c>
+      <c r="N20">
+        <v>1.571</v>
+      </c>
+      <c r="O20">
+        <v>3.8</v>
+      </c>
+      <c r="P20">
+        <v>4.75</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
+        <v>1.825</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>1.1</v>
-      </c>
-      <c r="L20">
-        <v>8</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>1.062</v>
-      </c>
-      <c r="O20">
-        <v>11</v>
-      </c>
-      <c r="P20">
-        <v>29</v>
-      </c>
-      <c r="Q20">
-        <v>-2.75</v>
-      </c>
-      <c r="R20">
+      <c r="U20">
+        <v>1.85</v>
+      </c>
+      <c r="V20">
         <v>1.95</v>
       </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
-      <c r="U20">
-        <v>1.825</v>
-      </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
       <c r="W20">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6063882</v>
+        <v>6062537</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.035</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="O22">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>-4.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6062537</v>
+        <v>6062592</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,43 +2485,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>3.6</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="N23">
+        <v>2.25</v>
+      </c>
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>2.15</v>
-      </c>
-      <c r="N23">
-        <v>3.25</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
       <c r="P23">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>1.8</v>
@@ -2530,31 +2530,31 @@
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6062592</v>
+        <v>6063882</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>1.035</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>1.02</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>41</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -2841,7 +2841,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>38</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062594</v>
+        <v>6062539</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="N29">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
         <v>1.875</v>
@@ -3064,31 +3064,31 @@
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y29">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062539</v>
+        <v>6062594</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
         <v>1.875</v>
@@ -3153,31 +3153,31 @@
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3467,7 +3467,7 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6062544</v>
+        <v>6062597</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>1.333</v>
       </c>
       <c r="N36">
+        <v>5.25</v>
+      </c>
+      <c r="O36">
+        <v>4.333</v>
+      </c>
+      <c r="P36">
+        <v>1.5</v>
+      </c>
+      <c r="Q36">
         <v>1.25</v>
       </c>
-      <c r="O36">
-        <v>6</v>
-      </c>
-      <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
-        <v>-1.75</v>
-      </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6062597</v>
+        <v>6063095</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,67 +3731,67 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
+        <v>2.55</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>1.8</v>
+      </c>
+      <c r="W37">
         <v>1.5</v>
       </c>
-      <c r="Q37">
-        <v>1.25</v>
-      </c>
-      <c r="R37">
-        <v>1.825</v>
-      </c>
-      <c r="S37">
-        <v>2.025</v>
-      </c>
-      <c r="T37">
-        <v>3.25</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.925</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
       <c r="X37">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3800,7 +3800,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6063095</v>
+        <v>6062544</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,13 +3909,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3924,61 +3924,61 @@
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>1.25</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>-1.75</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>2.5</v>
-      </c>
-      <c r="O39">
-        <v>3.3</v>
-      </c>
-      <c r="P39">
-        <v>2.55</v>
-      </c>
-      <c r="Q39">
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>1.85</v>
+      </c>
+      <c r="W39">
+        <v>0.25</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0</v>
       </c>
-      <c r="R39">
-        <v>1.875</v>
-      </c>
-      <c r="S39">
-        <v>1.925</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>1.8</v>
-      </c>
-      <c r="W39">
-        <v>1.5</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>0.875</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6063878</v>
+        <v>6062598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,49 +4087,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.035</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>1.055</v>
+        <v>1.666</v>
       </c>
       <c r="O41">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q41">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
         <v>1.825</v>
@@ -4138,25 +4138,25 @@
         <v>1.975</v>
       </c>
       <c r="W41">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6062598</v>
+        <v>6062546</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,10 +4176,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4191,25 +4191,25 @@
         <v>42</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O42">
         <v>3.75</v>
       </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4218,13 +4218,13 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4236,13 +4236,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6062546</v>
+        <v>6063878</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,73 +4268,73 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.7</v>
+        <v>1.035</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N43">
-        <v>2.75</v>
+        <v>1.055</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P43">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4621,7 +4621,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4713,7 +4713,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M50">
+        <v>1.444</v>
+      </c>
+      <c r="N50">
+        <v>5.75</v>
+      </c>
+      <c r="O50">
         <v>4.5</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
       <c r="P50">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4977,10 +4977,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6063876</v>
+        <v>6062552</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,73 +5066,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52">
+        <v>2.4</v>
+      </c>
+      <c r="L52">
+        <v>3.2</v>
+      </c>
+      <c r="M52">
+        <v>2.6</v>
+      </c>
+      <c r="N52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52">
-        <v>1.285</v>
-      </c>
-      <c r="L52">
-        <v>5.5</v>
-      </c>
-      <c r="M52">
-        <v>6.5</v>
-      </c>
-      <c r="N52">
-        <v>1.2</v>
-      </c>
       <c r="O52">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6062552</v>
+        <v>6063876</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,73 +5155,73 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M53">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
+        <v>1.2</v>
+      </c>
+      <c r="O53">
+        <v>6.5</v>
+      </c>
+      <c r="P53">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <v>-1.75</v>
+      </c>
+      <c r="R53">
+        <v>1.8</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
         <v>3</v>
       </c>
-      <c r="O53">
-        <v>3</v>
-      </c>
-      <c r="P53">
-        <v>2.25</v>
-      </c>
-      <c r="Q53">
-        <v>0.25</v>
-      </c>
-      <c r="R53">
-        <v>1.775</v>
-      </c>
-      <c r="S53">
-        <v>2.025</v>
-      </c>
-      <c r="T53">
-        <v>2.25</v>
-      </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6062554</v>
+        <v>6063875</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,40 +5422,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M56">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N56">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O56">
+        <v>4.333</v>
+      </c>
+      <c r="P56">
         <v>4.75</v>
       </c>
-      <c r="P56">
-        <v>1.444</v>
-      </c>
       <c r="Q56">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R56">
         <v>1.9</v>
@@ -5464,34 +5464,34 @@
         <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6063875</v>
+        <v>6062555</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,13 +5511,13 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5526,43 +5526,43 @@
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M57">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O57">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,13 +5571,13 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062555</v>
+        <v>6062602</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>1.6</v>
+      </c>
+      <c r="L58">
         <v>4</v>
       </c>
-      <c r="I58">
+      <c r="M58">
+        <v>4.75</v>
+      </c>
+      <c r="N58">
+        <v>1.8</v>
+      </c>
+      <c r="O58">
+        <v>3.75</v>
+      </c>
+      <c r="P58">
+        <v>3.75</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.825</v>
+      </c>
+      <c r="S58">
+        <v>1.975</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.8</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>2.75</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58">
-        <v>1.25</v>
-      </c>
-      <c r="L58">
-        <v>5.75</v>
-      </c>
-      <c r="M58">
-        <v>10</v>
-      </c>
-      <c r="N58">
-        <v>1.333</v>
-      </c>
-      <c r="O58">
-        <v>5</v>
-      </c>
-      <c r="P58">
-        <v>7.5</v>
-      </c>
-      <c r="Q58">
-        <v>-1.5</v>
-      </c>
-      <c r="R58">
-        <v>1.925</v>
-      </c>
-      <c r="S58">
-        <v>1.875</v>
-      </c>
-      <c r="T58">
-        <v>3</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
-      <c r="W58">
-        <v>0.333</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>0.925</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6062602</v>
+        <v>6062554</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>43</v>
       </c>
       <c r="K59">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
+        <v>1.5</v>
+      </c>
+      <c r="N59">
+        <v>6.5</v>
+      </c>
+      <c r="O59">
         <v>4.75</v>
       </c>
-      <c r="N59">
-        <v>1.8</v>
-      </c>
-      <c r="O59">
-        <v>3.75</v>
-      </c>
       <c r="P59">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q59">
+        <v>1.25</v>
+      </c>
+      <c r="R59">
+        <v>1.9</v>
+      </c>
+      <c r="S59">
+        <v>1.9</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>1.775</v>
+      </c>
+      <c r="V59">
+        <v>2.025</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>0.444</v>
+      </c>
+      <c r="Z59">
+        <v>0.45</v>
+      </c>
+      <c r="AA59">
         <v>-0.5</v>
       </c>
-      <c r="R59">
-        <v>1.825</v>
-      </c>
-      <c r="S59">
-        <v>1.975</v>
-      </c>
-      <c r="T59">
-        <v>2.75</v>
-      </c>
-      <c r="U59">
-        <v>1.8</v>
-      </c>
-      <c r="V59">
-        <v>2</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>2.75</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6063874</v>
+        <v>6062603</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062605</v>
+        <v>6063874</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64">
+        <v>4.333</v>
+      </c>
+      <c r="M64">
+        <v>1.444</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>1.55</v>
+      </c>
+      <c r="Q64">
         <v>1</v>
       </c>
-      <c r="J64" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64">
-        <v>1.7</v>
-      </c>
-      <c r="L64">
-        <v>3.75</v>
-      </c>
-      <c r="M64">
-        <v>4.2</v>
-      </c>
-      <c r="N64">
-        <v>1.6</v>
-      </c>
-      <c r="O64">
-        <v>3.8</v>
-      </c>
-      <c r="P64">
-        <v>4.75</v>
-      </c>
-      <c r="Q64">
-        <v>-0.75</v>
-      </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
         <v>1.975</v>
       </c>
-      <c r="V64">
-        <v>1.825</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6062603</v>
+        <v>6062605</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
+        <v>3.75</v>
+      </c>
+      <c r="M65">
+        <v>4.2</v>
+      </c>
+      <c r="N65">
+        <v>1.6</v>
+      </c>
+      <c r="O65">
         <v>3.8</v>
       </c>
-      <c r="M65">
-        <v>4.5</v>
-      </c>
-      <c r="N65">
-        <v>1.95</v>
-      </c>
-      <c r="O65">
-        <v>3.5</v>
-      </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6062558</v>
+        <v>6063096</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,55 +6401,55 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="O67">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q67">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
         <v>2</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6458,7 +6458,7 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6467,10 +6467,10 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6063096</v>
+        <v>6062558</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P69">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
         <v>2</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,7 +6636,7 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="Z69">
         <v>-1</v>
@@ -6645,10 +6645,10 @@
         <v>1</v>
       </c>
       <c r="AB69">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>45178.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6287998</v>
+        <v>6288590</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N72">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
         <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6288590</v>
+        <v>6288012</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="L73">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
         <v>1.975</v>
       </c>
-      <c r="S73">
-        <v>1.825</v>
-      </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6288012</v>
+        <v>6287998</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,73 +7027,73 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
+        <v>1.363</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>7</v>
+      </c>
+      <c r="N74">
+        <v>1.4</v>
+      </c>
+      <c r="O74">
+        <v>4.75</v>
+      </c>
+      <c r="P74">
+        <v>6</v>
+      </c>
+      <c r="Q74">
+        <v>-1.25</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
         <v>1.95</v>
       </c>
-      <c r="L74">
-        <v>3.6</v>
-      </c>
-      <c r="M74">
-        <v>3.4</v>
-      </c>
-      <c r="N74">
-        <v>2.05</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
-      <c r="P74">
-        <v>3.1</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.825</v>
-      </c>
-      <c r="S74">
-        <v>1.975</v>
-      </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6322550</v>
+        <v>7222986</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="N75">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
         <v>3.75</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>0.6659999999999999</v>
       </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7222986</v>
+        <v>6322551</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,55 +7380,55 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>43</v>
       </c>
       <c r="K78">
-        <v>5.75</v>
+        <v>23</v>
       </c>
       <c r="L78">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="M78">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="N78">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="O78">
+        <v>10</v>
+      </c>
+      <c r="P78">
+        <v>1.071</v>
+      </c>
+      <c r="Q78">
+        <v>2.75</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
         <v>3.75</v>
       </c>
-      <c r="P78">
-        <v>1.666</v>
-      </c>
-      <c r="Q78">
-        <v>0.75</v>
-      </c>
-      <c r="R78">
+      <c r="U78">
         <v>1.9</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7437,16 +7437,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.6659999999999999</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="AC78">
         <v>-0.5</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6322551</v>
+        <v>6322550</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>23</v>
+        <v>1.65</v>
       </c>
       <c r="L79">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>1.09</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>23</v>
+        <v>1.666</v>
       </c>
       <c r="O79">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q79">
+        <v>-0.75</v>
+      </c>
+      <c r="R79">
+        <v>1.875</v>
+      </c>
+      <c r="S79">
+        <v>1.925</v>
+      </c>
+      <c r="T79">
         <v>2.75</v>
       </c>
-      <c r="R79">
-        <v>1.95</v>
-      </c>
-      <c r="S79">
-        <v>1.85</v>
-      </c>
-      <c r="T79">
-        <v>3.75</v>
-      </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6288592</v>
+        <v>6288591</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,13 +7558,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7573,34 +7573,34 @@
         <v>41</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>1.111</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7609,7 +7609,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7618,10 +7618,10 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6288591</v>
+        <v>6288592</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7662,34 +7662,34 @@
         <v>41</v>
       </c>
       <c r="K81">
-        <v>1.111</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O81">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
         <v>1.85</v>
@@ -7698,7 +7698,7 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7707,10 +7707,10 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351328</v>
+        <v>6351329</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L82">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
         <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351329</v>
+        <v>6351328</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
+        <v>1.3</v>
+      </c>
+      <c r="L83">
+        <v>5.25</v>
+      </c>
+      <c r="M83">
+        <v>7.5</v>
+      </c>
+      <c r="N83">
         <v>1.363</v>
       </c>
-      <c r="L83">
-        <v>5</v>
-      </c>
-      <c r="M83">
-        <v>6.5</v>
-      </c>
-      <c r="N83">
-        <v>1.4</v>
-      </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q83">
         <v>-1.25</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X83">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,10 +7914,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6383172</v>
+        <v>6383173</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
         <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383173</v>
+        <v>6383175</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88">
+        <v>5.25</v>
+      </c>
+      <c r="L88">
+        <v>4.2</v>
+      </c>
+      <c r="M88">
+        <v>1.5</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>5</v>
+      </c>
+      <c r="P88">
+        <v>1.363</v>
+      </c>
+      <c r="Q88">
+        <v>1.25</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>1.8</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
+        <v>1.95</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>0.363</v>
+      </c>
+      <c r="Z88">
+        <v>0.5</v>
+      </c>
+      <c r="AA88">
+        <v>-0.5</v>
+      </c>
+      <c r="AB88">
         <v>0</v>
       </c>
-      <c r="J88" t="s">
-        <v>41</v>
-      </c>
-      <c r="K88">
-        <v>1.8</v>
-      </c>
-      <c r="L88">
-        <v>3.75</v>
-      </c>
-      <c r="M88">
-        <v>3.75</v>
-      </c>
-      <c r="N88">
-        <v>1.8</v>
-      </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
-      <c r="P88">
-        <v>3.8</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
-      <c r="W88">
-        <v>0.8</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0.8</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383175</v>
+        <v>6383176</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6383176</v>
+        <v>6383172</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
+        <v>3.75</v>
+      </c>
+      <c r="M90">
         <v>3.5</v>
       </c>
-      <c r="M90">
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
         <v>3.6</v>
       </c>
-      <c r="N90">
-        <v>1.6</v>
-      </c>
-      <c r="O90">
-        <v>4</v>
-      </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,10 +8537,10 @@
         <v>45209.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8718,7 +8718,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471667</v>
+        <v>6471660</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,61 +9071,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
+        <v>3.75</v>
+      </c>
+      <c r="M97">
         <v>4</v>
       </c>
-      <c r="M97">
-        <v>4.75</v>
-      </c>
       <c r="N97">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q97">
         <v>-1</v>
       </c>
       <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
         <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9134,13 +9134,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>1</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471668</v>
+        <v>6471669</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
         <v>1.825</v>
-      </c>
-      <c r="S98">
-        <v>1.975</v>
       </c>
       <c r="T98">
         <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471661</v>
+        <v>6471668</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,73 +9252,73 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="N99">
-        <v>1.125</v>
+        <v>1.65</v>
       </c>
       <c r="O99">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="Q99">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
+        <v>1.975</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
         <v>1.875</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.925</v>
       </c>
-      <c r="T99">
-        <v>3.75</v>
-      </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
       <c r="W99">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471660</v>
+        <v>6471667</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,61 +9338,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
       </c>
       <c r="K100">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
         <v>-1</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9401,13 +9401,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471669</v>
+        <v>6471661</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,10 +9427,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9442,43 +9442,43 @@
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M101">
+        <v>4.333</v>
+      </c>
+      <c r="N101">
+        <v>1.125</v>
+      </c>
+      <c r="O101">
         <v>7</v>
       </c>
-      <c r="N101">
-        <v>1.75</v>
-      </c>
-      <c r="O101">
-        <v>3.8</v>
-      </c>
       <c r="P101">
+        <v>13</v>
+      </c>
+      <c r="Q101">
+        <v>-2.25</v>
+      </c>
+      <c r="R101">
+        <v>1.875</v>
+      </c>
+      <c r="S101">
+        <v>1.925</v>
+      </c>
+      <c r="T101">
         <v>3.75</v>
       </c>
-      <c r="Q101">
-        <v>-0.75</v>
-      </c>
-      <c r="R101">
+      <c r="U101">
+        <v>1.825</v>
+      </c>
+      <c r="V101">
         <v>1.975</v>
       </c>
-      <c r="S101">
-        <v>1.825</v>
-      </c>
-      <c r="T101">
-        <v>3.25</v>
-      </c>
-      <c r="U101">
-        <v>1.8</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>-0.5</v>
+      </c>
+      <c r="AA101">
+        <v>0.4625</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,10 +9516,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630584</v>
+        <v>7630065</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630582</v>
+        <v>7630584</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
         <v>3.3</v>
       </c>
       <c r="P105">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630065</v>
+        <v>7630582</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
         <v>3.4</v>
       </c>
-      <c r="M106">
-        <v>2.7</v>
-      </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AC106">
         <v>-0.5</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630067</v>
+        <v>7630141</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L108">
+        <v>3.3</v>
+      </c>
+      <c r="M108">
+        <v>2.55</v>
+      </c>
+      <c r="N108">
+        <v>3.3</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>3.4</v>
-      </c>
-      <c r="N108">
-        <v>2.5</v>
-      </c>
-      <c r="O108">
-        <v>3.2</v>
-      </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630066</v>
+        <v>7630585</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,73 +10139,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="N109">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.4125</v>
+      </c>
+      <c r="AA109">
         <v>-0.5</v>
       </c>
-      <c r="AA109">
-        <v>0.425</v>
-      </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630141</v>
+        <v>7630067</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630585</v>
+        <v>7630066</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,73 +10317,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M111">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="N111">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7630069</v>
+        <v>7630143</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,13 +10495,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -10510,43 +10510,43 @@
         <v>41</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N113">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>0.5329999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10555,16 +10555,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7630143</v>
+        <v>7630069</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,13 +10584,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10599,43 +10599,43 @@
         <v>41</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M114">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7630588</v>
+        <v>7630073</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7630074</v>
+        <v>7630588</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M116">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y116">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7630073</v>
+        <v>7630074</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,19 +10851,19 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>2.375</v>
@@ -10875,49 +10875,49 @@
         <v>2.7</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.9</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7630589</v>
+        <v>7630076</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,49 +11029,49 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L119">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
         <v>1.95</v>
@@ -11080,25 +11080,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7630076</v>
+        <v>7630589</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
         <v>1.95</v>
@@ -11347,25 +11347,25 @@
         <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7630590</v>
+        <v>7630148</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,40 +11474,40 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
         <v>42</v>
       </c>
       <c r="K124">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="L124">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11516,34 +11516,34 @@
         <v>2</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7630148</v>
+        <v>7630590</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,40 +11563,40 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>42</v>
       </c>
       <c r="K125">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M125">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
         <v>1.8</v>
@@ -11605,34 +11605,34 @@
         <v>2</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7630077</v>
+        <v>7630078</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,55 +11652,55 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>43</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
+        <v>2.625</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2.05</v>
+      </c>
+      <c r="T126">
         <v>2.25</v>
       </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.85</v>
-      </c>
-      <c r="S126">
-        <v>1.95</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11709,16 +11709,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB126">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7630078</v>
+        <v>7630077</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,55 +11741,55 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
         <v>43</v>
       </c>
       <c r="K127">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N127">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P127">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11798,16 +11798,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11830,7 +11830,7 @@
         <v>45376.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7630591</v>
+        <v>7630592</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,37 +11919,37 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
         <v>2.05</v>
-      </c>
-      <c r="S129">
-        <v>1.8</v>
       </c>
       <c r="T129">
         <v>2.5</v>
@@ -11981,7 +11981,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7630150</v>
+        <v>7630591</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -11993,46 +11993,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K130">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N130">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>0</v>
@@ -12055,7 +12055,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7630080</v>
+        <v>7630150</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12067,46 +12067,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K131">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L131">
+        <v>3.5</v>
+      </c>
+      <c r="M131">
+        <v>3.3</v>
+      </c>
+      <c r="N131">
+        <v>2.1</v>
+      </c>
+      <c r="O131">
         <v>3.4</v>
       </c>
-      <c r="M131">
-        <v>2.625</v>
-      </c>
-      <c r="N131">
-        <v>2.6</v>
-      </c>
-      <c r="O131">
-        <v>3.3</v>
-      </c>
       <c r="P131">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7630079</v>
+        <v>7630080</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12141,46 +12141,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K132">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N132">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12203,7 +12203,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7630592</v>
+        <v>7630079</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12215,46 +12215,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
         <v>3.6</v>
       </c>
-      <c r="M133">
-        <v>1.75</v>
-      </c>
       <c r="N133">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>0</v>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -103,9 +103,6 @@
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
-    <t>Athlone Town</t>
-  </si>
-  <si>
     <t>Bray Wanderers</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Wexford FC</t>
+  </si>
+  <si>
+    <t>Athlone Town</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -139,10 +139,10 @@
     <t>UCD</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062528</v>
+        <v>6062529</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,64 +619,64 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
+        <v>4.75</v>
+      </c>
+      <c r="L2">
+        <v>3.8</v>
+      </c>
+      <c r="M2">
+        <v>1.6</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>4.2</v>
+      </c>
+      <c r="P2">
+        <v>1.444</v>
+      </c>
+      <c r="Q2">
+        <v>1.25</v>
+      </c>
+      <c r="R2">
+        <v>1.775</v>
+      </c>
+      <c r="S2">
+        <v>2.025</v>
+      </c>
+      <c r="T2">
+        <v>2.5</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
         <v>1.95</v>
       </c>
-      <c r="L2">
-        <v>3.6</v>
-      </c>
-      <c r="M2">
-        <v>3.3</v>
-      </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.8</v>
-      </c>
-      <c r="P2">
-        <v>3.3</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
-      <c r="S2">
-        <v>1.975</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>1.8</v>
-      </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P3">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062586</v>
+        <v>6062587</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,55 +797,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062587</v>
+        <v>6062528</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,55 +886,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.15</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>1.5</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>1.111</v>
@@ -1328,10 +1328,10 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1506,7 +1506,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1684,10 +1684,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>1.333</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6063884</v>
+        <v>6062588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,10 +1773,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1788,25 +1788,25 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="Q15">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>1.975</v>
@@ -1815,13 +1815,13 @@
         <v>1.825</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1830,19 +1830,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.222</v>
+        <v>1.4</v>
       </c>
       <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
+        <v>0.825</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6062588</v>
+        <v>6063884</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,10 +1862,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1877,25 +1877,25 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P16">
-        <v>2.4</v>
+        <v>1.222</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1904,13 +1904,13 @@
         <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.4</v>
+        <v>0.222</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062536</v>
+        <v>6062590</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,49 +1951,49 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="L17">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="N17">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="P17">
-        <v>26</v>
+        <v>1.363</v>
       </c>
       <c r="Q17">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R17">
         <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
         <v>1.875</v>
@@ -2002,7 +2002,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.05000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,10 +2017,10 @@
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>1.8</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>3.6</v>
+      </c>
+      <c r="N18">
+        <v>1.571</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+      <c r="P18">
+        <v>4.75</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.825</v>
+      </c>
+      <c r="T18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>1.1</v>
-      </c>
-      <c r="L18">
-        <v>8</v>
-      </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>1.062</v>
-      </c>
-      <c r="O18">
-        <v>11</v>
-      </c>
-      <c r="P18">
-        <v>29</v>
-      </c>
-      <c r="Q18">
-        <v>-2.75</v>
-      </c>
-      <c r="R18">
+      <c r="U18">
+        <v>1.85</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>3.25</v>
-      </c>
-      <c r="U18">
-        <v>1.825</v>
-      </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6062590</v>
+        <v>6063883</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,58 +2129,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>1.285</v>
+        <v>15</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>1.062</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <v>1.363</v>
+        <v>29</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R19">
         <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6062589</v>
+        <v>6062536</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N20">
-        <v>1.571</v>
+        <v>1.05</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="P20">
-        <v>4.75</v>
+        <v>26</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6062537</v>
+        <v>6062592</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,43 +2396,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
+        <v>2.1</v>
+      </c>
+      <c r="L22">
+        <v>3.6</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
-      <c r="L22">
+      <c r="N22">
+        <v>2.25</v>
+      </c>
+      <c r="O22">
         <v>3.4</v>
       </c>
-      <c r="M22">
-        <v>2.15</v>
-      </c>
-      <c r="N22">
-        <v>3.25</v>
-      </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
       <c r="P22">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S22">
         <v>1.8</v>
@@ -2441,31 +2441,31 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z22">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6062592</v>
+        <v>6062537</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,43 +2485,43 @@
         <v>45107.65625</v>
       </c>
       <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>2.1</v>
-      </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
         <v>1.8</v>
@@ -2530,31 +2530,31 @@
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>1.035</v>
@@ -2663,7 +2663,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>1.083</v>
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6062540</v>
+        <v>6063881</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>1.45</v>
       </c>
       <c r="N27">
-        <v>1.083</v>
+        <v>5.25</v>
       </c>
       <c r="O27">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>19</v>
+        <v>1.571</v>
       </c>
       <c r="Q27">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
         <v>2</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
+        <v>1.825</v>
+      </c>
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6063881</v>
+        <v>6062594</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,46 +2930,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="N28">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.75</v>
@@ -2987,13 +2987,13 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
         <v>0.825</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062539</v>
+        <v>6062540</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>1.1</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>1.083</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <v>-3</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>4.25</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
+        <v>1.875</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29">
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>1.3</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <v>5</v>
-      </c>
-      <c r="P29">
-        <v>1.3</v>
-      </c>
-      <c r="Q29">
-        <v>1.5</v>
-      </c>
-      <c r="R29">
-        <v>1.875</v>
-      </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>4</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
-      <c r="Z29">
-        <v>0.875</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062594</v>
+        <v>6062539</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="N30">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
         <v>1.875</v>
@@ -3153,31 +3153,31 @@
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3286,7 +3286,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3375,10 +3375,10 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>3.5</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>1.333</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6062597</v>
+        <v>6063095</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,67 +3642,67 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
+        <v>2.55</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
         <v>1.5</v>
       </c>
-      <c r="Q36">
-        <v>1.25</v>
-      </c>
-      <c r="R36">
-        <v>1.825</v>
-      </c>
-      <c r="S36">
-        <v>2.025</v>
-      </c>
-      <c r="T36">
-        <v>3.25</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
       <c r="X36">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3711,7 +3711,7 @@
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063095</v>
+        <v>6062597</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,64 +3734,64 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>41</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="N37">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
+        <v>2.025</v>
+      </c>
+      <c r="T37">
+        <v>3.25</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3800,7 +3800,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6063879</v>
+        <v>6062544</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M38">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N38">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P38">
+        <v>8</v>
+      </c>
+      <c r="Q38">
+        <v>-1.75</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.925</v>
-      </c>
-      <c r="S38">
-        <v>1.875</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.85</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6062544</v>
+        <v>6063879</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N39">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="Q39">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6062598</v>
+        <v>6063878</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,49 +4087,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>42</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>1.035</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>3.4</v>
+        <v>51</v>
       </c>
       <c r="N41">
-        <v>1.666</v>
+        <v>1.055</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U41">
         <v>1.825</v>
@@ -4138,25 +4138,25 @@
         <v>1.975</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X41">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,10 +4176,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>1.7</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6063878</v>
+        <v>6062598</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,49 +4265,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
         <v>31</v>
       </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>1.035</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>3.4</v>
       </c>
       <c r="N43">
-        <v>1.055</v>
+        <v>1.666</v>
       </c>
       <c r="O43">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q43">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
         <v>1.825</v>
@@ -4316,25 +4316,25 @@
         <v>1.975</v>
       </c>
       <c r="W43">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>1.1</v>
@@ -4710,10 +4710,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
+        <v>1.444</v>
+      </c>
+      <c r="N49">
+        <v>5.75</v>
+      </c>
+      <c r="O49">
         <v>4.5</v>
       </c>
-      <c r="N49">
-        <v>1.5</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
       <c r="P49">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N50">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.8</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5066,7 +5066,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5078,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K52">
         <v>2.4</v>
@@ -5155,7 +5155,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5167,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
         <v>1.285</v>
@@ -5336,7 +5336,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6063875</v>
+        <v>6062555</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L56">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M56">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O56">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6062555</v>
+        <v>6063875</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="M57">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N57">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,13 +5571,13 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5600,10 +5600,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5689,10 +5689,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
         <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>7.5</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
         <v>1.615</v>
@@ -6045,10 +6045,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6063874</v>
+        <v>6062605</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="L64">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M64">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.975</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.8</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>1</v>
       </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
-      <c r="T64">
-        <v>3</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>0.55</v>
-      </c>
-      <c r="Z64">
-        <v>-1</v>
-      </c>
-      <c r="AA64">
-        <v>0.925</v>
-      </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.825</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6062605</v>
+        <v>6063874</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65">
+        <v>4.333</v>
+      </c>
+      <c r="M65">
+        <v>1.444</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>1.55</v>
+      </c>
+      <c r="Q65">
         <v>1</v>
       </c>
-      <c r="J65" t="s">
-        <v>42</v>
-      </c>
-      <c r="K65">
-        <v>1.7</v>
-      </c>
-      <c r="L65">
-        <v>3.75</v>
-      </c>
-      <c r="M65">
-        <v>4.2</v>
-      </c>
-      <c r="N65">
-        <v>1.6</v>
-      </c>
-      <c r="O65">
-        <v>3.8</v>
-      </c>
-      <c r="P65">
-        <v>4.75</v>
-      </c>
-      <c r="Q65">
-        <v>-0.75</v>
-      </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
+        <v>1.825</v>
+      </c>
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="V65">
-        <v>1.825</v>
-      </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6063096</v>
+        <v>6063873</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,49 +6401,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
         <v>1.8</v>
       </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>2</v>
@@ -6455,22 +6455,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6063873</v>
+        <v>6063096</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,49 +6490,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6544,22 +6544,22 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
         <v>1</v>
       </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
         <v>2.15</v>
@@ -6846,7 +6846,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.166</v>
@@ -6935,7 +6935,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -6947,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
         <v>1.95</v>
@@ -7024,7 +7024,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>35</v>
@@ -7116,7 +7116,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7202,10 +7202,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K76">
         <v>2.15</v>
@@ -7294,7 +7294,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>3.1</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>1.65</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>1.111</v>
@@ -7647,7 +7647,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>38</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351329</v>
+        <v>6351328</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,13 +7736,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7751,61 +7751,61 @@
         <v>42</v>
       </c>
       <c r="K82">
+        <v>1.3</v>
+      </c>
+      <c r="L82">
+        <v>5.25</v>
+      </c>
+      <c r="M82">
+        <v>7.5</v>
+      </c>
+      <c r="N82">
         <v>1.363</v>
       </c>
-      <c r="L82">
-        <v>5</v>
-      </c>
-      <c r="M82">
-        <v>6.5</v>
-      </c>
-      <c r="N82">
-        <v>1.4</v>
-      </c>
       <c r="O82">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q82">
         <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X82">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351328</v>
+        <v>6351327</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,58 +7825,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83">
+        <v>2.8</v>
+      </c>
+      <c r="L83">
+        <v>3.4</v>
+      </c>
+      <c r="M83">
+        <v>2.3</v>
+      </c>
+      <c r="N83">
+        <v>2.5</v>
+      </c>
+      <c r="O83">
+        <v>3.4</v>
+      </c>
+      <c r="P83">
+        <v>2.55</v>
+      </c>
+      <c r="Q83">
         <v>0</v>
       </c>
-      <c r="J83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K83">
-        <v>1.3</v>
-      </c>
-      <c r="L83">
-        <v>5.25</v>
-      </c>
-      <c r="M83">
-        <v>7.5</v>
-      </c>
-      <c r="N83">
-        <v>1.363</v>
-      </c>
-      <c r="O83">
-        <v>4.75</v>
-      </c>
-      <c r="P83">
-        <v>6</v>
-      </c>
-      <c r="Q83">
-        <v>-1.25</v>
-      </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7885,16 +7885,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6351327</v>
+        <v>6351329</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,73 +7917,73 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>41</v>
       </c>
       <c r="K84">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.925</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.875</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K87">
         <v>1.8</v>
@@ -8273,7 +8273,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>1.909</v>
@@ -8448,10 +8448,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
         <v>29</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>1.8</v>
@@ -8629,7 +8629,7 @@
         <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>2.55</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>2.55</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>17</v>
@@ -8982,7 +8982,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471660</v>
+        <v>6471669</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,13 +9071,13 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9086,34 +9086,34 @@
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>1.75</v>
+      </c>
+      <c r="O97">
+        <v>3.8</v>
+      </c>
+      <c r="P97">
         <v>3.75</v>
       </c>
-      <c r="M97">
-        <v>4</v>
-      </c>
-      <c r="N97">
-        <v>1.615</v>
-      </c>
-      <c r="O97">
-        <v>4</v>
-      </c>
-      <c r="P97">
-        <v>4.5</v>
-      </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
         <v>1.8</v>
@@ -9122,19 +9122,19 @@
         <v>2</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471669</v>
+        <v>6471660</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,13 +9160,13 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -9175,34 +9175,34 @@
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U98">
         <v>1.8</v>
@@ -9211,19 +9211,19 @@
         <v>2</v>
       </c>
       <c r="W98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
         <v>1.285</v>
@@ -9338,7 +9338,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>33</v>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
         <v>1.571</v>
@@ -9430,7 +9430,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>1.615</v>
@@ -9516,7 +9516,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>1.5</v>
@@ -9605,7 +9605,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>1.125</v>
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>2.5</v>
@@ -9872,10 +9872,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>1.95</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K108">
         <v>2.55</v>
@@ -10142,7 +10142,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10151,7 +10151,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10320,7 +10320,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10498,7 +10498,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K113">
         <v>2.8</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
         <v>1.5</v>
@@ -10676,7 +10676,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10685,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
         <v>2.375</v>
@@ -10762,7 +10762,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>34</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
         <v>1.444</v>
@@ -10854,7 +10854,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119">
         <v>2.5</v>
@@ -11118,7 +11118,7 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
@@ -11210,7 +11210,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
         <v>1.8</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K122">
         <v>3.5</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7630149</v>
+        <v>7630148</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
+        <v>1.8</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
         <v>1.775</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>2.025</v>
       </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA123">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7630148</v>
+        <v>7630149</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K124">
+        <v>1.615</v>
+      </c>
+      <c r="L124">
+        <v>3.75</v>
+      </c>
+      <c r="M124">
+        <v>4.5</v>
+      </c>
+      <c r="N124">
+        <v>1.6</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.775</v>
+      </c>
+      <c r="S124">
+        <v>2.025</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
         <v>1.95</v>
       </c>
-      <c r="L124">
-        <v>3.4</v>
-      </c>
-      <c r="M124">
-        <v>3.5</v>
-      </c>
-      <c r="N124">
-        <v>3</v>
-      </c>
-      <c r="O124">
-        <v>3.1</v>
-      </c>
-      <c r="P124">
-        <v>2.2</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.775</v>
-      </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K125">
         <v>4.333</v>
@@ -11741,10 +11741,10 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11830,7 +11830,7 @@
         <v>45376.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K128">
         <v>1.869</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7630592</v>
+        <v>7630591</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,46 +11919,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
         <v>32</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7630591</v>
+        <v>7630592</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -11993,31 +11993,31 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N130">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
         <v>1.975</v>
@@ -12094,19 +12094,19 @@
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12168,19 +12168,19 @@
         <v>0</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12215,7 +12215,7 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12230,31 +12230,31 @@
         <v>3.6</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>0</v>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,9 @@
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
+    <t>Athlone Town</t>
+  </si>
+  <si>
     <t>Bray Wanderers</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>Wexford FC</t>
-  </si>
-  <si>
-    <t>Athlone Town</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -139,10 +139,10 @@
     <t>UCD</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062529</v>
+        <v>6062528</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,64 +619,64 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
+        <v>3.6</v>
+      </c>
+      <c r="M2">
+        <v>3.3</v>
+      </c>
+      <c r="N2">
+        <v>1.909</v>
+      </c>
+      <c r="O2">
         <v>3.8</v>
       </c>
-      <c r="M2">
-        <v>1.6</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2">
-        <v>4.2</v>
-      </c>
       <c r="P2">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062586</v>
+        <v>6062529</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
+        <v>3.8</v>
+      </c>
+      <c r="M3">
+        <v>1.6</v>
+      </c>
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>1.2</v>
-      </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062587</v>
+        <v>6062586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,55 +797,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062528</v>
+        <v>6062587</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.875</v>
+      </c>
+      <c r="N5">
+        <v>2.15</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>3.3</v>
-      </c>
-      <c r="N5">
-        <v>1.909</v>
-      </c>
-      <c r="O5">
-        <v>3.8</v>
-      </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1.15</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>0.4</v>
+      </c>
+      <c r="AC5">
         <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.825</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.8</v>
-      </c>
-      <c r="W5">
-        <v>0.909</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.825</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
-      <c r="AC5">
-        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>1.5</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>1.111</v>
@@ -1328,10 +1328,10 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1506,7 +1506,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1684,10 +1684,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>1.333</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6062588</v>
+        <v>6063884</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,10 +1773,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1788,25 +1788,25 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P15">
-        <v>2.4</v>
+        <v>1.222</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R15">
         <v>1.975</v>
@@ -1815,13 +1815,13 @@
         <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1830,19 +1830,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.4</v>
+        <v>0.222</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6063884</v>
+        <v>6062588</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,10 +1862,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1877,25 +1877,25 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="L16">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="O16">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1904,13 +1904,13 @@
         <v>1.825</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.222</v>
+        <v>1.4</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.825</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062590</v>
+        <v>6062536</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,49 +1951,49 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M17">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="O17">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="P17">
-        <v>1.363</v>
+        <v>26</v>
       </c>
       <c r="Q17">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="R17">
         <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
         <v>1.875</v>
@@ -2002,7 +2002,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,10 +2017,10 @@
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6062589</v>
+        <v>6063883</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>1.571</v>
+        <v>1.062</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
+        <v>3.25</v>
+      </c>
+      <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0.825</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6063883</v>
+        <v>6062589</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>1.8</v>
+      </c>
+      <c r="L19">
+        <v>3.6</v>
+      </c>
+      <c r="M19">
+        <v>3.6</v>
+      </c>
+      <c r="N19">
+        <v>1.571</v>
+      </c>
+      <c r="O19">
+        <v>3.8</v>
+      </c>
+      <c r="P19">
+        <v>4.75</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>1.825</v>
+      </c>
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>1.1</v>
-      </c>
-      <c r="L19">
-        <v>8</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>1.062</v>
-      </c>
-      <c r="O19">
-        <v>11</v>
-      </c>
-      <c r="P19">
-        <v>29</v>
-      </c>
-      <c r="Q19">
-        <v>-2.75</v>
-      </c>
-      <c r="R19">
+      <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>3.25</v>
-      </c>
-      <c r="U19">
-        <v>1.825</v>
-      </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6062536</v>
+        <v>6062590</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,49 +2218,49 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="L20">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="N20">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>26</v>
+        <v>1.363</v>
       </c>
       <c r="Q20">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R20">
         <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
         <v>1.875</v>
@@ -2269,7 +2269,7 @@
         <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.05000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2284,10 +2284,10 @@
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6063882</v>
+        <v>6062593</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N24">
-        <v>1.02</v>
+        <v>1.062</v>
       </c>
       <c r="O24">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P24">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q24">
-        <v>-4.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>0.02000000000000002</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,16 +2634,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6062593</v>
+        <v>6063882</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>1.083</v>
+        <v>1.035</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N25">
-        <v>1.062</v>
+        <v>1.02</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P25">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q25">
-        <v>-2.75</v>
+        <v>-4.25</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.06200000000000006</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,16 +2723,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6063881</v>
+        <v>6062540</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>1.45</v>
+        <v>19</v>
       </c>
       <c r="N27">
-        <v>5.25</v>
+        <v>1.083</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="P27">
-        <v>1.571</v>
+        <v>19</v>
       </c>
       <c r="Q27">
+        <v>-3</v>
+      </c>
+      <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>4.25</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
+        <v>1.875</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
         <v>1</v>
       </c>
-      <c r="R27">
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.825</v>
-      </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>0.571</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>-0</v>
-      </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6062594</v>
+        <v>6063881</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,46 +2930,46 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.75</v>
@@ -2987,13 +2987,13 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>0.825</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062540</v>
+        <v>6062539</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="N29">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="Q29">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
         <v>1.85</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062539</v>
+        <v>6062594</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
         <v>1.875</v>
@@ -3153,31 +3153,31 @@
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3286,7 +3286,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3375,10 +3375,10 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
         <v>3.5</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35">
         <v>1.333</v>
@@ -3642,7 +3642,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>2.15</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6062597</v>
+        <v>6063879</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N37">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P37">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q37">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062544</v>
+        <v>6062597</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
       </c>
       <c r="K38">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>1.333</v>
       </c>
       <c r="N38">
+        <v>5.25</v>
+      </c>
+      <c r="O38">
+        <v>4.333</v>
+      </c>
+      <c r="P38">
+        <v>1.5</v>
+      </c>
+      <c r="Q38">
         <v>1.25</v>
       </c>
-      <c r="O38">
-        <v>6</v>
-      </c>
-      <c r="P38">
-        <v>8</v>
-      </c>
-      <c r="Q38">
-        <v>-1.75</v>
-      </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6063879</v>
+        <v>6062544</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M39">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N39">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>-1.75</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.925</v>
-      </c>
-      <c r="S39">
-        <v>1.875</v>
-      </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.85</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6063878</v>
+        <v>6062546</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,73 +4090,73 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>42</v>
       </c>
       <c r="K41">
-        <v>1.035</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="O41">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.475</v>
-      </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6062546</v>
+        <v>6063878</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>41</v>
       </c>
       <c r="K42">
-        <v>1.7</v>
+        <v>1.035</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N42">
-        <v>2.75</v>
+        <v>1.055</v>
       </c>
       <c r="O42">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X42">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>1.909</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>1.1</v>
@@ -4710,10 +4710,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
         <v>31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M50">
+        <v>1.444</v>
+      </c>
+      <c r="N50">
+        <v>5.75</v>
+      </c>
+      <c r="O50">
         <v>4.5</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
       <c r="P50">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5066,7 +5066,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5078,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>2.4</v>
@@ -5155,7 +5155,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5167,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>1.285</v>
@@ -5336,7 +5336,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6062555</v>
+        <v>6063875</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N56">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P56">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6063875</v>
+        <v>6062555</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M57">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O57">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,13 +5571,13 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062602</v>
+        <v>6062554</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,7 +5600,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5609,67 +5609,67 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="K58">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
+        <v>1.5</v>
+      </c>
+      <c r="N58">
+        <v>6.5</v>
+      </c>
+      <c r="O58">
         <v>4.75</v>
       </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>3.75</v>
-      </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q58">
+        <v>1.25</v>
+      </c>
+      <c r="R58">
+        <v>1.9</v>
+      </c>
+      <c r="S58">
+        <v>1.9</v>
+      </c>
+      <c r="T58">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>1.775</v>
+      </c>
+      <c r="V58">
+        <v>2.025</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>0.444</v>
+      </c>
+      <c r="Z58">
+        <v>0.45</v>
+      </c>
+      <c r="AA58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.825</v>
-      </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>1.8</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>2.75</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6062554</v>
+        <v>6062602</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,52 +5692,52 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>43</v>
       </c>
       <c r="K59">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N59">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O59">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5746,19 +5746,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.444</v>
+        <v>2.75</v>
       </c>
       <c r="Z59">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>7.5</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062603</v>
+        <v>6062605</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>4.2</v>
+      </c>
+      <c r="N62">
+        <v>1.6</v>
+      </c>
+      <c r="O62">
         <v>3.8</v>
       </c>
-      <c r="M62">
-        <v>4.5</v>
-      </c>
-      <c r="N62">
-        <v>1.95</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,10 +6045,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062605</v>
+        <v>6062603</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>41</v>
       </c>
       <c r="K64">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N64">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X64">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6063873</v>
+        <v>6063096</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,49 +6401,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q67">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>2</v>
@@ -6455,22 +6455,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
         <v>1</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6063096</v>
+        <v>6063873</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,49 +6490,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
         <v>1.8</v>
       </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6544,22 +6544,22 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>2.15</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6288590</v>
+        <v>6287998</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="L72">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O72">
+        <v>4.75</v>
+      </c>
+      <c r="P72">
         <v>6</v>
       </c>
-      <c r="P72">
-        <v>10</v>
-      </c>
       <c r="Q72">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -6947,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>1.95</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6287998</v>
+        <v>6288590</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7202,10 +7202,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76">
         <v>2.15</v>
@@ -7294,7 +7294,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
         <v>3.1</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K79">
         <v>1.65</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K80">
         <v>1.111</v>
@@ -7647,7 +7647,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>38</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6351328</v>
+        <v>6351329</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,13 +7736,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7751,61 +7751,61 @@
         <v>42</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L82">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
         <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351327</v>
+        <v>6351328</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,58 +7825,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
         <v>29</v>
       </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
       <c r="H83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7885,16 +7885,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6351329</v>
+        <v>6351327</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,73 +7917,73 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>41</v>
       </c>
       <c r="K84">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q84">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>1.925</v>
-      </c>
-      <c r="S84">
-        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X84">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K87">
         <v>1.8</v>
@@ -8273,7 +8273,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K89">
         <v>1.909</v>
@@ -8448,10 +8448,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
         <v>1.8</v>
@@ -8629,7 +8629,7 @@
         <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
         <v>2.55</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K94">
         <v>2.55</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>17</v>
@@ -8982,7 +8982,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471669</v>
+        <v>6471660</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,13 +9071,13 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9086,34 +9086,34 @@
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U97">
         <v>1.8</v>
@@ -9122,19 +9122,19 @@
         <v>2</v>
       </c>
       <c r="W97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471660</v>
+        <v>6471669</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,13 +9160,13 @@
         <v>45219.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -9175,34 +9175,34 @@
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L98">
+        <v>5</v>
+      </c>
+      <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
+        <v>1.75</v>
+      </c>
+      <c r="O98">
+        <v>3.8</v>
+      </c>
+      <c r="P98">
         <v>3.75</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.615</v>
-      </c>
-      <c r="O98">
-        <v>4</v>
-      </c>
-      <c r="P98">
-        <v>4.5</v>
-      </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.8</v>
@@ -9211,19 +9211,19 @@
         <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>1.285</v>
@@ -9338,7 +9338,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>33</v>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
         <v>1.571</v>
@@ -9430,7 +9430,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
         <v>1.615</v>
@@ -9516,7 +9516,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>1.5</v>
@@ -9605,7 +9605,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>40</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7630583</v>
+        <v>7630584</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,16 +9754,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630584</v>
+        <v>7630583</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M105">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>1.05</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,10 +9872,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
         <v>32</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K106">
         <v>1.95</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>2.55</v>
@@ -10142,7 +10142,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10151,7 +10151,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10320,7 +10320,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10498,7 +10498,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>2.8</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>1.5</v>
@@ -10676,7 +10676,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10685,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
         <v>2.375</v>
@@ -10762,7 +10762,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>34</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>1.444</v>
@@ -10854,7 +10854,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
         <v>2.5</v>
@@ -11118,7 +11118,7 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
@@ -11210,7 +11210,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
         <v>1.8</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>3.5</v>
@@ -11385,7 +11385,7 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11397,7 +11397,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K123">
         <v>1.95</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K124">
         <v>1.615</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>4.333</v>
@@ -11741,10 +11741,10 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11830,7 +11830,7 @@
         <v>45376.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K128">
         <v>1.869</v>
@@ -11900,376 +11900,6 @@
       </c>
       <c r="AC128">
         <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>7630591</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="2">
-        <v>45380.69791666666</v>
-      </c>
-      <c r="F129" t="s">
-        <v>39</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
-      <c r="K129">
-        <v>1.4</v>
-      </c>
-      <c r="L129">
-        <v>4.2</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.4</v>
-      </c>
-      <c r="O129">
-        <v>4.2</v>
-      </c>
-      <c r="P129">
-        <v>7.5</v>
-      </c>
-      <c r="Q129">
-        <v>-1</v>
-      </c>
-      <c r="R129">
-        <v>1.825</v>
-      </c>
-      <c r="S129">
-        <v>2.025</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.95</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
-      </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-      <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>7630592</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="2">
-        <v>45380.69791666666</v>
-      </c>
-      <c r="F130" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
-      <c r="K130">
-        <v>4</v>
-      </c>
-      <c r="L130">
-        <v>3.6</v>
-      </c>
-      <c r="M130">
-        <v>1.75</v>
-      </c>
-      <c r="N130">
-        <v>4.5</v>
-      </c>
-      <c r="O130">
-        <v>3.75</v>
-      </c>
-      <c r="P130">
-        <v>1.65</v>
-      </c>
-      <c r="Q130">
-        <v>0.75</v>
-      </c>
-      <c r="R130">
-        <v>1.975</v>
-      </c>
-      <c r="S130">
-        <v>1.875</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.85</v>
-      </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-      <c r="X130">
-        <v>0</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>7630150</v>
-      </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" t="s">
-        <v>28</v>
-      </c>
-      <c r="E131" s="2">
-        <v>45380.69791666666</v>
-      </c>
-      <c r="F131" t="s">
-        <v>37</v>
-      </c>
-      <c r="G131" t="s">
-        <v>33</v>
-      </c>
-      <c r="K131">
-        <v>1.95</v>
-      </c>
-      <c r="L131">
-        <v>3.5</v>
-      </c>
-      <c r="M131">
-        <v>3.3</v>
-      </c>
-      <c r="N131">
-        <v>2.1</v>
-      </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>3.1</v>
-      </c>
-      <c r="Q131">
-        <v>-0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.875</v>
-      </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-      <c r="X131">
-        <v>0</v>
-      </c>
-      <c r="Y131">
-        <v>0</v>
-      </c>
-      <c r="Z131">
-        <v>0</v>
-      </c>
-      <c r="AA131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>7630080</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="2">
-        <v>45380.69791666666</v>
-      </c>
-      <c r="F132" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" t="s">
-        <v>40</v>
-      </c>
-      <c r="K132">
-        <v>2.375</v>
-      </c>
-      <c r="L132">
-        <v>3.4</v>
-      </c>
-      <c r="M132">
-        <v>2.625</v>
-      </c>
-      <c r="N132">
-        <v>2.625</v>
-      </c>
-      <c r="O132">
-        <v>3.1</v>
-      </c>
-      <c r="P132">
-        <v>2.5</v>
-      </c>
-      <c r="Q132">
-        <v>0</v>
-      </c>
-      <c r="R132">
-        <v>1.975</v>
-      </c>
-      <c r="S132">
-        <v>1.875</v>
-      </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>2.025</v>
-      </c>
-      <c r="V132">
-        <v>1.825</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <v>0</v>
-      </c>
-      <c r="Y132">
-        <v>0</v>
-      </c>
-      <c r="Z132">
-        <v>0</v>
-      </c>
-      <c r="AA132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>7630079</v>
-      </c>
-      <c r="C133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45380.69791666666</v>
-      </c>
-      <c r="F133" t="s">
-        <v>29</v>
-      </c>
-      <c r="G133" t="s">
-        <v>35</v>
-      </c>
-      <c r="K133">
-        <v>1.833</v>
-      </c>
-      <c r="L133">
-        <v>3.5</v>
-      </c>
-      <c r="M133">
-        <v>3.6</v>
-      </c>
-      <c r="N133">
-        <v>2.6</v>
-      </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
-      <c r="P133">
-        <v>2.4</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>1.875</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
-      <c r="U133">
-        <v>2.05</v>
-      </c>
-      <c r="V133">
-        <v>1.8</v>
-      </c>
-      <c r="W133">
-        <v>0</v>
-      </c>
-      <c r="X133">
-        <v>0</v>
-      </c>
-      <c r="Y133">
-        <v>0</v>
-      </c>
-      <c r="Z133">
-        <v>0</v>
-      </c>
-      <c r="AA133">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
-    <t>Athlone Town</t>
+    <t>Wexford FC</t>
+  </si>
+  <si>
+    <t>Waterford FC</t>
   </si>
   <si>
     <t>Bray Wanderers</t>
   </si>
   <si>
-    <t>Waterford FC</t>
-  </si>
-  <si>
-    <t>Wexford FC</t>
+    <t>Athlone Town</t>
   </si>
   <si>
     <t>Finn Harps</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062528</v>
+        <v>6062587</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L2">
+        <v>3.5</v>
+      </c>
+      <c r="M2">
+        <v>2.875</v>
+      </c>
+      <c r="N2">
+        <v>2.15</v>
+      </c>
+      <c r="O2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>3.3</v>
-      </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
-      <c r="O2">
-        <v>3.8</v>
-      </c>
       <c r="P2">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q2">
+        <v>-0.25</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1.8</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.8</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>1.15</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
+        <v>0.4</v>
+      </c>
+      <c r="AC2">
         <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
-      <c r="S2">
-        <v>1.975</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>1.8</v>
-      </c>
-      <c r="W2">
-        <v>0.909</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.825</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
-      <c r="AC2">
-        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062529</v>
+        <v>6062586</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P3">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062586</v>
+        <v>6062529</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
+        <v>3.8</v>
+      </c>
+      <c r="M4">
+        <v>1.6</v>
+      </c>
+      <c r="N4">
         <v>6</v>
       </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>1.2</v>
-      </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6062587</v>
+        <v>6062528</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,55 +886,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.15</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6062535</v>
+        <v>6063884</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,55 +1595,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M13">
+        <v>1.4</v>
+      </c>
+      <c r="N13">
+        <v>9.5</v>
+      </c>
+      <c r="O13">
+        <v>5.5</v>
+      </c>
+      <c r="P13">
+        <v>1.222</v>
+      </c>
+      <c r="Q13">
+        <v>1.75</v>
+      </c>
+      <c r="R13">
+        <v>1.975</v>
+      </c>
+      <c r="S13">
+        <v>1.825</v>
+      </c>
+      <c r="T13">
         <v>3.25</v>
       </c>
-      <c r="N13">
-        <v>1.85</v>
-      </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>3.8</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.925</v>
-      </c>
-      <c r="S13">
-        <v>1.925</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1652,19 +1652,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.8</v>
+        <v>0.222</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,10 +1684,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6063884</v>
+        <v>6062535</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,55 +1773,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="L15">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N15">
-        <v>9.5</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
+        <v>1.925</v>
+      </c>
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
         <v>1.825</v>
       </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
       <c r="V15">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1830,19 +1830,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.222</v>
+        <v>2.8</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6062536</v>
+        <v>6063883</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,40 +1951,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="L17">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>1.062</v>
+      </c>
+      <c r="O17">
         <v>11</v>
       </c>
-      <c r="N17">
-        <v>1.05</v>
-      </c>
-      <c r="O17">
-        <v>15</v>
-      </c>
       <c r="P17">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>-3</v>
+        <v>-2.75</v>
       </c>
       <c r="R17">
         <v>1.95</v>
@@ -1993,16 +1993,16 @@
         <v>1.85</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>0.05000000000000004</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,13 +2011,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6063883</v>
+        <v>6062536</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,40 +2040,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>1.1</v>
+        <v>1.125</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>1.05</v>
+      </c>
+      <c r="O18">
         <v>15</v>
       </c>
-      <c r="N18">
-        <v>1.062</v>
-      </c>
-      <c r="O18">
-        <v>11</v>
-      </c>
       <c r="P18">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q18">
-        <v>-2.75</v>
+        <v>-3</v>
       </c>
       <c r="R18">
         <v>1.95</v>
@@ -2082,16 +2082,16 @@
         <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.06200000000000006</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,13 +2100,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6062589</v>
+        <v>6062590</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="N19">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6062590</v>
+        <v>6062589</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="Q20">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
+        <v>1.825</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1.85</v>
+      </c>
+      <c r="V20">
         <v>1.95</v>
       </c>
-      <c r="S20">
-        <v>1.9</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.825</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.95</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6062592</v>
+        <v>6063882</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>1.035</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N22">
-        <v>2.25</v>
+        <v>1.02</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-4.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6062593</v>
+        <v>6062592</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,73 +2574,73 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.083</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.062</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>26</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
-        <v>-2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
         <v>1.8</v>
       </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
       <c r="T24">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>1.875</v>
       </c>
-      <c r="W24">
-        <v>0.06200000000000006</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.8</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6063882</v>
+        <v>6062593</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
         <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>1.02</v>
+        <v>1.062</v>
       </c>
       <c r="O25">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q25">
-        <v>-4.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>0.02000000000000002</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,16 +2723,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6062540</v>
+        <v>6063881</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>1.45</v>
       </c>
       <c r="N27">
-        <v>1.083</v>
+        <v>5.25</v>
       </c>
       <c r="O27">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>19</v>
+        <v>1.571</v>
       </c>
       <c r="Q27">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
         <v>2</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
+        <v>1.825</v>
+      </c>
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6063881</v>
+        <v>6062540</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>1.45</v>
+        <v>19</v>
       </c>
       <c r="N28">
-        <v>5.25</v>
+        <v>1.083</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="P28">
-        <v>1.571</v>
+        <v>19</v>
       </c>
       <c r="Q28">
+        <v>-3</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>4.25</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
+        <v>1.875</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
         <v>1</v>
       </c>
-      <c r="R28">
-        <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>0.571</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>-0</v>
-      </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6062539</v>
+        <v>6062594</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
         <v>1.875</v>
@@ -3064,31 +3064,31 @@
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6062594</v>
+        <v>6062539</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="N30">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
         <v>1.875</v>
@@ -3153,31 +3153,31 @@
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6062542</v>
+        <v>6062543</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,56 +3286,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="L32">
+        <v>3.8</v>
+      </c>
+      <c r="M32">
         <v>4.5</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.4</v>
       </c>
-      <c r="N32">
-        <v>8</v>
-      </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="Q32">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3343,19 +3343,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.363</v>
+        <v>5</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6062543</v>
+        <v>6062542</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,56 +3375,56 @@
         <v>45121.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
+        <v>1.4</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="N33">
-        <v>1.4</v>
-      </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>5</v>
+        <v>0.363</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6063095</v>
+        <v>6062544</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,13 +3642,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3657,61 +3657,61 @@
         <v>41</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <v>1.25</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>-1.75</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="N36">
-        <v>2.5</v>
-      </c>
-      <c r="O36">
-        <v>3.3</v>
-      </c>
-      <c r="P36">
-        <v>2.55</v>
-      </c>
-      <c r="Q36">
+      <c r="U36">
+        <v>1.95</v>
+      </c>
+      <c r="V36">
+        <v>1.85</v>
+      </c>
+      <c r="W36">
+        <v>0.25</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0</v>
       </c>
-      <c r="R36">
-        <v>1.875</v>
-      </c>
-      <c r="S36">
-        <v>1.925</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-      <c r="V36">
-        <v>1.8</v>
-      </c>
-      <c r="W36">
-        <v>1.5</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.875</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063879</v>
+        <v>6062597</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R37">
+        <v>1.825</v>
+      </c>
+      <c r="S37">
+        <v>2.025</v>
+      </c>
+      <c r="T37">
+        <v>3.25</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="S37">
-        <v>1.875</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062597</v>
+        <v>6063879</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N38">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q38">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6062544</v>
+        <v>6063095</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,13 +3909,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3924,43 +3924,43 @@
         <v>41</v>
       </c>
       <c r="K39">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q39">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3969,16 +3969,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4087,10 +4087,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6063878</v>
+        <v>6062598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,49 +4176,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>1.035</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>51</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>1.055</v>
+        <v>1.666</v>
       </c>
       <c r="O42">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>-3.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
         <v>1.825</v>
@@ -4227,25 +4227,25 @@
         <v>1.975</v>
       </c>
       <c r="W42">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6062598</v>
+        <v>6063878</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,49 +4265,49 @@
         <v>45142.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>1.035</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>3.4</v>
+        <v>51</v>
       </c>
       <c r="N43">
-        <v>1.666</v>
+        <v>1.055</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U43">
         <v>1.825</v>
@@ -4316,25 +4316,25 @@
         <v>1.975</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>45145.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4710,10 +4710,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6062599</v>
+        <v>6063877</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
+        <v>1.444</v>
+      </c>
+      <c r="N49">
+        <v>5.75</v>
+      </c>
+      <c r="O49">
         <v>4.5</v>
       </c>
-      <c r="N49">
-        <v>1.5</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
       <c r="P49">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6063877</v>
+        <v>6062599</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45145.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N50">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.8</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6062551</v>
+        <v>6063876</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,61 +4977,61 @@
         <v>45149.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51">
+        <v>1.285</v>
+      </c>
+      <c r="L51">
+        <v>5.5</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.2</v>
+      </c>
+      <c r="O51">
+        <v>6.5</v>
+      </c>
+      <c r="P51">
+        <v>8</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="J51" t="s">
-        <v>42</v>
-      </c>
-      <c r="K51">
-        <v>2.25</v>
-      </c>
-      <c r="L51">
-        <v>3.2</v>
-      </c>
-      <c r="M51">
-        <v>2.8</v>
-      </c>
-      <c r="N51">
-        <v>1.75</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
-      <c r="P51">
-        <v>4</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
+      <c r="U51">
         <v>1.825</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.975</v>
       </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
-      <c r="V51">
-        <v>1.95</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5066,7 +5066,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6063876</v>
+        <v>6062551</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,61 +5155,61 @@
         <v>45149.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="O53">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q53">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5218,10 +5218,10 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5336,7 +5336,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6063875</v>
+        <v>6062554</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,40 +5422,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L56">
+        <v>4.5</v>
+      </c>
+      <c r="M56">
+        <v>1.5</v>
+      </c>
+      <c r="N56">
+        <v>6.5</v>
+      </c>
+      <c r="O56">
         <v>4.75</v>
       </c>
-      <c r="M56">
-        <v>6.5</v>
-      </c>
-      <c r="N56">
-        <v>1.55</v>
-      </c>
-      <c r="O56">
-        <v>4.333</v>
-      </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R56">
         <v>1.9</v>
@@ -5464,34 +5464,34 @@
         <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6062554</v>
+        <v>6063875</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,40 +5600,40 @@
         <v>45163.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N58">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O58">
+        <v>4.333</v>
+      </c>
+      <c r="P58">
         <v>4.75</v>
       </c>
-      <c r="P58">
-        <v>1.444</v>
-      </c>
       <c r="Q58">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R58">
         <v>1.9</v>
@@ -5642,34 +5642,34 @@
         <v>1.9</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,10 +5689,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
         <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6062605</v>
+        <v>6062603</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6062604</v>
+        <v>6062605</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
         <v>1.8</v>
@@ -6087,22 +6087,22 @@
         <v>2</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y63">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6062603</v>
+        <v>6063874</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="N64">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6063874</v>
+        <v>6062604</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45170.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>43</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L65">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
+        <v>-1</v>
+      </c>
+      <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>3.25</v>
+      </c>
+      <c r="U65">
+        <v>1.9</v>
+      </c>
+      <c r="V65">
+        <v>1.9</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>4.25</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
         <v>1</v>
       </c>
-      <c r="R65">
-        <v>1.875</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>3</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>1.975</v>
-      </c>
-      <c r="W65">
-        <v>-1</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>0.55</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.925</v>
-      </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6063096</v>
+        <v>6062558</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,55 +6401,55 @@
         <v>45177.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
         <v>2</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6458,7 +6458,7 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6467,10 +6467,10 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6063873</v>
+        <v>6063096</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,49 +6490,49 @@
         <v>45177.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6544,22 +6544,22 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
         <v>1</v>
       </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6062558</v>
+        <v>6063873</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45177.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69">
+        <v>4.5</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>1.65</v>
+      </c>
+      <c r="N69">
+        <v>6.5</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>1.4</v>
+      </c>
+      <c r="Q69">
+        <v>1.25</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
+        <v>1.8</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>4</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>4</v>
-      </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69">
-        <v>7.5</v>
-      </c>
-      <c r="L69">
-        <v>5.25</v>
-      </c>
-      <c r="M69">
-        <v>1.363</v>
-      </c>
-      <c r="N69">
-        <v>7.5</v>
-      </c>
-      <c r="O69">
-        <v>5.5</v>
-      </c>
-      <c r="P69">
-        <v>1.363</v>
-      </c>
-      <c r="Q69">
-        <v>1.5</v>
-      </c>
-      <c r="R69">
-        <v>1.85</v>
-      </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.363</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
       <c r="AA69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -6935,7 +6935,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -7024,7 +7024,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7222986</v>
+        <v>6322552</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75">
+        <v>3.1</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>2.875</v>
+      </c>
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
+        <v>2.15</v>
+      </c>
+      <c r="Q75">
+        <v>0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
         <v>3</v>
       </c>
-      <c r="J75" t="s">
-        <v>43</v>
-      </c>
-      <c r="K75">
-        <v>5.75</v>
-      </c>
-      <c r="L75">
-        <v>4.5</v>
-      </c>
-      <c r="M75">
-        <v>1.4</v>
-      </c>
-      <c r="N75">
-        <v>4.2</v>
-      </c>
-      <c r="O75">
-        <v>3.75</v>
-      </c>
-      <c r="P75">
-        <v>1.666</v>
-      </c>
-      <c r="Q75">
-        <v>0.75</v>
-      </c>
-      <c r="R75">
-        <v>1.9</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6322553</v>
+        <v>7222986</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6322552</v>
+        <v>6322553</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,13 +7291,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7306,43 +7306,43 @@
         <v>41</v>
       </c>
       <c r="K77">
+        <v>2.15</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>2.25</v>
+      </c>
+      <c r="O77">
         <v>3.1</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77">
-        <v>2.875</v>
-      </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
       <c r="P77">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
+        <v>1.975</v>
+      </c>
+      <c r="S77">
         <v>1.825</v>
       </c>
-      <c r="S77">
-        <v>2.025</v>
-      </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.875</v>
+        <v>1.25</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7351,13 +7351,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
         <v>0.825</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6322551</v>
+        <v>6322550</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>23</v>
+        <v>1.65</v>
       </c>
       <c r="L78">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>1.09</v>
+        <v>4.75</v>
       </c>
       <c r="N78">
-        <v>23</v>
+        <v>1.666</v>
       </c>
       <c r="O78">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>1.071</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
+        <v>1.925</v>
+      </c>
+      <c r="T78">
         <v>2.75</v>
       </c>
-      <c r="R78">
-        <v>1.95</v>
-      </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
-      <c r="T78">
-        <v>3.75</v>
-      </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6322550</v>
+        <v>6322551</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>1.65</v>
+        <v>23</v>
       </c>
       <c r="L79">
+        <v>9</v>
+      </c>
+      <c r="M79">
+        <v>1.09</v>
+      </c>
+      <c r="N79">
+        <v>23</v>
+      </c>
+      <c r="O79">
+        <v>10</v>
+      </c>
+      <c r="P79">
+        <v>1.071</v>
+      </c>
+      <c r="Q79">
+        <v>2.75</v>
+      </c>
+      <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
+        <v>1.85</v>
+      </c>
+      <c r="T79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>4.75</v>
-      </c>
-      <c r="N79">
-        <v>1.666</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>4.333</v>
-      </c>
-      <c r="Q79">
-        <v>-0.75</v>
-      </c>
-      <c r="R79">
-        <v>1.875</v>
-      </c>
-      <c r="S79">
-        <v>1.925</v>
-      </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>38</v>
@@ -7736,10 +7736,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6351328</v>
+        <v>6351327</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,58 +7825,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>41</v>
       </c>
       <c r="K83">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L83">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N83">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7885,16 +7885,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6351327</v>
+        <v>6351328</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,58 +7914,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>41</v>
       </c>
       <c r="K84">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7974,16 +7974,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6383175</v>
+        <v>6383172</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,55 +8270,55 @@
         <v>45205.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>43</v>
       </c>
       <c r="K88">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8327,19 +8327,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.363</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6383176</v>
+        <v>6383175</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N89">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6383172</v>
+        <v>6383176</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45205.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
+        <v>1.909</v>
+      </c>
+      <c r="L90">
+        <v>3.5</v>
+      </c>
+      <c r="M90">
+        <v>3.6</v>
+      </c>
+      <c r="N90">
+        <v>1.6</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>4.75</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
         <v>1.85</v>
-      </c>
-      <c r="L90">
-        <v>3.75</v>
-      </c>
-      <c r="M90">
-        <v>3.5</v>
-      </c>
-      <c r="N90">
-        <v>2</v>
-      </c>
-      <c r="O90">
-        <v>3.6</v>
-      </c>
-      <c r="P90">
-        <v>3.1</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.775</v>
-      </c>
-      <c r="S90">
-        <v>2.025</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8629,7 +8629,7 @@
         <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6471660</v>
+        <v>6471668</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,61 +9071,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N97">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9134,13 +9134,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6471669</v>
+        <v>6471667</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,73 +9163,73 @@
         <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6471668</v>
+        <v>6471669</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N99">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
         <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471667</v>
+        <v>6471660</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,61 +9338,61 @@
         <v>45219.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>4.75</v>
-      </c>
       <c r="N100">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
         <v>-1</v>
       </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
         <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
       </c>
       <c r="T100">
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9401,13 +9401,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9516,7 +9516,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630065</v>
+        <v>7630582</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,73 +9605,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.7</v>
-      </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AC103">
         <v>-0.5</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630582</v>
+        <v>7630065</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AC106">
         <v>-0.5</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630141</v>
+        <v>7630067</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630585</v>
+        <v>7630141</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>42</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M109">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630067</v>
+        <v>7630585</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
+        <v>2.875</v>
+      </c>
+      <c r="N110">
+        <v>2.7</v>
+      </c>
+      <c r="O110">
         <v>3.4</v>
       </c>
-      <c r="N110">
-        <v>2.5</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630586</v>
+        <v>7630143</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,70 +10406,70 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N112">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
         <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7630143</v>
+        <v>7630586</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,70 +10495,70 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="N113">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
         <v>1.825</v>
       </c>
       <c r="W113">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7630073</v>
+        <v>7630588</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
       </c>
       <c r="K115">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7630588</v>
+        <v>7630074</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" t="s">
         <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N116">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7630074</v>
+        <v>7630073</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,19 +10851,19 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>2.375</v>
@@ -10875,49 +10875,49 @@
         <v>2.7</v>
       </c>
       <c r="N117">
+        <v>2.5</v>
+      </c>
+      <c r="O117">
+        <v>3.3</v>
+      </c>
+      <c r="P117">
         <v>2.55</v>
-      </c>
-      <c r="O117">
-        <v>3.2</v>
-      </c>
-      <c r="P117">
-        <v>2.625</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y117">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11032,7 +11032,7 @@
         <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7630146</v>
+        <v>7630075</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,76 +11118,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N120">
         <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7630075</v>
+        <v>7630589</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,70 +11207,70 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
         <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
         <v>1.85</v>
       </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7630589</v>
+        <v>7630146</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
+        <v>1.95</v>
+      </c>
+      <c r="L122">
         <v>3.5</v>
       </c>
-      <c r="L122">
+      <c r="M122">
+        <v>3.5</v>
+      </c>
+      <c r="N122">
+        <v>1.85</v>
+      </c>
+      <c r="O122">
+        <v>3.5</v>
+      </c>
+      <c r="P122">
         <v>3.8</v>
       </c>
-      <c r="M122">
-        <v>1.909</v>
-      </c>
-      <c r="N122">
-        <v>2.9</v>
-      </c>
-      <c r="O122">
-        <v>3.8</v>
-      </c>
-      <c r="P122">
-        <v>2.2</v>
-      </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
         <v>2.8</v>
       </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
       <c r="Z122">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7630148</v>
+        <v>7630590</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,40 +11385,40 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>42</v>
       </c>
       <c r="K123">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M123">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
         <v>1.8</v>
@@ -11427,34 +11427,34 @@
         <v>2</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7630149</v>
+        <v>7630078</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>43</v>
+      </c>
+      <c r="K124">
+        <v>2.3</v>
+      </c>
+      <c r="L124">
+        <v>3.2</v>
+      </c>
+      <c r="M124">
+        <v>2.7</v>
+      </c>
+      <c r="N124">
+        <v>2.45</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
+        <v>2.625</v>
+      </c>
+      <c r="Q124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
-        <v>42</v>
-      </c>
-      <c r="K124">
-        <v>1.615</v>
-      </c>
-      <c r="L124">
-        <v>3.75</v>
-      </c>
-      <c r="M124">
-        <v>4.5</v>
-      </c>
-      <c r="N124">
-        <v>1.6</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>5</v>
-      </c>
-      <c r="Q124">
-        <v>-0.75</v>
-      </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7630590</v>
+        <v>7630077</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="L125">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7630078</v>
+        <v>7630149</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,76 +11652,76 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K126">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y126">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7630077</v>
+        <v>7630148</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,73 +11741,73 @@
         <v>45373.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
+        <v>1.95</v>
+      </c>
+      <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>3.5</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127">
+        <v>3.1</v>
+      </c>
+      <c r="P127">
         <v>2.2</v>
-      </c>
-      <c r="L127">
-        <v>3.3</v>
-      </c>
-      <c r="M127">
-        <v>3</v>
-      </c>
-      <c r="N127">
-        <v>2.9</v>
-      </c>
-      <c r="O127">
-        <v>3.3</v>
-      </c>
-      <c r="P127">
-        <v>2.25</v>
       </c>
       <c r="Q127">
         <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y127">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA127">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11830,7 +11830,7 @@
         <v>45376.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11900,6 +11900,821 @@
       </c>
       <c r="AC128">
         <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7630591</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F129" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>41</v>
+      </c>
+      <c r="K129">
+        <v>1.4</v>
+      </c>
+      <c r="L129">
+        <v>4.2</v>
+      </c>
+      <c r="M129">
+        <v>6.5</v>
+      </c>
+      <c r="N129">
+        <v>1.45</v>
+      </c>
+      <c r="O129">
+        <v>4</v>
+      </c>
+      <c r="P129">
+        <v>6.5</v>
+      </c>
+      <c r="Q129">
+        <v>-1</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.9</v>
+      </c>
+      <c r="V129">
+        <v>1.9</v>
+      </c>
+      <c r="W129">
+        <v>0.45</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>-0</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7630592</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>42</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>3.6</v>
+      </c>
+      <c r="M130">
+        <v>1.75</v>
+      </c>
+      <c r="N130">
+        <v>4.5</v>
+      </c>
+      <c r="O130">
+        <v>3.75</v>
+      </c>
+      <c r="P130">
+        <v>1.65</v>
+      </c>
+      <c r="Q130">
+        <v>0.75</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>1.8</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
+        <v>1.95</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2.75</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>1</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7630080</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>43</v>
+      </c>
+      <c r="K131">
+        <v>2.375</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>2.625</v>
+      </c>
+      <c r="N131">
+        <v>2.55</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>2.6</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1.85</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>2.025</v>
+      </c>
+      <c r="V131">
+        <v>1.775</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>1.6</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.95</v>
+      </c>
+      <c r="AB131">
+        <v>1.025</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7630150</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
+        <v>33</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>43</v>
+      </c>
+      <c r="K132">
+        <v>1.95</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>3.3</v>
+      </c>
+      <c r="N132">
+        <v>2.25</v>
+      </c>
+      <c r="O132">
+        <v>3.25</v>
+      </c>
+      <c r="P132">
+        <v>2.8</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>1.775</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>1.975</v>
+      </c>
+      <c r="V132">
+        <v>1.875</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>1.8</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7630079</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s">
+        <v>35</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>42</v>
+      </c>
+      <c r="K133">
+        <v>1.833</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>3.6</v>
+      </c>
+      <c r="N133">
+        <v>2.4</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>2.6</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
+        <v>1.825</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.25</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>-0</v>
+      </c>
+      <c r="AB133">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>8035094</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
+        <v>38</v>
+      </c>
+      <c r="K134">
+        <v>2.15</v>
+      </c>
+      <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>2.9</v>
+      </c>
+      <c r="N134">
+        <v>2.15</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
+        <v>2.875</v>
+      </c>
+      <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.975</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
+        <v>1.875</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7630594</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" t="s">
+        <v>39</v>
+      </c>
+      <c r="K135">
+        <v>3.6</v>
+      </c>
+      <c r="L135">
+        <v>3.4</v>
+      </c>
+      <c r="M135">
+        <v>1.909</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135">
+        <v>3.4</v>
+      </c>
+      <c r="P135">
+        <v>1.833</v>
+      </c>
+      <c r="Q135">
+        <v>0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
+        <v>1.925</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>1.85</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7630593</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="K136">
+        <v>2.9</v>
+      </c>
+      <c r="L136">
+        <v>3.3</v>
+      </c>
+      <c r="M136">
+        <v>2.25</v>
+      </c>
+      <c r="N136">
+        <v>2.875</v>
+      </c>
+      <c r="O136">
+        <v>3.3</v>
+      </c>
+      <c r="P136">
+        <v>2.25</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2.05</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7630081</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137">
+        <v>2.4</v>
+      </c>
+      <c r="L137">
+        <v>3.4</v>
+      </c>
+      <c r="M137">
+        <v>2.6</v>
+      </c>
+      <c r="N137">
+        <v>2.1</v>
+      </c>
+      <c r="O137">
+        <v>3.5</v>
+      </c>
+      <c r="P137">
+        <v>3.1</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.875</v>
+      </c>
+      <c r="S137">
+        <v>1.975</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>1.85</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7630082</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="K138">
+        <v>1.533</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>5.25</v>
+      </c>
+      <c r="N138">
+        <v>1.6</v>
+      </c>
+      <c r="O138">
+        <v>3.8</v>
+      </c>
+      <c r="P138">
+        <v>4.75</v>
+      </c>
+      <c r="Q138">
+        <v>-0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2.05</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>2.025</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
+++ b/Republic of Ireland First Division/Republic of Ireland First Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Republic of Ireland First Division</t>
   </si>
   <si>
-    <t>Wexford FC</t>
-  </si>
-  <si>
     <t>Waterford FC</t>
   </si>
   <si>
     <t>Bray Wanderers</t>
+  </si>
+  <si>
+    <t>Wexford FC</t>
   </si>
   <si>
     <t>Athlone Town</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6062587</v>
+        <v>6062586</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,55 +619,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P2">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -676,16 +676,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6062586</v>
+        <v>6062529</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
+        <v>3.8</v>
+      </c>
+      <c r="M3">
+        <v>1.6</v>
+      </c>
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>1.2</v>
-      </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6062529</v>
+        <v>6062587</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6062530</v>
+        <v>6063094</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,40 +1328,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
         <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1373,31 +1373,31 @@
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6063094</v>
+        <v>6062530</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,40 +1417,40 @@
         <v>45082.65625</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O11">
         <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1462,31 +1462,31 @@
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6062534</v>
+        <v>6062588</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="L12">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2.6</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>2.4</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
+        <v>1.975</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>1.4</v>
       </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>5.25</v>
-      </c>
-      <c r="P12">
-        <v>1.25</v>
-      </c>
-      <c r="Q12">
-        <v>1.75</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>0.25</v>
-      </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6063884</v>
+        <v>6062535</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,55 +1595,55 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N13">
-        <v>9.5</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="Q13">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>2.25</v>
+      </c>
+      <c r="U13">
         <v>1.825</v>
       </c>
-      <c r="T13">
-        <v>3.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
       <c r="V13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1652,19 +1652,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.222</v>
+        <v>2.8</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6062533</v>
+        <v>6063884</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="N14">
-        <v>1.222</v>
+        <v>9.5</v>
       </c>
       <c r="O14">
         <v>5.5</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
         <v>1.825</v>
       </c>
-      <c r="S14">
-        <v>1.975</v>
-      </c>
       <c r="T14">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r